--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3320.119873046875</v>
+        <v>2851.295166015625</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3320.119873046875</v>
+        <v>2851.295166015625</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.0</v>
+        <v>95.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="D5" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168.0</v>
+        <v>94.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>167.0</v>
+        <v>80.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.0</v>
+        <v>32.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>166.0</v>
+        <v>79.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>24.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>188.0</v>
+        <v>81.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>120.0</v>
+        <v>32.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0</v>
+        <v>49.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>82.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0</v>
+        <v>32.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0</v>
+        <v>57.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>190.0</v>
+        <v>76.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>136.0</v>
+        <v>16.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.0</v>
+        <v>57.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>191.0</v>
+        <v>78.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.0</v>
+        <v>8.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192.0</v>
+        <v>77.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.0</v>
+        <v>49.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>194.0</v>
+        <v>75.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.0</v>
+        <v>74.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0</v>
+        <v>65.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>196.0</v>
+        <v>73.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>180.0</v>
+        <v>8.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0</v>
+        <v>73.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201.0</v>
+        <v>72.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>180.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0</v>
+        <v>81.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>197.0</v>
+        <v>71.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>198.0</v>
+        <v>66.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>172.0</v>
+        <v>24.0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.0</v>
+        <v>89.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>199.0</v>
+        <v>65.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.0</v>
+        <v>89.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>145.0</v>
+        <v>64.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D24" t="n">
-        <v>53.0</v>
+        <v>97.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>146.0</v>
+        <v>67.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>172.0</v>
+        <v>16.0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.0</v>
+        <v>97.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>147.0</v>
+        <v>70.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D26" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148.0</v>
+        <v>69.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D27" t="n">
-        <v>77.0</v>
+        <v>109.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>140.0</v>
+        <v>68.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>180.0</v>
+        <v>16.0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.0</v>
+        <v>109.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>141.0</v>
+        <v>58.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D29" t="n">
-        <v>77.0</v>
+        <v>113.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>142.0</v>
+        <v>57.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>121.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>143.0</v>
+        <v>56.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.0</v>
+        <v>129.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>144.0</v>
+        <v>45.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D32" t="n">
-        <v>53.0</v>
+        <v>129.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>200.0</v>
+        <v>46.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D33" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>221.0</v>
+        <v>55.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.0</v>
+        <v>137.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>222.0</v>
+        <v>47.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>236.0</v>
+        <v>40.0</v>
       </c>
       <c r="D35" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>223.0</v>
+        <v>54.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0</v>
+        <v>32.0</v>
       </c>
       <c r="D36" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>224.0</v>
+        <v>53.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>153.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>225.0</v>
+        <v>48.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0</v>
+        <v>40.0</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>153.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>226.0</v>
+        <v>49.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>260.0</v>
+        <v>40.0</v>
       </c>
       <c r="D39" t="n">
-        <v>45.0</v>
+        <v>161.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>227.0</v>
+        <v>52.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.0</v>
+        <v>161.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228.0</v>
+        <v>51.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229.0</v>
+        <v>50.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>260.0</v>
+        <v>40.0</v>
       </c>
       <c r="D42" t="n">
-        <v>69.0</v>
+        <v>169.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>230.0</v>
+        <v>37.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.0</v>
+        <v>169.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251.0</v>
+        <v>38.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.0</v>
+        <v>161.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250.0</v>
+        <v>36.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>260.0</v>
+        <v>64.0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.0</v>
+        <v>165.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>247.0</v>
+        <v>35.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>268.0</v>
+        <v>64.0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.0</v>
+        <v>157.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243.0</v>
+        <v>39.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>280.0</v>
+        <v>56.0</v>
       </c>
       <c r="D47" t="n">
-        <v>109.0</v>
+        <v>153.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>242.0</v>
+        <v>40.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>288.0</v>
+        <v>56.0</v>
       </c>
       <c r="D48" t="n">
-        <v>109.0</v>
+        <v>145.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241.0</v>
+        <v>41.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D49" t="n">
-        <v>101.0</v>
+        <v>137.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244.0</v>
+        <v>42.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D50" t="n">
-        <v>101.0</v>
+        <v>129.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245.0</v>
+        <v>43.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D51" t="n">
-        <v>93.0</v>
+        <v>121.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>240.0</v>
+        <v>60.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D52" t="n">
-        <v>93.0</v>
+        <v>113.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>239.0</v>
+        <v>44.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D53" t="n">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>246.0</v>
+        <v>59.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D54" t="n">
-        <v>85.0</v>
+        <v>113.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>231.0</v>
+        <v>63.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D55" t="n">
-        <v>77.0</v>
+        <v>99.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>238.0</v>
+        <v>62.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>284.0</v>
+        <v>48.0</v>
       </c>
       <c r="D56" t="n">
-        <v>77.0</v>
+        <v>99.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>237.0</v>
+        <v>61.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D57" t="n">
-        <v>69.0</v>
+        <v>105.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>232.0</v>
+        <v>118.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D58" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>233.0</v>
+        <v>117.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D59" t="n">
-        <v>61.0</v>
+        <v>89.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>236.0</v>
+        <v>115.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D60" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235.0</v>
+        <v>114.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D61" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>234.0</v>
+        <v>113.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>276.0</v>
+        <v>48.0</v>
       </c>
       <c r="D62" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>219.0</v>
+        <v>116.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>236.0</v>
+        <v>48.0</v>
       </c>
       <c r="D63" t="n">
-        <v>29.0</v>
+        <v>83.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>218.0</v>
+        <v>86.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>236.0</v>
+        <v>40.0</v>
       </c>
       <c r="D64" t="n">
-        <v>37.0</v>
+        <v>83.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>220.0</v>
+        <v>85.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D65" t="n">
-        <v>29.0</v>
+        <v>81.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>217.0</v>
+        <v>84.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D66" t="n">
-        <v>37.0</v>
+        <v>73.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>215.0</v>
+        <v>87.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>236.0</v>
+        <v>40.0</v>
       </c>
       <c r="D67" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>214.0</v>
+        <v>83.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>236.0</v>
+        <v>32.0</v>
       </c>
       <c r="D68" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>216.0</v>
+        <v>88.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>228.0</v>
+        <v>40.0</v>
       </c>
       <c r="D69" t="n">
-        <v>45.0</v>
+        <v>63.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>213.0</v>
+        <v>112.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>228.0</v>
+        <v>48.0</v>
       </c>
       <c r="D70" t="n">
-        <v>53.0</v>
+        <v>63.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>211.0</v>
+        <v>111.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D71" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>210.0</v>
+        <v>110.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D72" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>212.0</v>
+        <v>108.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D73" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>207.0</v>
+        <v>109.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>228.0</v>
+        <v>48.0</v>
       </c>
       <c r="D74" t="n">
-        <v>69.0</v>
+        <v>51.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>209.0</v>
+        <v>89.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>236.0</v>
+        <v>40.0</v>
       </c>
       <c r="D75" t="n">
-        <v>77.0</v>
+        <v>51.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>208.0</v>
+        <v>90.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>228.0</v>
+        <v>44.0</v>
       </c>
       <c r="D76" t="n">
-        <v>77.0</v>
+        <v>43.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253.0</v>
+        <v>91.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>228.0</v>
+        <v>44.0</v>
       </c>
       <c r="D77" t="n">
-        <v>85.0</v>
+        <v>35.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.0</v>
+        <v>104.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D78" t="n">
-        <v>93.0</v>
+        <v>41.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>257.0</v>
+        <v>103.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D79" t="n">
-        <v>101.0</v>
+        <v>33.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>258.0</v>
+        <v>102.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D80" t="n">
-        <v>109.0</v>
+        <v>25.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>256.0</v>
+        <v>92.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>236.0</v>
+        <v>44.0</v>
       </c>
       <c r="D81" t="n">
-        <v>101.0</v>
+        <v>27.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278.0</v>
+        <v>99.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>252.0</v>
+        <v>44.0</v>
       </c>
       <c r="D82" t="n">
-        <v>125.0</v>
+        <v>11.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>279.0</v>
+        <v>100.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D83" t="n">
-        <v>129.0</v>
+        <v>9.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.0</v>
+        <v>101.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>270.0</v>
+        <v>56.0</v>
       </c>
       <c r="D84" t="n">
-        <v>133.0</v>
+        <v>17.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>280.0</v>
+        <v>169.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>280.0</v>
+        <v>64.0</v>
       </c>
       <c r="D85" t="n">
-        <v>133.0</v>
+        <v>21.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.0</v>
+        <v>168.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>288.0</v>
+        <v>72.0</v>
       </c>
       <c r="D86" t="n">
-        <v>149.0</v>
+        <v>9.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.0</v>
+        <v>167.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>288.0</v>
+        <v>80.0</v>
       </c>
       <c r="D87" t="n">
-        <v>129.0</v>
+        <v>9.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>248.0</v>
+        <v>166.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>260.0</v>
+        <v>92.0</v>
       </c>
       <c r="D88" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>249.0</v>
+        <v>171.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>252.0</v>
+        <v>80.0</v>
       </c>
       <c r="D89" t="n">
-        <v>101.0</v>
+        <v>25.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255.0</v>
+        <v>172.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>236.0</v>
+        <v>80.0</v>
       </c>
       <c r="D90" t="n">
-        <v>93.0</v>
+        <v>25.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252.0</v>
+        <v>170.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>236.0</v>
+        <v>72.0</v>
       </c>
       <c r="D91" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>206.0</v>
+        <v>105.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>220.0</v>
+        <v>64.0</v>
       </c>
       <c r="D92" t="n">
-        <v>73.0</v>
+        <v>41.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>205.0</v>
+        <v>107.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>212.0</v>
+        <v>72.0</v>
       </c>
       <c r="D93" t="n">
-        <v>65.0</v>
+        <v>49.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>204.0</v>
+        <v>106.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>204.0</v>
+        <v>72.0</v>
       </c>
       <c r="D94" t="n">
-        <v>57.0</v>
+        <v>41.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>203.0</v>
+        <v>173.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>196.0</v>
+        <v>80.0</v>
       </c>
       <c r="D95" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.0</v>
+        <v>174.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>188.0</v>
+        <v>88.0</v>
       </c>
       <c r="D96" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>193.0</v>
+        <v>175.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>156.0</v>
+        <v>104.0</v>
       </c>
       <c r="D97" t="n">
-        <v>25.0</v>
+        <v>57.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>186.0</v>
+        <v>161.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>132.0</v>
+        <v>104.0</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0</v>
+        <v>49.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>187.0</v>
+        <v>162.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>185.0</v>
+        <v>163.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="D100" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>184.0</v>
+        <v>164.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="D101" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>183.0</v>
+        <v>165.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="D102" t="n">
-        <v>45.0</v>
+        <v>17.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182.0</v>
+        <v>187.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
@@ -1800,7 +1800,7 @@
         <v>124.0</v>
       </c>
       <c r="D103" t="n">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>181.0</v>
+        <v>188.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>124.0</v>
+        <v>120.0</v>
       </c>
       <c r="D104" t="n">
-        <v>61.0</v>
+        <v>9.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>176.0</v>
+        <v>189.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>124.0</v>
+        <v>128.0</v>
       </c>
       <c r="D105" t="n">
-        <v>69.0</v>
+        <v>9.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0</v>
+        <v>190.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>124.0</v>
+        <v>136.0</v>
       </c>
       <c r="D106" t="n">
-        <v>77.0</v>
+        <v>9.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>151.0</v>
+        <v>191.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>124.0</v>
+        <v>148.0</v>
       </c>
       <c r="D107" t="n">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>152.0</v>
+        <v>192.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>124.0</v>
+        <v>162.0</v>
       </c>
       <c r="D108" t="n">
-        <v>93.0</v>
+        <v>9.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>156.0</v>
+        <v>194.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D109" t="n">
-        <v>101.0</v>
+        <v>21.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>153.0</v>
+        <v>195.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D110" t="n">
-        <v>109.0</v>
+        <v>21.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>155.0</v>
+        <v>196.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D111" t="n">
-        <v>117.0</v>
+        <v>29.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>154.0</v>
+        <v>197.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D112" t="n">
-        <v>125.0</v>
+        <v>29.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>18.0</v>
+        <v>193.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>164.0</v>
+        <v>156.0</v>
       </c>
       <c r="D113" t="n">
-        <v>145.0</v>
+        <v>25.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17.0</v>
+        <v>186.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>172.0</v>
+        <v>132.0</v>
       </c>
       <c r="D114" t="n">
-        <v>145.0</v>
+        <v>21.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.0</v>
+        <v>185.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>188.0</v>
+        <v>124.0</v>
       </c>
       <c r="D115" t="n">
-        <v>145.0</v>
+        <v>29.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>271.0</v>
+        <v>184.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>196.0</v>
+        <v>124.0</v>
       </c>
       <c r="D116" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>272.0</v>
+        <v>183.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>204.0</v>
+        <v>124.0</v>
       </c>
       <c r="D117" t="n">
-        <v>145.0</v>
+        <v>45.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>273.0</v>
+        <v>182.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>212.0</v>
+        <v>124.0</v>
       </c>
       <c r="D118" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>274.0</v>
+        <v>181.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>220.0</v>
+        <v>124.0</v>
       </c>
       <c r="D119" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>275.0</v>
+        <v>180.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D120" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>276.0</v>
+        <v>179.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>236.0</v>
+        <v>140.0</v>
       </c>
       <c r="D121" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>277.0</v>
+        <v>176.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>246.0</v>
+        <v>124.0</v>
       </c>
       <c r="D122" t="n">
-        <v>141.0</v>
+        <v>69.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.0</v>
+        <v>177.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>256.0</v>
+        <v>124.0</v>
       </c>
       <c r="D123" t="n">
-        <v>141.0</v>
+        <v>77.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.0</v>
+        <v>178.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>256.0</v>
+        <v>132.0</v>
       </c>
       <c r="D124" t="n">
-        <v>157.0</v>
+        <v>81.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.0</v>
+        <v>150.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>246.0</v>
+        <v>148.0</v>
       </c>
       <c r="D125" t="n">
-        <v>157.0</v>
+        <v>85.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.0</v>
+        <v>152.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D126" t="n">
-        <v>161.0</v>
+        <v>93.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.0</v>
+        <v>151.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D127" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.0</v>
+        <v>160.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D128" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.0</v>
+        <v>159.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>220.0</v>
+        <v>104.0</v>
       </c>
       <c r="D129" t="n">
-        <v>169.0</v>
+        <v>73.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>11.0</v>
+        <v>158.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>212.0</v>
+        <v>104.0</v>
       </c>
       <c r="D130" t="n">
-        <v>169.0</v>
+        <v>81.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.0</v>
+        <v>157.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>204.0</v>
+        <v>104.0</v>
       </c>
       <c r="D131" t="n">
-        <v>169.0</v>
+        <v>89.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>15.0</v>
+        <v>119.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>196.0</v>
+        <v>104.0</v>
       </c>
       <c r="D132" t="n">
-        <v>161.0</v>
+        <v>97.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>13.0</v>
+        <v>120.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>196.0</v>
+        <v>104.0</v>
       </c>
       <c r="D133" t="n">
-        <v>169.0</v>
+        <v>105.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14.0</v>
+        <v>121.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>188.0</v>
+        <v>104.0</v>
       </c>
       <c r="D134" t="n">
-        <v>169.0</v>
+        <v>113.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133.0</v>
+        <v>122.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>164.0</v>
+        <v>104.0</v>
       </c>
       <c r="D135" t="n">
-        <v>137.0</v>
+        <v>121.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>134.0</v>
+        <v>156.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D136" t="n">
-        <v>125.0</v>
+        <v>101.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>270.0</v>
+        <v>153.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D137" t="n">
-        <v>125.0</v>
+        <v>109.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>135.0</v>
+        <v>155.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D138" t="n">
         <v>117.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>269.0</v>
+        <v>154.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D139" t="n">
-        <v>117.0</v>
+        <v>125.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>268.0</v>
+        <v>129.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>180.0</v>
+        <v>132.0</v>
       </c>
       <c r="D140" t="n">
-        <v>109.0</v>
+        <v>137.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.0</v>
+        <v>130.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>172.0</v>
+        <v>140.0</v>
       </c>
       <c r="D141" t="n">
-        <v>109.0</v>
+        <v>137.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>137.0</v>
+        <v>21.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>172.0</v>
+        <v>140.0</v>
       </c>
       <c r="D142" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>267.0</v>
+        <v>128.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>180.0</v>
+        <v>132.0</v>
       </c>
       <c r="D143" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>259.0</v>
+        <v>127.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D144" t="n">
-        <v>117.0</v>
+        <v>145.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>260.0</v>
+        <v>126.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>228.0</v>
+        <v>116.0</v>
       </c>
       <c r="D145" t="n">
-        <v>125.0</v>
+        <v>145.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>261.0</v>
+        <v>123.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>220.0</v>
+        <v>104.0</v>
       </c>
       <c r="D146" t="n">
-        <v>125.0</v>
+        <v>129.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>262.0</v>
+        <v>124.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>212.0</v>
+        <v>104.0</v>
       </c>
       <c r="D147" t="n">
-        <v>117.0</v>
+        <v>137.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>263.0</v>
+        <v>125.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>204.0</v>
+        <v>104.0</v>
       </c>
       <c r="D148" t="n">
-        <v>109.0</v>
+        <v>145.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>264.0</v>
+        <v>30.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>196.0</v>
+        <v>104.0</v>
       </c>
       <c r="D149" t="n">
-        <v>101.0</v>
+        <v>153.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>265.0</v>
+        <v>34.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>188.0</v>
+        <v>80.0</v>
       </c>
       <c r="D150" t="n">
-        <v>93.0</v>
+        <v>157.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>266.0</v>
+        <v>33.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
       <c r="D151" t="n">
-        <v>93.0</v>
+        <v>165.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>138.0</v>
+        <v>32.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>172.0</v>
+        <v>104.0</v>
       </c>
       <c r="D152" t="n">
-        <v>93.0</v>
+        <v>169.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>139.0</v>
+        <v>31.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>172.0</v>
+        <v>104.0</v>
       </c>
       <c r="D153" t="n">
-        <v>85.0</v>
+        <v>161.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>149.0</v>
+        <v>29.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>164.0</v>
+        <v>116.0</v>
       </c>
       <c r="D154" t="n">
-        <v>81.0</v>
+        <v>161.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150.0</v>
+        <v>28.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>148.0</v>
+        <v>124.0</v>
       </c>
       <c r="D155" t="n">
-        <v>85.0</v>
+        <v>169.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>178.0</v>
+        <v>27.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -2701,7 +2701,7 @@
         <v>132.0</v>
       </c>
       <c r="D156" t="n">
-        <v>81.0</v>
+        <v>169.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>179.0</v>
+        <v>26.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -2718,7 +2718,7 @@
         <v>140.0</v>
       </c>
       <c r="D157" t="n">
-        <v>65.0</v>
+        <v>169.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>180.0</v>
+        <v>22.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>132.0</v>
+        <v>148.0</v>
       </c>
       <c r="D158" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>165.0</v>
+        <v>25.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>104.0</v>
+        <v>156.0</v>
       </c>
       <c r="D159" t="n">
-        <v>17.0</v>
+        <v>169.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C160" t="n">
         <v>164.0</v>
       </c>
-      <c r="B160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>104.0</v>
-      </c>
       <c r="D160" t="n">
-        <v>25.0</v>
+        <v>169.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>163.0</v>
+        <v>24.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D161" t="n">
-        <v>33.0</v>
+        <v>169.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.0</v>
+        <v>19.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>104.0</v>
+        <v>156.0</v>
       </c>
       <c r="D162" t="n">
-        <v>41.0</v>
+        <v>145.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>161.0</v>
+        <v>20.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>104.0</v>
+        <v>148.0</v>
       </c>
       <c r="D163" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>175.0</v>
+        <v>131.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>104.0</v>
+        <v>148.0</v>
       </c>
       <c r="D164" t="n">
-        <v>57.0</v>
+        <v>137.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160.0</v>
+        <v>132.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>104.0</v>
+        <v>156.0</v>
       </c>
       <c r="D165" t="n">
-        <v>65.0</v>
+        <v>137.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>159.0</v>
+        <v>133.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>104.0</v>
+        <v>164.0</v>
       </c>
       <c r="D166" t="n">
-        <v>73.0</v>
+        <v>137.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>158.0</v>
+        <v>18.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>104.0</v>
+        <v>164.0</v>
       </c>
       <c r="D167" t="n">
-        <v>81.0</v>
+        <v>145.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>157.0</v>
+        <v>17.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D168" t="n">
-        <v>89.0</v>
+        <v>145.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>119.0</v>
+        <v>16.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>104.0</v>
+        <v>188.0</v>
       </c>
       <c r="D169" t="n">
-        <v>97.0</v>
+        <v>145.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>120.0</v>
+        <v>271.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>104.0</v>
+        <v>196.0</v>
       </c>
       <c r="D170" t="n">
-        <v>105.0</v>
+        <v>145.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>121.0</v>
+        <v>272.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="D171" t="n">
-        <v>113.0</v>
+        <v>145.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>122.0</v>
+        <v>15.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>104.0</v>
+        <v>196.0</v>
       </c>
       <c r="D172" t="n">
-        <v>121.0</v>
+        <v>161.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>123.0</v>
+        <v>14.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>104.0</v>
+        <v>188.0</v>
       </c>
       <c r="D173" t="n">
-        <v>129.0</v>
+        <v>169.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>124.0</v>
+        <v>13.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>104.0</v>
+        <v>196.0</v>
       </c>
       <c r="D174" t="n">
-        <v>137.0</v>
+        <v>169.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>125.0</v>
+        <v>12.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="D175" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="D176" t="n">
-        <v>153.0</v>
+        <v>169.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>104.0</v>
+        <v>220.0</v>
       </c>
       <c r="D177" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D178" t="n">
-        <v>169.0</v>
+        <v>161.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,13 +3083,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D179" t="n">
         <v>169.0</v>
@@ -3100,13 +3100,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>132.0</v>
+        <v>236.0</v>
       </c>
       <c r="D180" t="n">
         <v>169.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>140.0</v>
+        <v>246.0</v>
       </c>
       <c r="D181" t="n">
-        <v>169.0</v>
+        <v>157.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>148.0</v>
+        <v>256.0</v>
       </c>
       <c r="D182" t="n">
-        <v>169.0</v>
+        <v>157.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>156.0</v>
+        <v>288.0</v>
       </c>
       <c r="D183" t="n">
-        <v>169.0</v>
+        <v>149.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>164.0</v>
+        <v>288.0</v>
       </c>
       <c r="D184" t="n">
-        <v>169.0</v>
+        <v>129.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>24.0</v>
+        <v>280.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>172.0</v>
+        <v>280.0</v>
       </c>
       <c r="D185" t="n">
-        <v>169.0</v>
+        <v>133.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>116.0</v>
+        <v>270.0</v>
       </c>
       <c r="D186" t="n">
-        <v>161.0</v>
+        <v>133.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>126.0</v>
+        <v>279.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>116.0</v>
+        <v>260.0</v>
       </c>
       <c r="D187" t="n">
-        <v>145.0</v>
+        <v>129.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>127.0</v>
+        <v>278.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>124.0</v>
+        <v>252.0</v>
       </c>
       <c r="D188" t="n">
-        <v>145.0</v>
+        <v>125.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>128.0</v>
+        <v>4.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>132.0</v>
+        <v>256.0</v>
       </c>
       <c r="D189" t="n">
-        <v>145.0</v>
+        <v>141.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.0</v>
+        <v>277.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>140.0</v>
+        <v>246.0</v>
       </c>
       <c r="D190" t="n">
-        <v>145.0</v>
+        <v>141.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>129.0</v>
+        <v>276.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>132.0</v>
+        <v>236.0</v>
       </c>
       <c r="D191" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>130.0</v>
+        <v>275.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>140.0</v>
+        <v>228.0</v>
       </c>
       <c r="D192" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>20.0</v>
+        <v>274.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>148.0</v>
+        <v>220.0</v>
       </c>
       <c r="D193" t="n">
         <v>145.0</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>19.0</v>
+        <v>273.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>156.0</v>
+        <v>212.0</v>
       </c>
       <c r="D194" t="n">
         <v>145.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132.0</v>
+        <v>261.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>156.0</v>
+        <v>220.0</v>
       </c>
       <c r="D195" t="n">
-        <v>137.0</v>
+        <v>125.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>131.0</v>
+        <v>260.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>148.0</v>
+        <v>228.0</v>
       </c>
       <c r="D196" t="n">
-        <v>137.0</v>
+        <v>125.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>172.0</v>
+        <v>259.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>80.0</v>
+        <v>228.0</v>
       </c>
       <c r="D197" t="n">
-        <v>25.0</v>
+        <v>117.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>171.0</v>
+        <v>258.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>80.0</v>
+        <v>228.0</v>
       </c>
       <c r="D198" t="n">
-        <v>25.0</v>
+        <v>109.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>170.0</v>
+        <v>262.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>72.0</v>
+        <v>212.0</v>
       </c>
       <c r="D199" t="n">
-        <v>25.0</v>
+        <v>117.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>169.0</v>
+        <v>263.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>64.0</v>
+        <v>204.0</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0</v>
+        <v>109.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>102.0</v>
+        <v>264.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="D201" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>103.0</v>
+        <v>268.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D202" t="n">
-        <v>33.0</v>
+        <v>109.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104.0</v>
+        <v>269.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D203" t="n">
-        <v>41.0</v>
+        <v>117.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>108.0</v>
+        <v>270.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D204" t="n">
-        <v>49.0</v>
+        <v>125.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>107.0</v>
+        <v>134.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>72.0</v>
+        <v>172.0</v>
       </c>
       <c r="D205" t="n">
-        <v>49.0</v>
+        <v>125.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>174.0</v>
+        <v>135.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>88.0</v>
+        <v>172.0</v>
       </c>
       <c r="D206" t="n">
-        <v>49.0</v>
+        <v>117.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>173.0</v>
+        <v>136.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>80.0</v>
+        <v>172.0</v>
       </c>
       <c r="D207" t="n">
-        <v>41.0</v>
+        <v>109.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>106.0</v>
+        <v>137.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>72.0</v>
+        <v>172.0</v>
       </c>
       <c r="D208" t="n">
-        <v>41.0</v>
+        <v>101.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105.0</v>
+        <v>267.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>64.0</v>
+        <v>180.0</v>
       </c>
       <c r="D209" t="n">
-        <v>41.0</v>
+        <v>101.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>92.0</v>
+        <v>265.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>44.0</v>
+        <v>188.0</v>
       </c>
       <c r="D210" t="n">
-        <v>27.0</v>
+        <v>93.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>91.0</v>
+        <v>140.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>44.0</v>
+        <v>180.0</v>
       </c>
       <c r="D211" t="n">
-        <v>35.0</v>
+        <v>85.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>90.0</v>
+        <v>266.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>44.0</v>
+        <v>180.0</v>
       </c>
       <c r="D212" t="n">
-        <v>43.0</v>
+        <v>93.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="D213" t="n">
         <v>93.0</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>25.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>94.0</v>
+        <v>139.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>24.0</v>
+        <v>172.0</v>
       </c>
       <c r="D214" t="n">
-        <v>25.0</v>
+        <v>85.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>80.0</v>
+        <v>149.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>32.0</v>
+        <v>164.0</v>
       </c>
       <c r="D215" t="n">
-        <v>41.0</v>
+        <v>81.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>109.0</v>
+        <v>148.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D216" t="n">
-        <v>51.0</v>
+        <v>77.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>89.0</v>
+        <v>141.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D217" t="n">
-        <v>51.0</v>
+        <v>77.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>110.0</v>
+        <v>142.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D218" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111.0</v>
+        <v>147.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D219" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>114.0</v>
+        <v>146.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D220" t="n">
-        <v>73.0</v>
+        <v>61.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>112.0</v>
+        <v>145.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D221" t="n">
-        <v>63.0</v>
+        <v>53.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>88.0</v>
+        <v>143.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D222" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>113.0</v>
+        <v>144.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D223" t="n">
-        <v>73.0</v>
+        <v>53.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>87.0</v>
+        <v>200.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D224" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>115.0</v>
+        <v>199.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D225" t="n">
-        <v>81.0</v>
+        <v>45.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>117.0</v>
+        <v>198.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D226" t="n">
-        <v>89.0</v>
+        <v>37.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>116.0</v>
+        <v>201.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D227" t="n">
-        <v>83.0</v>
+        <v>37.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>86.0</v>
+        <v>202.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>40.0</v>
+        <v>188.0</v>
       </c>
       <c r="D228" t="n">
-        <v>83.0</v>
+        <v>41.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>118.0</v>
+        <v>203.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="D229" t="n">
-        <v>97.0</v>
+        <v>49.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>61.0</v>
+        <v>204.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="D230" t="n">
-        <v>105.0</v>
+        <v>57.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>60.0</v>
+        <v>205.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>56.0</v>
+        <v>212.0</v>
       </c>
       <c r="D231" t="n">
-        <v>113.0</v>
+        <v>65.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.0</v>
+        <v>216.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D232" t="n">
-        <v>121.0</v>
+        <v>45.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>42.0</v>
+        <v>213.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D233" t="n">
-        <v>129.0</v>
+        <v>53.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>41.0</v>
+        <v>212.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D234" t="n">
-        <v>137.0</v>
+        <v>61.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>40.0</v>
+        <v>207.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D235" t="n">
-        <v>145.0</v>
+        <v>69.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>39.0</v>
+        <v>206.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>56.0</v>
+        <v>220.0</v>
       </c>
       <c r="D236" t="n">
-        <v>153.0</v>
+        <v>73.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>38.0</v>
+        <v>208.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D237" t="n">
-        <v>161.0</v>
+        <v>77.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>37.0</v>
+        <v>253.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D238" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>36.0</v>
+        <v>254.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D239" t="n">
-        <v>165.0</v>
+        <v>93.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>35.0</v>
+        <v>257.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D240" t="n">
-        <v>157.0</v>
+        <v>101.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>33.0</v>
+        <v>256.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>90.0</v>
+        <v>236.0</v>
       </c>
       <c r="D241" t="n">
-        <v>165.0</v>
+        <v>101.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>34.0</v>
+        <v>255.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>80.0</v>
+        <v>236.0</v>
       </c>
       <c r="D242" t="n">
-        <v>157.0</v>
+        <v>93.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>62.0</v>
+        <v>252.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>48.0</v>
+        <v>236.0</v>
       </c>
       <c r="D243" t="n">
-        <v>99.0</v>
+        <v>85.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>63.0</v>
+        <v>209.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D244" t="n">
-        <v>99.0</v>
+        <v>77.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59.0</v>
+        <v>210.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D245" t="n">
-        <v>113.0</v>
+        <v>69.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>44.0</v>
+        <v>211.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D246" t="n">
-        <v>121.0</v>
+        <v>61.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>45.0</v>
+        <v>214.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D247" t="n">
-        <v>129.0</v>
+        <v>53.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>46.0</v>
+        <v>215.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D248" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>47.0</v>
+        <v>218.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D249" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>48.0</v>
+        <v>217.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>40.0</v>
+        <v>228.0</v>
       </c>
       <c r="D250" t="n">
-        <v>153.0</v>
+        <v>37.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>49.0</v>
+        <v>220.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>40.0</v>
+        <v>228.0</v>
       </c>
       <c r="D251" t="n">
-        <v>161.0</v>
+        <v>29.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>50.0</v>
+        <v>221.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>40.0</v>
+        <v>228.0</v>
       </c>
       <c r="D252" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>51.0</v>
+        <v>222.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>32.0</v>
+        <v>236.0</v>
       </c>
       <c r="D253" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>52.0</v>
+        <v>219.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>32.0</v>
+        <v>236.0</v>
       </c>
       <c r="D254" t="n">
-        <v>161.0</v>
+        <v>29.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>53.0</v>
+        <v>223.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>32.0</v>
+        <v>252.0</v>
       </c>
       <c r="D255" t="n">
-        <v>153.0</v>
+        <v>21.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>54.0</v>
+        <v>224.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D256" t="n">
-        <v>145.0</v>
+        <v>29.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55.0</v>
+        <v>225.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D257" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56.0</v>
+        <v>226.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D258" t="n">
-        <v>129.0</v>
+        <v>45.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>57.0</v>
+        <v>234.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D259" t="n">
-        <v>121.0</v>
+        <v>53.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>58.0</v>
+        <v>235.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D260" t="n">
-        <v>113.0</v>
+        <v>53.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>64.0</v>
+        <v>236.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D261" t="n">
-        <v>97.0</v>
+        <v>61.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>65.0</v>
+        <v>237.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D262" t="n">
-        <v>89.0</v>
+        <v>69.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>85.0</v>
+        <v>233.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D263" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>84.0</v>
+        <v>232.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D264" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>83.0</v>
+        <v>231.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D265" t="n">
-        <v>65.0</v>
+        <v>77.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>82.0</v>
+        <v>238.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D266" t="n">
-        <v>57.0</v>
+        <v>77.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>81.0</v>
+        <v>246.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D267" t="n">
-        <v>49.0</v>
+        <v>85.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>79.0</v>
+        <v>239.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>24.0</v>
+        <v>284.0</v>
       </c>
       <c r="D268" t="n">
-        <v>45.0</v>
+        <v>85.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>76.0</v>
+        <v>240.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>16.0</v>
+        <v>284.0</v>
       </c>
       <c r="D269" t="n">
-        <v>57.0</v>
+        <v>93.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>66.0</v>
+        <v>241.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>24.0</v>
+        <v>284.0</v>
       </c>
       <c r="D270" t="n">
-        <v>89.0</v>
+        <v>101.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>67.0</v>
+        <v>242.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>16.0</v>
+        <v>288.0</v>
       </c>
       <c r="D271" t="n">
-        <v>97.0</v>
+        <v>109.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,13 +4664,13 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>68.0</v>
+        <v>243.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>16.0</v>
+        <v>280.0</v>
       </c>
       <c r="D272" t="n">
         <v>109.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>69.0</v>
+        <v>244.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>8.0</v>
+        <v>276.0</v>
       </c>
       <c r="D273" t="n">
-        <v>109.0</v>
+        <v>101.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>70.0</v>
+        <v>245.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>8.0</v>
+        <v>276.0</v>
       </c>
       <c r="D274" t="n">
-        <v>97.0</v>
+        <v>93.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>71.0</v>
+        <v>247.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>8.0</v>
+        <v>268.0</v>
       </c>
       <c r="D275" t="n">
-        <v>89.0</v>
+        <v>97.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>72.0</v>
+        <v>248.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D276" t="n">
-        <v>81.0</v>
+        <v>109.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>73.0</v>
+        <v>249.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>8.0</v>
+        <v>252.0</v>
       </c>
       <c r="D277" t="n">
-        <v>73.0</v>
+        <v>101.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74.0</v>
+        <v>250.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D278" t="n">
-        <v>65.0</v>
+        <v>93.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>75.0</v>
+        <v>251.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D279" t="n">
-        <v>57.0</v>
+        <v>85.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="D280" t="n">
         <v>77.0</v>
-      </c>
-      <c r="B280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C280" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D280" t="n">
-        <v>49.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>78.0</v>
+        <v>229.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D281" t="n">
-        <v>41.0</v>
+        <v>69.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>95.0</v>
+        <v>228.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>16.0</v>
+        <v>260.0</v>
       </c>
       <c r="D282" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>96.0</v>
+        <v>227.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>16.0</v>
+        <v>260.0</v>
       </c>
       <c r="D283" t="n">
-        <v>17.0</v>
+        <v>53.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3320.119873046875</v>
+        <v>2872.69384765625</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3320.119873046875</v>
+        <v>2872.69384765625</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,13 +125,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
         <v>17.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.0</v>
+        <v>95.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168.0</v>
+        <v>98.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>167.0</v>
+        <v>99.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.0</v>
+        <v>44.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,13 +227,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>166.0</v>
+        <v>100.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>56.0</v>
       </c>
       <c r="D11" t="n">
         <v>9.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>188.0</v>
+        <v>101.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>120.0</v>
+        <v>56.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>169.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0</v>
+        <v>64.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>190.0</v>
+        <v>102.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>136.0</v>
+        <v>56.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>191.0</v>
+        <v>103.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.0</v>
+        <v>56.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192.0</v>
+        <v>104.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0</v>
+        <v>56.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>194.0</v>
+        <v>92.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>172.0</v>
+        <v>44.0</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.0</v>
+        <v>91.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>44.0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>196.0</v>
+        <v>80.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201.0</v>
+        <v>79.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>180.0</v>
+        <v>24.0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0</v>
+        <v>45.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>197.0</v>
+        <v>81.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>198.0</v>
+        <v>89.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.0</v>
+        <v>51.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>199.0</v>
+        <v>90.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>172.0</v>
+        <v>44.0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D24" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>146.0</v>
+        <v>112.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>147.0</v>
+        <v>88.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D26" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148.0</v>
+        <v>87.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D27" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>140.0</v>
+        <v>84.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.0</v>
+        <v>73.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>141.0</v>
+        <v>83.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D29" t="n">
-        <v>77.0</v>
+        <v>65.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>142.0</v>
+        <v>82.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>143.0</v>
+        <v>76.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>180.0</v>
+        <v>16.0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.0</v>
+        <v>57.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>144.0</v>
+        <v>78.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0</v>
+        <v>8.0</v>
       </c>
       <c r="D32" t="n">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>200.0</v>
+        <v>77.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>180.0</v>
+        <v>8.0</v>
       </c>
       <c r="D33" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>221.0</v>
+        <v>75.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>228.0</v>
+        <v>8.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>222.0</v>
+        <v>74.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>236.0</v>
+        <v>8.0</v>
       </c>
       <c r="D35" t="n">
-        <v>21.0</v>
+        <v>65.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>223.0</v>
+        <v>73.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0</v>
+        <v>8.0</v>
       </c>
       <c r="D36" t="n">
-        <v>21.0</v>
+        <v>73.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>224.0</v>
+        <v>72.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>81.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>225.0</v>
+        <v>71.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>89.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>226.0</v>
+        <v>70.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>45.0</v>
+        <v>97.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>227.0</v>
+        <v>69.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.0</v>
+        <v>109.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228.0</v>
+        <v>68.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>260.0</v>
+        <v>16.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>109.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229.0</v>
+        <v>67.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>260.0</v>
+        <v>16.0</v>
       </c>
       <c r="D42" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>230.0</v>
+        <v>66.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>260.0</v>
+        <v>24.0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.0</v>
+        <v>89.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251.0</v>
+        <v>65.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250.0</v>
+        <v>85.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.0</v>
+        <v>81.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>247.0</v>
+        <v>86.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>268.0</v>
+        <v>40.0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.0</v>
+        <v>83.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243.0</v>
+        <v>64.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>280.0</v>
+        <v>32.0</v>
       </c>
       <c r="D47" t="n">
-        <v>109.0</v>
+        <v>97.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>242.0</v>
+        <v>63.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>288.0</v>
+        <v>40.0</v>
       </c>
       <c r="D48" t="n">
-        <v>109.0</v>
+        <v>99.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241.0</v>
+        <v>62.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>284.0</v>
+        <v>48.0</v>
       </c>
       <c r="D49" t="n">
-        <v>101.0</v>
+        <v>99.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244.0</v>
+        <v>61.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D50" t="n">
-        <v>101.0</v>
+        <v>105.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245.0</v>
+        <v>118.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D51" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>240.0</v>
+        <v>117.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D52" t="n">
-        <v>93.0</v>
+        <v>89.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>239.0</v>
+        <v>115.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D53" t="n">
-        <v>85.0</v>
+        <v>81.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>246.0</v>
+        <v>116.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>276.0</v>
+        <v>48.0</v>
       </c>
       <c r="D54" t="n">
-        <v>85.0</v>
+        <v>83.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>231.0</v>
+        <v>113.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>276.0</v>
+        <v>48.0</v>
       </c>
       <c r="D55" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>238.0</v>
+        <v>114.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D56" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>237.0</v>
+        <v>111.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D57" t="n">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>232.0</v>
+        <v>110.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D58" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>233.0</v>
+        <v>108.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D59" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>236.0</v>
+        <v>107.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>284.0</v>
+        <v>72.0</v>
       </c>
       <c r="D60" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235.0</v>
+        <v>174.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>284.0</v>
+        <v>88.0</v>
       </c>
       <c r="D61" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>234.0</v>
+        <v>173.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>276.0</v>
+        <v>80.0</v>
       </c>
       <c r="D62" t="n">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>219.0</v>
+        <v>106.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>236.0</v>
+        <v>72.0</v>
       </c>
       <c r="D63" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>218.0</v>
+        <v>105.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>236.0</v>
+        <v>64.0</v>
       </c>
       <c r="D64" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>220.0</v>
+        <v>170.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>228.0</v>
+        <v>72.0</v>
       </c>
       <c r="D65" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>217.0</v>
+        <v>171.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>228.0</v>
+        <v>80.0</v>
       </c>
       <c r="D66" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>215.0</v>
+        <v>172.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>236.0</v>
+        <v>80.0</v>
       </c>
       <c r="D67" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>214.0</v>
+        <v>168.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>236.0</v>
+        <v>72.0</v>
       </c>
       <c r="D68" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>216.0</v>
+        <v>167.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>228.0</v>
+        <v>80.0</v>
       </c>
       <c r="D69" t="n">
-        <v>45.0</v>
+        <v>9.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>213.0</v>
+        <v>166.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>228.0</v>
+        <v>92.0</v>
       </c>
       <c r="D70" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>211.0</v>
+        <v>165.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D71" t="n">
-        <v>61.0</v>
+        <v>17.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>210.0</v>
+        <v>164.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D72" t="n">
-        <v>69.0</v>
+        <v>25.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>212.0</v>
+        <v>163.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D73" t="n">
-        <v>61.0</v>
+        <v>33.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>207.0</v>
+        <v>162.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D74" t="n">
-        <v>69.0</v>
+        <v>41.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>209.0</v>
+        <v>161.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D75" t="n">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>208.0</v>
+        <v>175.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D76" t="n">
-        <v>77.0</v>
+        <v>57.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253.0</v>
+        <v>182.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D77" t="n">
-        <v>85.0</v>
+        <v>53.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.0</v>
+        <v>181.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D78" t="n">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>257.0</v>
+        <v>180.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D79" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>258.0</v>
+        <v>179.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>228.0</v>
+        <v>140.0</v>
       </c>
       <c r="D80" t="n">
-        <v>109.0</v>
+        <v>65.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>256.0</v>
+        <v>183.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D81" t="n">
-        <v>101.0</v>
+        <v>45.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278.0</v>
+        <v>184.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>252.0</v>
+        <v>124.0</v>
       </c>
       <c r="D82" t="n">
-        <v>125.0</v>
+        <v>37.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>279.0</v>
+        <v>185.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>260.0</v>
+        <v>124.0</v>
       </c>
       <c r="D83" t="n">
-        <v>129.0</v>
+        <v>29.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.0</v>
+        <v>187.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>270.0</v>
+        <v>124.0</v>
       </c>
       <c r="D84" t="n">
-        <v>133.0</v>
+        <v>21.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>280.0</v>
+        <v>186.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>280.0</v>
+        <v>132.0</v>
       </c>
       <c r="D85" t="n">
-        <v>133.0</v>
+        <v>21.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.0</v>
+        <v>188.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>288.0</v>
+        <v>120.0</v>
       </c>
       <c r="D86" t="n">
-        <v>149.0</v>
+        <v>9.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.0</v>
+        <v>189.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>288.0</v>
+        <v>128.0</v>
       </c>
       <c r="D87" t="n">
-        <v>129.0</v>
+        <v>9.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>248.0</v>
+        <v>190.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>260.0</v>
+        <v>136.0</v>
       </c>
       <c r="D88" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>249.0</v>
+        <v>191.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>252.0</v>
+        <v>148.0</v>
       </c>
       <c r="D89" t="n">
-        <v>101.0</v>
+        <v>9.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255.0</v>
+        <v>192.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>236.0</v>
+        <v>162.0</v>
       </c>
       <c r="D90" t="n">
-        <v>93.0</v>
+        <v>9.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252.0</v>
+        <v>193.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>236.0</v>
+        <v>156.0</v>
       </c>
       <c r="D91" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>206.0</v>
+        <v>194.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>220.0</v>
+        <v>172.0</v>
       </c>
       <c r="D92" t="n">
-        <v>73.0</v>
+        <v>21.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>205.0</v>
+        <v>195.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>212.0</v>
+        <v>180.0</v>
       </c>
       <c r="D93" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>204.0</v>
+        <v>196.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>204.0</v>
+        <v>180.0</v>
       </c>
       <c r="D94" t="n">
-        <v>57.0</v>
+        <v>29.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>203.0</v>
+        <v>197.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>196.0</v>
+        <v>172.0</v>
       </c>
       <c r="D95" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>188.0</v>
+        <v>180.0</v>
       </c>
       <c r="D96" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>193.0</v>
+        <v>198.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>156.0</v>
+        <v>172.0</v>
       </c>
       <c r="D97" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>186.0</v>
+        <v>199.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>132.0</v>
+        <v>172.0</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>187.0</v>
+        <v>145.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0</v>
+        <v>53.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>185.0</v>
+        <v>146.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D100" t="n">
-        <v>29.0</v>
+        <v>61.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>184.0</v>
+        <v>147.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D101" t="n">
-        <v>37.0</v>
+        <v>69.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>183.0</v>
+        <v>150.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>124.0</v>
+        <v>148.0</v>
       </c>
       <c r="D102" t="n">
-        <v>45.0</v>
+        <v>85.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182.0</v>
+        <v>149.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>124.0</v>
+        <v>164.0</v>
       </c>
       <c r="D103" t="n">
-        <v>53.0</v>
+        <v>81.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>181.0</v>
+        <v>148.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D104" t="n">
-        <v>61.0</v>
+        <v>77.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>176.0</v>
+        <v>139.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D105" t="n">
-        <v>69.0</v>
+        <v>85.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0</v>
+        <v>140.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D106" t="n">
-        <v>77.0</v>
+        <v>85.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>151.0</v>
+        <v>141.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D107" t="n">
-        <v>85.0</v>
+        <v>77.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>152.0</v>
+        <v>142.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D108" t="n">
-        <v>93.0</v>
+        <v>69.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>156.0</v>
+        <v>143.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D109" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>153.0</v>
+        <v>144.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D110" t="n">
-        <v>109.0</v>
+        <v>53.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>155.0</v>
+        <v>200.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D111" t="n">
-        <v>117.0</v>
+        <v>45.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>154.0</v>
+        <v>202.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>124.0</v>
+        <v>188.0</v>
       </c>
       <c r="D112" t="n">
-        <v>125.0</v>
+        <v>41.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>18.0</v>
+        <v>203.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>164.0</v>
+        <v>196.0</v>
       </c>
       <c r="D113" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17.0</v>
+        <v>204.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>172.0</v>
+        <v>204.0</v>
       </c>
       <c r="D114" t="n">
-        <v>145.0</v>
+        <v>57.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.0</v>
+        <v>205.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>188.0</v>
+        <v>212.0</v>
       </c>
       <c r="D115" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>271.0</v>
+        <v>206.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>196.0</v>
+        <v>220.0</v>
       </c>
       <c r="D116" t="n">
-        <v>145.0</v>
+        <v>73.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>272.0</v>
+        <v>253.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>204.0</v>
+        <v>228.0</v>
       </c>
       <c r="D117" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>273.0</v>
+        <v>254.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>212.0</v>
+        <v>228.0</v>
       </c>
       <c r="D118" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>274.0</v>
+        <v>252.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>220.0</v>
+        <v>236.0</v>
       </c>
       <c r="D119" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>275.0</v>
+        <v>209.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
       <c r="D120" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>276.0</v>
+        <v>208.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D121" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>277.0</v>
+        <v>207.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>246.0</v>
+        <v>228.0</v>
       </c>
       <c r="D122" t="n">
-        <v>141.0</v>
+        <v>69.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.0</v>
+        <v>210.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>256.0</v>
+        <v>236.0</v>
       </c>
       <c r="D123" t="n">
-        <v>141.0</v>
+        <v>69.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.0</v>
+        <v>211.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>256.0</v>
+        <v>236.0</v>
       </c>
       <c r="D124" t="n">
-        <v>157.0</v>
+        <v>61.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.0</v>
+        <v>212.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>246.0</v>
+        <v>228.0</v>
       </c>
       <c r="D125" t="n">
-        <v>157.0</v>
+        <v>61.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.0</v>
+        <v>213.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -2191,7 +2191,7 @@
         <v>228.0</v>
       </c>
       <c r="D126" t="n">
-        <v>161.0</v>
+        <v>53.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.0</v>
+        <v>216.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D127" t="n">
-        <v>169.0</v>
+        <v>45.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.0</v>
+        <v>217.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -2225,7 +2225,7 @@
         <v>228.0</v>
       </c>
       <c r="D128" t="n">
-        <v>169.0</v>
+        <v>37.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.0</v>
+        <v>219.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>220.0</v>
+        <v>236.0</v>
       </c>
       <c r="D129" t="n">
-        <v>169.0</v>
+        <v>29.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>11.0</v>
+        <v>220.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>212.0</v>
+        <v>228.0</v>
       </c>
       <c r="D130" t="n">
-        <v>169.0</v>
+        <v>29.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.0</v>
+        <v>221.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>204.0</v>
+        <v>228.0</v>
       </c>
       <c r="D131" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>15.0</v>
+        <v>222.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>196.0</v>
+        <v>236.0</v>
       </c>
       <c r="D132" t="n">
-        <v>161.0</v>
+        <v>21.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>13.0</v>
+        <v>223.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>196.0</v>
+        <v>252.0</v>
       </c>
       <c r="D133" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14.0</v>
+        <v>224.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>188.0</v>
+        <v>260.0</v>
       </c>
       <c r="D134" t="n">
-        <v>169.0</v>
+        <v>29.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133.0</v>
+        <v>225.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>164.0</v>
+        <v>260.0</v>
       </c>
       <c r="D135" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>134.0</v>
+        <v>226.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
       <c r="D136" t="n">
-        <v>125.0</v>
+        <v>45.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>270.0</v>
+        <v>218.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D137" t="n">
-        <v>125.0</v>
+        <v>37.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>135.0</v>
+        <v>215.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D138" t="n">
-        <v>117.0</v>
+        <v>45.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>269.0</v>
+        <v>214.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D139" t="n">
-        <v>117.0</v>
+        <v>53.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>268.0</v>
+        <v>227.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>180.0</v>
+        <v>260.0</v>
       </c>
       <c r="D140" t="n">
-        <v>109.0</v>
+        <v>53.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.0</v>
+        <v>228.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
       <c r="D141" t="n">
-        <v>109.0</v>
+        <v>61.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>137.0</v>
+        <v>229.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
       <c r="D142" t="n">
-        <v>101.0</v>
+        <v>69.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>267.0</v>
+        <v>230.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>180.0</v>
+        <v>260.0</v>
       </c>
       <c r="D143" t="n">
-        <v>101.0</v>
+        <v>77.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>259.0</v>
+        <v>251.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>228.0</v>
+        <v>260.0</v>
       </c>
       <c r="D144" t="n">
-        <v>117.0</v>
+        <v>85.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>260.0</v>
+        <v>246.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>228.0</v>
+        <v>276.0</v>
       </c>
       <c r="D145" t="n">
-        <v>125.0</v>
+        <v>85.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>261.0</v>
+        <v>231.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>220.0</v>
+        <v>276.0</v>
       </c>
       <c r="D146" t="n">
-        <v>125.0</v>
+        <v>77.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>262.0</v>
+        <v>232.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>212.0</v>
+        <v>276.0</v>
       </c>
       <c r="D147" t="n">
-        <v>117.0</v>
+        <v>69.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>263.0</v>
+        <v>233.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>204.0</v>
+        <v>276.0</v>
       </c>
       <c r="D148" t="n">
-        <v>109.0</v>
+        <v>61.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>264.0</v>
+        <v>234.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>196.0</v>
+        <v>276.0</v>
       </c>
       <c r="D149" t="n">
-        <v>101.0</v>
+        <v>53.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>265.0</v>
+        <v>235.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>188.0</v>
+        <v>284.0</v>
       </c>
       <c r="D150" t="n">
-        <v>93.0</v>
+        <v>53.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>266.0</v>
+        <v>236.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>180.0</v>
+        <v>284.0</v>
       </c>
       <c r="D151" t="n">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>138.0</v>
+        <v>237.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>172.0</v>
+        <v>284.0</v>
       </c>
       <c r="D152" t="n">
-        <v>93.0</v>
+        <v>69.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>139.0</v>
+        <v>238.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>172.0</v>
+        <v>284.0</v>
       </c>
       <c r="D153" t="n">
-        <v>85.0</v>
+        <v>77.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>149.0</v>
+        <v>239.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>164.0</v>
+        <v>284.0</v>
       </c>
       <c r="D154" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150.0</v>
+        <v>240.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>148.0</v>
+        <v>284.0</v>
       </c>
       <c r="D155" t="n">
-        <v>85.0</v>
+        <v>93.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>178.0</v>
+        <v>245.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>132.0</v>
+        <v>276.0</v>
       </c>
       <c r="D156" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>179.0</v>
+        <v>241.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>140.0</v>
+        <v>284.0</v>
       </c>
       <c r="D157" t="n">
-        <v>65.0</v>
+        <v>101.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>180.0</v>
+        <v>242.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>132.0</v>
+        <v>288.0</v>
       </c>
       <c r="D158" t="n">
-        <v>61.0</v>
+        <v>109.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>165.0</v>
+        <v>243.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>104.0</v>
+        <v>280.0</v>
       </c>
       <c r="D159" t="n">
-        <v>17.0</v>
+        <v>109.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>164.0</v>
+        <v>244.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D160" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>163.0</v>
+        <v>247.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>104.0</v>
+        <v>268.0</v>
       </c>
       <c r="D161" t="n">
-        <v>33.0</v>
+        <v>97.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.0</v>
+        <v>250.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D162" t="n">
-        <v>41.0</v>
+        <v>93.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>161.0</v>
+        <v>248.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D163" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>175.0</v>
+        <v>249.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>104.0</v>
+        <v>252.0</v>
       </c>
       <c r="D164" t="n">
-        <v>57.0</v>
+        <v>101.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160.0</v>
+        <v>255.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D165" t="n">
-        <v>65.0</v>
+        <v>93.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>159.0</v>
+        <v>256.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D166" t="n">
-        <v>73.0</v>
+        <v>101.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>158.0</v>
+        <v>257.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D167" t="n">
-        <v>81.0</v>
+        <v>101.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>157.0</v>
+        <v>258.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D168" t="n">
-        <v>89.0</v>
+        <v>109.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>119.0</v>
+        <v>259.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D169" t="n">
-        <v>97.0</v>
+        <v>117.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>120.0</v>
+        <v>260.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D170" t="n">
-        <v>105.0</v>
+        <v>125.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>121.0</v>
+        <v>275.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D171" t="n">
-        <v>113.0</v>
+        <v>145.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>122.0</v>
+        <v>276.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D172" t="n">
-        <v>121.0</v>
+        <v>145.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>123.0</v>
+        <v>277.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>104.0</v>
+        <v>246.0</v>
       </c>
       <c r="D173" t="n">
-        <v>129.0</v>
+        <v>141.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>124.0</v>
+        <v>4.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>104.0</v>
+        <v>256.0</v>
       </c>
       <c r="D174" t="n">
-        <v>137.0</v>
+        <v>141.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="D175" t="n">
         <v>125.0</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>145.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>30.0</v>
+        <v>279.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D176" t="n">
-        <v>153.0</v>
+        <v>129.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>104.0</v>
+        <v>270.0</v>
       </c>
       <c r="D177" t="n">
-        <v>161.0</v>
+        <v>133.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>32.0</v>
+        <v>280.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>104.0</v>
+        <v>280.0</v>
       </c>
       <c r="D178" t="n">
-        <v>169.0</v>
+        <v>133.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>124.0</v>
+        <v>288.0</v>
       </c>
       <c r="D179" t="n">
-        <v>169.0</v>
+        <v>129.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>132.0</v>
+        <v>288.0</v>
       </c>
       <c r="D180" t="n">
-        <v>169.0</v>
+        <v>149.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>140.0</v>
+        <v>256.0</v>
       </c>
       <c r="D181" t="n">
-        <v>169.0</v>
+        <v>157.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>148.0</v>
+        <v>246.0</v>
       </c>
       <c r="D182" t="n">
-        <v>169.0</v>
+        <v>157.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>156.0</v>
+        <v>236.0</v>
       </c>
       <c r="D183" t="n">
         <v>169.0</v>
@@ -3168,13 +3168,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>164.0</v>
+        <v>228.0</v>
       </c>
       <c r="D184" t="n">
         <v>169.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D185" t="n">
-        <v>169.0</v>
+        <v>161.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>116.0</v>
+        <v>220.0</v>
       </c>
       <c r="D186" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>126.0</v>
+        <v>11.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>116.0</v>
+        <v>212.0</v>
       </c>
       <c r="D187" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>127.0</v>
+        <v>12.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>124.0</v>
+        <v>204.0</v>
       </c>
       <c r="D188" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>128.0</v>
+        <v>13.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>132.0</v>
+        <v>196.0</v>
       </c>
       <c r="D189" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>140.0</v>
+        <v>188.0</v>
       </c>
       <c r="D190" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>129.0</v>
+        <v>15.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>132.0</v>
+        <v>196.0</v>
       </c>
       <c r="D191" t="n">
-        <v>137.0</v>
+        <v>161.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>130.0</v>
+        <v>16.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>140.0</v>
+        <v>188.0</v>
       </c>
       <c r="D192" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>20.0</v>
+        <v>271.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>148.0</v>
+        <v>196.0</v>
       </c>
       <c r="D193" t="n">
         <v>145.0</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>19.0</v>
+        <v>272.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>156.0</v>
+        <v>204.0</v>
       </c>
       <c r="D194" t="n">
         <v>145.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132.0</v>
+        <v>273.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>156.0</v>
+        <v>212.0</v>
       </c>
       <c r="D195" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>131.0</v>
+        <v>274.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>148.0</v>
+        <v>220.0</v>
       </c>
       <c r="D196" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>172.0</v>
+        <v>261.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
       <c r="D197" t="n">
-        <v>25.0</v>
+        <v>125.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>171.0</v>
+        <v>262.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>80.0</v>
+        <v>212.0</v>
       </c>
       <c r="D198" t="n">
-        <v>25.0</v>
+        <v>117.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>170.0</v>
+        <v>263.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>72.0</v>
+        <v>204.0</v>
       </c>
       <c r="D199" t="n">
-        <v>25.0</v>
+        <v>109.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>169.0</v>
+        <v>264.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>64.0</v>
+        <v>196.0</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0</v>
+        <v>101.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>102.0</v>
+        <v>265.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>56.0</v>
+        <v>188.0</v>
       </c>
       <c r="D201" t="n">
-        <v>25.0</v>
+        <v>93.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>103.0</v>
+        <v>266.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D202" t="n">
-        <v>33.0</v>
+        <v>93.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104.0</v>
+        <v>138.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D203" t="n">
-        <v>41.0</v>
+        <v>93.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>108.0</v>
+        <v>267.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D204" t="n">
-        <v>49.0</v>
+        <v>101.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>107.0</v>
+        <v>137.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>72.0</v>
+        <v>172.0</v>
       </c>
       <c r="D205" t="n">
-        <v>49.0</v>
+        <v>101.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>174.0</v>
+        <v>268.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>88.0</v>
+        <v>180.0</v>
       </c>
       <c r="D206" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>173.0</v>
+        <v>269.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>80.0</v>
+        <v>180.0</v>
       </c>
       <c r="D207" t="n">
-        <v>41.0</v>
+        <v>117.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>106.0</v>
+        <v>136.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>72.0</v>
+        <v>172.0</v>
       </c>
       <c r="D208" t="n">
-        <v>41.0</v>
+        <v>109.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105.0</v>
+        <v>135.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>64.0</v>
+        <v>172.0</v>
       </c>
       <c r="D209" t="n">
-        <v>41.0</v>
+        <v>117.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>92.0</v>
+        <v>270.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>44.0</v>
+        <v>180.0</v>
       </c>
       <c r="D210" t="n">
-        <v>27.0</v>
+        <v>125.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>91.0</v>
+        <v>134.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>44.0</v>
+        <v>172.0</v>
       </c>
       <c r="D211" t="n">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>90.0</v>
+        <v>133.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>44.0</v>
+        <v>164.0</v>
       </c>
       <c r="D212" t="n">
-        <v>43.0</v>
+        <v>137.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>93.0</v>
+        <v>17.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D213" t="n">
-        <v>25.0</v>
+        <v>145.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>94.0</v>
+        <v>18.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>24.0</v>
+        <v>164.0</v>
       </c>
       <c r="D214" t="n">
-        <v>25.0</v>
+        <v>145.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>80.0</v>
+        <v>19.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>32.0</v>
+        <v>156.0</v>
       </c>
       <c r="D215" t="n">
-        <v>41.0</v>
+        <v>145.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>109.0</v>
+        <v>132.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>48.0</v>
+        <v>156.0</v>
       </c>
       <c r="D216" t="n">
-        <v>51.0</v>
+        <v>137.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>89.0</v>
+        <v>131.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>40.0</v>
+        <v>148.0</v>
       </c>
       <c r="D217" t="n">
-        <v>51.0</v>
+        <v>137.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>56.0</v>
+        <v>140.0</v>
       </c>
       <c r="D218" t="n">
-        <v>57.0</v>
+        <v>137.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111.0</v>
+        <v>21.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>56.0</v>
+        <v>140.0</v>
       </c>
       <c r="D219" t="n">
-        <v>65.0</v>
+        <v>145.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>114.0</v>
+        <v>20.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>56.0</v>
+        <v>148.0</v>
       </c>
       <c r="D220" t="n">
-        <v>73.0</v>
+        <v>145.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>112.0</v>
+        <v>24.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D221" t="n">
-        <v>63.0</v>
+        <v>169.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>88.0</v>
+        <v>23.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>40.0</v>
+        <v>164.0</v>
       </c>
       <c r="D222" t="n">
-        <v>63.0</v>
+        <v>169.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>113.0</v>
+        <v>25.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>48.0</v>
+        <v>156.0</v>
       </c>
       <c r="D223" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>87.0</v>
+        <v>22.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>40.0</v>
+        <v>148.0</v>
       </c>
       <c r="D224" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>115.0</v>
+        <v>26.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>56.0</v>
+        <v>140.0</v>
       </c>
       <c r="D225" t="n">
-        <v>81.0</v>
+        <v>169.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>117.0</v>
+        <v>27.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="D226" t="n">
-        <v>89.0</v>
+        <v>169.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>116.0</v>
+        <v>28.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>48.0</v>
+        <v>124.0</v>
       </c>
       <c r="D227" t="n">
-        <v>83.0</v>
+        <v>169.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>86.0</v>
+        <v>29.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>40.0</v>
+        <v>116.0</v>
       </c>
       <c r="D228" t="n">
-        <v>83.0</v>
+        <v>161.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>118.0</v>
+        <v>31.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D229" t="n">
-        <v>97.0</v>
+        <v>161.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>61.0</v>
+        <v>32.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D230" t="n">
-        <v>105.0</v>
+        <v>169.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>60.0</v>
+        <v>33.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>56.0</v>
+        <v>90.0</v>
       </c>
       <c r="D231" t="n">
-        <v>113.0</v>
+        <v>165.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>56.0</v>
+        <v>80.0</v>
       </c>
       <c r="D232" t="n">
-        <v>121.0</v>
+        <v>157.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D233" t="n">
-        <v>129.0</v>
+        <v>153.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>41.0</v>
+        <v>125.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D234" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>56.0</v>
+        <v>104.0</v>
       </c>
       <c r="D235" t="n">
-        <v>145.0</v>
+        <v>137.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>39.0</v>
+        <v>126.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>56.0</v>
+        <v>116.0</v>
       </c>
       <c r="D236" t="n">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>38.0</v>
+        <v>127.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>56.0</v>
+        <v>124.0</v>
       </c>
       <c r="D237" t="n">
-        <v>161.0</v>
+        <v>145.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>37.0</v>
+        <v>128.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="D238" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>36.0</v>
+        <v>129.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>64.0</v>
+        <v>132.0</v>
       </c>
       <c r="D239" t="n">
-        <v>165.0</v>
+        <v>137.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>35.0</v>
+        <v>154.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>64.0</v>
+        <v>124.0</v>
       </c>
       <c r="D240" t="n">
-        <v>157.0</v>
+        <v>125.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>33.0</v>
+        <v>155.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>90.0</v>
+        <v>124.0</v>
       </c>
       <c r="D241" t="n">
-        <v>165.0</v>
+        <v>117.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>34.0</v>
+        <v>153.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>80.0</v>
+        <v>124.0</v>
       </c>
       <c r="D242" t="n">
-        <v>157.0</v>
+        <v>109.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>62.0</v>
+        <v>156.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>48.0</v>
+        <v>124.0</v>
       </c>
       <c r="D243" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>63.0</v>
+        <v>152.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D244" t="n">
-        <v>99.0</v>
+        <v>93.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59.0</v>
+        <v>151.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D245" t="n">
-        <v>113.0</v>
+        <v>85.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>44.0</v>
+        <v>178.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>40.0</v>
+        <v>132.0</v>
       </c>
       <c r="D246" t="n">
-        <v>121.0</v>
+        <v>81.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>45.0</v>
+        <v>177.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D247" t="n">
-        <v>129.0</v>
+        <v>77.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>46.0</v>
+        <v>176.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D248" t="n">
-        <v>137.0</v>
+        <v>69.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>47.0</v>
+        <v>160.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D249" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>48.0</v>
+        <v>159.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D250" t="n">
-        <v>153.0</v>
+        <v>73.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>49.0</v>
+        <v>158.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D251" t="n">
-        <v>161.0</v>
+        <v>81.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>50.0</v>
+        <v>157.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D252" t="n">
-        <v>169.0</v>
+        <v>89.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>51.0</v>
+        <v>119.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D253" t="n">
-        <v>169.0</v>
+        <v>97.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>52.0</v>
+        <v>120.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D254" t="n">
-        <v>161.0</v>
+        <v>105.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>53.0</v>
+        <v>121.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D255" t="n">
-        <v>153.0</v>
+        <v>113.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>54.0</v>
+        <v>122.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D256" t="n">
-        <v>145.0</v>
+        <v>121.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55.0</v>
+        <v>123.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D257" t="n">
-        <v>137.0</v>
+        <v>129.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C258" t="n">
         <v>56.0</v>
       </c>
-      <c r="B258" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C258" t="n">
-        <v>32.0</v>
-      </c>
       <c r="D258" t="n">
-        <v>129.0</v>
+        <v>113.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>57.0</v>
+        <v>43.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D259" t="n">
         <v>121.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>58.0</v>
+        <v>42.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D260" t="n">
-        <v>113.0</v>
+        <v>129.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>64.0</v>
+        <v>41.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D261" t="n">
-        <v>97.0</v>
+        <v>137.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D262" t="n">
-        <v>89.0</v>
+        <v>145.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>85.0</v>
+        <v>39.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D263" t="n">
-        <v>81.0</v>
+        <v>153.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>84.0</v>
+        <v>35.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="D264" t="n">
-        <v>73.0</v>
+        <v>157.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>83.0</v>
+        <v>36.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="D265" t="n">
-        <v>65.0</v>
+        <v>165.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>82.0</v>
+        <v>38.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D266" t="n">
-        <v>57.0</v>
+        <v>161.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>81.0</v>
+        <v>37.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D267" t="n">
-        <v>49.0</v>
+        <v>169.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>79.0</v>
+        <v>50.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="D268" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>76.0</v>
+        <v>51.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="D269" t="n">
-        <v>57.0</v>
+        <v>169.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D270" t="n">
-        <v>89.0</v>
+        <v>161.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>67.0</v>
+        <v>49.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="D271" t="n">
-        <v>97.0</v>
+        <v>161.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>68.0</v>
+        <v>48.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="D272" t="n">
-        <v>109.0</v>
+        <v>153.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>69.0</v>
+        <v>53.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="D273" t="n">
-        <v>109.0</v>
+        <v>153.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="D274" t="n">
-        <v>97.0</v>
+        <v>145.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>71.0</v>
+        <v>47.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D275" t="n">
-        <v>89.0</v>
+        <v>145.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D276" t="n">
-        <v>81.0</v>
+        <v>137.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D277" t="n">
-        <v>73.0</v>
+        <v>129.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74.0</v>
+        <v>44.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D278" t="n">
-        <v>65.0</v>
+        <v>121.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>75.0</v>
+        <v>59.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D279" t="n">
-        <v>57.0</v>
+        <v>113.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>77.0</v>
+        <v>58.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="D280" t="n">
-        <v>49.0</v>
+        <v>113.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>78.0</v>
+        <v>57.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="D281" t="n">
-        <v>41.0</v>
+        <v>121.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>95.0</v>
+        <v>56.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="D282" t="n">
-        <v>25.0</v>
+        <v>129.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>96.0</v>
+        <v>55.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="D283" t="n">
-        <v>17.0</v>
+        <v>137.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2872.69384765625</v>
+        <v>2895.980224609375</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2872.69384765625</v>
+        <v>2895.980224609375</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101.0</v>
+        <v>91.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>169.0</v>
+        <v>103.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>64.0</v>
+        <v>56.0</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,7 +295,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -304,7 +304,7 @@
         <v>56.0</v>
       </c>
       <c r="D15" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,7 +312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104.0</v>
+        <v>108.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -321,7 +321,7 @@
         <v>56.0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>92.0</v>
+        <v>109.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,7 +346,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -355,7 +355,7 @@
         <v>44.0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80.0</v>
+        <v>89.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D19" t="n">
-        <v>41.0</v>
+        <v>51.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D20" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -406,7 +406,7 @@
         <v>32.0</v>
       </c>
       <c r="D21" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89.0</v>
+        <v>79.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.0</v>
+        <v>45.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>90.0</v>
+        <v>78.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="D23" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109.0</v>
+        <v>77.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="D24" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112.0</v>
+        <v>75.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88.0</v>
+        <v>74.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="D26" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>87.0</v>
+        <v>76.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>40.0</v>
+        <v>16.0</v>
       </c>
       <c r="D27" t="n">
-        <v>73.0</v>
+        <v>57.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -525,7 +525,7 @@
         <v>32.0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.0</v>
+        <v>57.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>76.0</v>
+        <v>112.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>16.0</v>
+        <v>48.0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>78.0</v>
+        <v>110.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D32" t="n">
-        <v>41.0</v>
+        <v>57.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77.0</v>
+        <v>111.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D33" t="n">
-        <v>49.0</v>
+        <v>65.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>75.0</v>
+        <v>114.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.0</v>
+        <v>73.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74.0</v>
+        <v>115.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D35" t="n">
-        <v>65.0</v>
+        <v>81.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,13 +652,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73.0</v>
+        <v>113.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>8.0</v>
+        <v>48.0</v>
       </c>
       <c r="D36" t="n">
         <v>73.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>72.0</v>
+        <v>87.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D37" t="n">
-        <v>81.0</v>
+        <v>73.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>71.0</v>
+        <v>116.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.0</v>
+        <v>48.0</v>
       </c>
       <c r="D38" t="n">
-        <v>89.0</v>
+        <v>83.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>70.0</v>
+        <v>86.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="D39" t="n">
-        <v>97.0</v>
+        <v>83.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>69.0</v>
+        <v>84.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="D40" t="n">
-        <v>109.0</v>
+        <v>73.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>68.0</v>
+        <v>85.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="D41" t="n">
-        <v>109.0</v>
+        <v>81.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="D42" t="n">
-        <v>97.0</v>
+        <v>89.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>65.0</v>
+        <v>73.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="D44" t="n">
-        <v>89.0</v>
+        <v>73.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,13 +805,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>85.0</v>
+        <v>72.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="D45" t="n">
         <v>81.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>86.0</v>
+        <v>71.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="D46" t="n">
-        <v>83.0</v>
+        <v>89.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>64.0</v>
+        <v>70.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="D47" t="n">
         <v>97.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="D48" t="n">
-        <v>99.0</v>
+        <v>109.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>62.0</v>
+        <v>68.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="D49" t="n">
-        <v>99.0</v>
+        <v>109.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>56.0</v>
+        <v>16.0</v>
       </c>
       <c r="D50" t="n">
-        <v>105.0</v>
+        <v>97.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,13 +907,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>118.0</v>
+        <v>64.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D51" t="n">
         <v>97.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>117.0</v>
+        <v>63.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D52" t="n">
-        <v>89.0</v>
+        <v>99.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>115.0</v>
+        <v>62.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="D53" t="n">
-        <v>81.0</v>
+        <v>99.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="D54" t="n">
-        <v>83.0</v>
+        <v>89.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>113.0</v>
+        <v>118.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="D55" t="n">
-        <v>73.0</v>
+        <v>97.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>114.0</v>
+        <v>61.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -1001,7 +1001,7 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n">
-        <v>73.0</v>
+        <v>105.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111.0</v>
+        <v>60.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -1018,7 +1018,7 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n">
-        <v>65.0</v>
+        <v>113.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>110.0</v>
+        <v>43.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -1035,7 +1035,7 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n">
-        <v>57.0</v>
+        <v>121.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>108.0</v>
+        <v>44.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D59" t="n">
-        <v>49.0</v>
+        <v>121.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>107.0</v>
+        <v>59.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>72.0</v>
+        <v>40.0</v>
       </c>
       <c r="D60" t="n">
-        <v>49.0</v>
+        <v>113.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>174.0</v>
+        <v>58.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>88.0</v>
+        <v>32.0</v>
       </c>
       <c r="D61" t="n">
-        <v>49.0</v>
+        <v>113.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>173.0</v>
+        <v>57.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>80.0</v>
+        <v>32.0</v>
       </c>
       <c r="D62" t="n">
-        <v>41.0</v>
+        <v>121.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>106.0</v>
+        <v>56.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>72.0</v>
+        <v>32.0</v>
       </c>
       <c r="D63" t="n">
-        <v>41.0</v>
+        <v>129.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105.0</v>
+        <v>55.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="D64" t="n">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>170.0</v>
+        <v>46.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>72.0</v>
+        <v>40.0</v>
       </c>
       <c r="D65" t="n">
-        <v>25.0</v>
+        <v>137.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>171.0</v>
+        <v>45.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="D66" t="n">
-        <v>25.0</v>
+        <v>129.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>172.0</v>
+        <v>42.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>80.0</v>
+        <v>56.0</v>
       </c>
       <c r="D67" t="n">
-        <v>25.0</v>
+        <v>129.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>168.0</v>
+        <v>41.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>72.0</v>
+        <v>56.0</v>
       </c>
       <c r="D68" t="n">
-        <v>9.0</v>
+        <v>137.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>167.0</v>
+        <v>40.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>80.0</v>
+        <v>56.0</v>
       </c>
       <c r="D69" t="n">
-        <v>9.0</v>
+        <v>145.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>166.0</v>
+        <v>39.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>92.0</v>
+        <v>56.0</v>
       </c>
       <c r="D70" t="n">
-        <v>9.0</v>
+        <v>153.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>165.0</v>
+        <v>47.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D71" t="n">
-        <v>17.0</v>
+        <v>145.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>164.0</v>
+        <v>54.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D72" t="n">
-        <v>25.0</v>
+        <v>145.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>163.0</v>
+        <v>53.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D73" t="n">
-        <v>33.0</v>
+        <v>153.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>162.0</v>
+        <v>48.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D74" t="n">
-        <v>41.0</v>
+        <v>153.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D75" t="n">
         <v>161.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>49.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>175.0</v>
+        <v>52.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D76" t="n">
-        <v>57.0</v>
+        <v>161.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>182.0</v>
+        <v>51.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D77" t="n">
-        <v>53.0</v>
+        <v>169.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>181.0</v>
+        <v>50.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>124.0</v>
+        <v>40.0</v>
       </c>
       <c r="D78" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>180.0</v>
+        <v>37.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>132.0</v>
+        <v>56.0</v>
       </c>
       <c r="D79" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>179.0</v>
+        <v>38.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>140.0</v>
+        <v>56.0</v>
       </c>
       <c r="D80" t="n">
-        <v>65.0</v>
+        <v>161.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>183.0</v>
+        <v>36.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>124.0</v>
+        <v>64.0</v>
       </c>
       <c r="D81" t="n">
-        <v>45.0</v>
+        <v>165.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>184.0</v>
+        <v>35.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>124.0</v>
+        <v>64.0</v>
       </c>
       <c r="D82" t="n">
-        <v>37.0</v>
+        <v>157.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>185.0</v>
+        <v>34.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>124.0</v>
+        <v>80.0</v>
       </c>
       <c r="D83" t="n">
-        <v>29.0</v>
+        <v>157.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>187.0</v>
+        <v>33.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>124.0</v>
+        <v>90.0</v>
       </c>
       <c r="D84" t="n">
-        <v>21.0</v>
+        <v>165.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>186.0</v>
+        <v>31.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>132.0</v>
+        <v>104.0</v>
       </c>
       <c r="D85" t="n">
-        <v>21.0</v>
+        <v>161.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>188.0</v>
+        <v>32.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>120.0</v>
+        <v>104.0</v>
       </c>
       <c r="D86" t="n">
-        <v>9.0</v>
+        <v>169.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>189.0</v>
+        <v>29.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>128.0</v>
+        <v>116.0</v>
       </c>
       <c r="D87" t="n">
-        <v>9.0</v>
+        <v>161.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>190.0</v>
+        <v>28.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>136.0</v>
+        <v>124.0</v>
       </c>
       <c r="D88" t="n">
-        <v>9.0</v>
+        <v>169.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>191.0</v>
+        <v>27.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="D89" t="n">
-        <v>9.0</v>
+        <v>169.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>192.0</v>
+        <v>26.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>162.0</v>
+        <v>140.0</v>
       </c>
       <c r="D90" t="n">
-        <v>9.0</v>
+        <v>169.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>193.0</v>
+        <v>22.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>156.0</v>
+        <v>148.0</v>
       </c>
       <c r="D91" t="n">
-        <v>25.0</v>
+        <v>169.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>194.0</v>
+        <v>21.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>172.0</v>
+        <v>140.0</v>
       </c>
       <c r="D92" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>195.0</v>
+        <v>20.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>180.0</v>
+        <v>148.0</v>
       </c>
       <c r="D93" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>196.0</v>
+        <v>19.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>180.0</v>
+        <v>156.0</v>
       </c>
       <c r="D94" t="n">
-        <v>29.0</v>
+        <v>145.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>197.0</v>
+        <v>18.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>172.0</v>
+        <v>164.0</v>
       </c>
       <c r="D95" t="n">
-        <v>29.0</v>
+        <v>145.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>201.0</v>
+        <v>133.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>180.0</v>
+        <v>164.0</v>
       </c>
       <c r="D96" t="n">
-        <v>37.0</v>
+        <v>137.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>198.0</v>
+        <v>132.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>172.0</v>
+        <v>156.0</v>
       </c>
       <c r="D97" t="n">
-        <v>37.0</v>
+        <v>137.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>199.0</v>
+        <v>131.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>172.0</v>
+        <v>148.0</v>
       </c>
       <c r="D98" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>145.0</v>
+        <v>130.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>172.0</v>
+        <v>140.0</v>
       </c>
       <c r="D99" t="n">
-        <v>53.0</v>
+        <v>137.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>146.0</v>
+        <v>129.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>172.0</v>
+        <v>132.0</v>
       </c>
       <c r="D100" t="n">
-        <v>61.0</v>
+        <v>137.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>147.0</v>
+        <v>128.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>172.0</v>
+        <v>132.0</v>
       </c>
       <c r="D101" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>150.0</v>
+        <v>127.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>148.0</v>
+        <v>124.0</v>
       </c>
       <c r="D102" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>149.0</v>
+        <v>126.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>164.0</v>
+        <v>116.0</v>
       </c>
       <c r="D103" t="n">
-        <v>81.0</v>
+        <v>145.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>148.0</v>
+        <v>30.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>172.0</v>
+        <v>104.0</v>
       </c>
       <c r="D104" t="n">
-        <v>77.0</v>
+        <v>153.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>139.0</v>
+        <v>125.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>172.0</v>
+        <v>104.0</v>
       </c>
       <c r="D105" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>140.0</v>
+        <v>124.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>180.0</v>
+        <v>104.0</v>
       </c>
       <c r="D106" t="n">
-        <v>85.0</v>
+        <v>137.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>141.0</v>
+        <v>123.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>180.0</v>
+        <v>104.0</v>
       </c>
       <c r="D107" t="n">
-        <v>77.0</v>
+        <v>129.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>142.0</v>
+        <v>122.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>180.0</v>
+        <v>104.0</v>
       </c>
       <c r="D108" t="n">
-        <v>69.0</v>
+        <v>121.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>143.0</v>
+        <v>121.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>180.0</v>
+        <v>104.0</v>
       </c>
       <c r="D109" t="n">
-        <v>61.0</v>
+        <v>113.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>144.0</v>
+        <v>154.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D110" t="n">
-        <v>53.0</v>
+        <v>125.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>200.0</v>
+        <v>155.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D111" t="n">
-        <v>45.0</v>
+        <v>117.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>202.0</v>
+        <v>153.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>188.0</v>
+        <v>124.0</v>
       </c>
       <c r="D112" t="n">
-        <v>41.0</v>
+        <v>109.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>203.0</v>
+        <v>156.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>196.0</v>
+        <v>124.0</v>
       </c>
       <c r="D113" t="n">
-        <v>49.0</v>
+        <v>101.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>204.0</v>
+        <v>152.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>204.0</v>
+        <v>124.0</v>
       </c>
       <c r="D114" t="n">
-        <v>57.0</v>
+        <v>93.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>205.0</v>
+        <v>120.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>212.0</v>
+        <v>104.0</v>
       </c>
       <c r="D115" t="n">
-        <v>65.0</v>
+        <v>105.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>206.0</v>
+        <v>119.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>220.0</v>
+        <v>104.0</v>
       </c>
       <c r="D116" t="n">
-        <v>73.0</v>
+        <v>97.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>253.0</v>
+        <v>157.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D117" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>254.0</v>
+        <v>158.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D118" t="n">
-        <v>93.0</v>
+        <v>81.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>252.0</v>
+        <v>159.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D119" t="n">
-        <v>85.0</v>
+        <v>73.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>209.0</v>
+        <v>160.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D120" t="n">
-        <v>77.0</v>
+        <v>65.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>208.0</v>
+        <v>175.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D121" t="n">
-        <v>77.0</v>
+        <v>57.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>207.0</v>
+        <v>176.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D122" t="n">
         <v>69.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>210.0</v>
+        <v>177.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D123" t="n">
-        <v>69.0</v>
+        <v>77.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>211.0</v>
+        <v>151.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D124" t="n">
-        <v>61.0</v>
+        <v>85.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>212.0</v>
+        <v>178.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D125" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>213.0</v>
+        <v>150.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>228.0</v>
+        <v>148.0</v>
       </c>
       <c r="D126" t="n">
-        <v>53.0</v>
+        <v>85.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>216.0</v>
+        <v>179.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>228.0</v>
+        <v>140.0</v>
       </c>
       <c r="D127" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>217.0</v>
+        <v>180.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D128" t="n">
-        <v>37.0</v>
+        <v>61.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>219.0</v>
+        <v>181.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D129" t="n">
-        <v>29.0</v>
+        <v>61.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>220.0</v>
+        <v>182.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D130" t="n">
-        <v>29.0</v>
+        <v>53.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>221.0</v>
+        <v>183.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D131" t="n">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>222.0</v>
+        <v>184.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D132" t="n">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>223.0</v>
+        <v>185.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>252.0</v>
+        <v>124.0</v>
       </c>
       <c r="D133" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>224.0</v>
+        <v>163.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D134" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>225.0</v>
+        <v>162.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D135" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>226.0</v>
+        <v>161.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D136" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>218.0</v>
+        <v>174.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>236.0</v>
+        <v>88.0</v>
       </c>
       <c r="D137" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>215.0</v>
+        <v>173.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>236.0</v>
+        <v>80.0</v>
       </c>
       <c r="D138" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>214.0</v>
+        <v>107.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>236.0</v>
+        <v>72.0</v>
       </c>
       <c r="D139" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>227.0</v>
+        <v>106.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>260.0</v>
+        <v>72.0</v>
       </c>
       <c r="D140" t="n">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>228.0</v>
+        <v>172.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>260.0</v>
+        <v>80.0</v>
       </c>
       <c r="D141" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>229.0</v>
+        <v>171.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>260.0</v>
+        <v>80.0</v>
       </c>
       <c r="D142" t="n">
-        <v>69.0</v>
+        <v>25.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>230.0</v>
+        <v>170.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>260.0</v>
+        <v>72.0</v>
       </c>
       <c r="D143" t="n">
-        <v>77.0</v>
+        <v>25.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>251.0</v>
+        <v>169.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>260.0</v>
+        <v>64.0</v>
       </c>
       <c r="D144" t="n">
-        <v>85.0</v>
+        <v>21.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>246.0</v>
+        <v>102.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D145" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>231.0</v>
+        <v>101.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D146" t="n">
-        <v>77.0</v>
+        <v>17.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>232.0</v>
+        <v>100.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D147" t="n">
-        <v>69.0</v>
+        <v>9.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>233.0</v>
+        <v>168.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>276.0</v>
+        <v>72.0</v>
       </c>
       <c r="D148" t="n">
-        <v>61.0</v>
+        <v>9.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>234.0</v>
+        <v>167.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>276.0</v>
+        <v>80.0</v>
       </c>
       <c r="D149" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>235.0</v>
+        <v>166.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>284.0</v>
+        <v>92.0</v>
       </c>
       <c r="D150" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>236.0</v>
+        <v>164.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D151" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>237.0</v>
+        <v>165.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D152" t="n">
-        <v>69.0</v>
+        <v>17.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>238.0</v>
+        <v>188.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>284.0</v>
+        <v>120.0</v>
       </c>
       <c r="D153" t="n">
-        <v>77.0</v>
+        <v>9.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>239.0</v>
+        <v>189.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>284.0</v>
+        <v>128.0</v>
       </c>
       <c r="D154" t="n">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>240.0</v>
+        <v>187.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>284.0</v>
+        <v>124.0</v>
       </c>
       <c r="D155" t="n">
-        <v>93.0</v>
+        <v>21.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>245.0</v>
+        <v>186.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>276.0</v>
+        <v>132.0</v>
       </c>
       <c r="D156" t="n">
-        <v>93.0</v>
+        <v>21.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>241.0</v>
+        <v>190.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>284.0</v>
+        <v>136.0</v>
       </c>
       <c r="D157" t="n">
-        <v>101.0</v>
+        <v>9.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>242.0</v>
+        <v>191.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>288.0</v>
+        <v>148.0</v>
       </c>
       <c r="D158" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>243.0</v>
+        <v>192.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>280.0</v>
+        <v>162.0</v>
       </c>
       <c r="D159" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>244.0</v>
+        <v>193.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>276.0</v>
+        <v>156.0</v>
       </c>
       <c r="D160" t="n">
-        <v>101.0</v>
+        <v>25.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>247.0</v>
+        <v>194.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>268.0</v>
+        <v>172.0</v>
       </c>
       <c r="D161" t="n">
-        <v>97.0</v>
+        <v>21.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>250.0</v>
+        <v>195.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>260.0</v>
+        <v>180.0</v>
       </c>
       <c r="D162" t="n">
-        <v>93.0</v>
+        <v>21.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>248.0</v>
+        <v>196.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>260.0</v>
+        <v>180.0</v>
       </c>
       <c r="D163" t="n">
-        <v>109.0</v>
+        <v>29.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>249.0</v>
+        <v>197.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>252.0</v>
+        <v>172.0</v>
       </c>
       <c r="D164" t="n">
-        <v>101.0</v>
+        <v>29.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>255.0</v>
+        <v>198.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D165" t="n">
-        <v>93.0</v>
+        <v>37.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>256.0</v>
+        <v>199.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D166" t="n">
-        <v>101.0</v>
+        <v>45.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>257.0</v>
+        <v>200.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D167" t="n">
-        <v>101.0</v>
+        <v>45.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>258.0</v>
+        <v>201.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D168" t="n">
-        <v>109.0</v>
+        <v>37.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>259.0</v>
+        <v>202.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>228.0</v>
+        <v>188.0</v>
       </c>
       <c r="D169" t="n">
-        <v>117.0</v>
+        <v>41.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>260.0</v>
+        <v>203.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>228.0</v>
+        <v>196.0</v>
       </c>
       <c r="D170" t="n">
-        <v>125.0</v>
+        <v>49.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>275.0</v>
+        <v>144.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D171" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>276.0</v>
+        <v>145.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D172" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>277.0</v>
+        <v>146.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>246.0</v>
+        <v>172.0</v>
       </c>
       <c r="D173" t="n">
-        <v>141.0</v>
+        <v>61.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4.0</v>
+        <v>143.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>256.0</v>
+        <v>180.0</v>
       </c>
       <c r="D174" t="n">
-        <v>141.0</v>
+        <v>61.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>278.0</v>
+        <v>142.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>252.0</v>
+        <v>180.0</v>
       </c>
       <c r="D175" t="n">
-        <v>125.0</v>
+        <v>69.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>279.0</v>
+        <v>147.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>260.0</v>
+        <v>172.0</v>
       </c>
       <c r="D176" t="n">
-        <v>129.0</v>
+        <v>69.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.0</v>
+        <v>148.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>270.0</v>
+        <v>172.0</v>
       </c>
       <c r="D177" t="n">
-        <v>133.0</v>
+        <v>77.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>280.0</v>
+        <v>141.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>280.0</v>
+        <v>180.0</v>
       </c>
       <c r="D178" t="n">
-        <v>133.0</v>
+        <v>77.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.0</v>
+        <v>140.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>288.0</v>
+        <v>180.0</v>
       </c>
       <c r="D179" t="n">
-        <v>129.0</v>
+        <v>85.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.0</v>
+        <v>149.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>288.0</v>
+        <v>164.0</v>
       </c>
       <c r="D180" t="n">
-        <v>149.0</v>
+        <v>81.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>5.0</v>
+        <v>139.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>256.0</v>
+        <v>172.0</v>
       </c>
       <c r="D181" t="n">
-        <v>157.0</v>
+        <v>85.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6.0</v>
+        <v>138.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>246.0</v>
+        <v>172.0</v>
       </c>
       <c r="D182" t="n">
-        <v>157.0</v>
+        <v>93.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>7.0</v>
+        <v>137.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D183" t="n">
-        <v>169.0</v>
+        <v>101.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.0</v>
+        <v>136.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>228.0</v>
+        <v>172.0</v>
       </c>
       <c r="D184" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.0</v>
+        <v>135.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>228.0</v>
+        <v>172.0</v>
       </c>
       <c r="D185" t="n">
-        <v>161.0</v>
+        <v>117.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10.0</v>
+        <v>134.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>220.0</v>
+        <v>172.0</v>
       </c>
       <c r="D186" t="n">
-        <v>169.0</v>
+        <v>125.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.0</v>
+        <v>270.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>212.0</v>
+        <v>180.0</v>
       </c>
       <c r="D187" t="n">
-        <v>169.0</v>
+        <v>125.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12.0</v>
+        <v>269.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>204.0</v>
+        <v>180.0</v>
       </c>
       <c r="D188" t="n">
-        <v>169.0</v>
+        <v>117.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>13.0</v>
+        <v>268.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>196.0</v>
+        <v>180.0</v>
       </c>
       <c r="D189" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>14.0</v>
+        <v>267.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>188.0</v>
+        <v>180.0</v>
       </c>
       <c r="D190" t="n">
-        <v>169.0</v>
+        <v>101.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>15.0</v>
+        <v>266.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>196.0</v>
+        <v>180.0</v>
       </c>
       <c r="D191" t="n">
-        <v>161.0</v>
+        <v>93.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>16.0</v>
+        <v>265.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -3313,7 +3313,7 @@
         <v>188.0</v>
       </c>
       <c r="D192" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>271.0</v>
+        <v>264.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -3330,7 +3330,7 @@
         <v>196.0</v>
       </c>
       <c r="D193" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>272.0</v>
+        <v>263.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -3347,7 +3347,7 @@
         <v>204.0</v>
       </c>
       <c r="D194" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>273.0</v>
+        <v>204.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>212.0</v>
+        <v>204.0</v>
       </c>
       <c r="D195" t="n">
-        <v>145.0</v>
+        <v>57.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>274.0</v>
+        <v>205.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>220.0</v>
+        <v>212.0</v>
       </c>
       <c r="D196" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>261.0</v>
+        <v>206.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -3398,7 +3398,7 @@
         <v>220.0</v>
       </c>
       <c r="D197" t="n">
-        <v>125.0</v>
+        <v>73.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>262.0</v>
+        <v>208.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>212.0</v>
+        <v>228.0</v>
       </c>
       <c r="D198" t="n">
-        <v>117.0</v>
+        <v>77.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>263.0</v>
+        <v>209.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>204.0</v>
+        <v>236.0</v>
       </c>
       <c r="D199" t="n">
-        <v>109.0</v>
+        <v>77.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>264.0</v>
+        <v>210.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>196.0</v>
+        <v>236.0</v>
       </c>
       <c r="D200" t="n">
-        <v>101.0</v>
+        <v>69.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>265.0</v>
+        <v>207.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>188.0</v>
+        <v>228.0</v>
       </c>
       <c r="D201" t="n">
-        <v>93.0</v>
+        <v>69.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>266.0</v>
+        <v>212.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D202" t="n">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>138.0</v>
+        <v>211.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D203" t="n">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>267.0</v>
+        <v>214.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D204" t="n">
-        <v>101.0</v>
+        <v>53.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>137.0</v>
+        <v>213.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D205" t="n">
-        <v>101.0</v>
+        <v>53.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>268.0</v>
+        <v>216.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D206" t="n">
-        <v>109.0</v>
+        <v>45.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>269.0</v>
+        <v>219.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D207" t="n">
-        <v>117.0</v>
+        <v>29.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>136.0</v>
+        <v>222.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D208" t="n">
-        <v>109.0</v>
+        <v>21.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>135.0</v>
+        <v>221.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D209" t="n">
-        <v>117.0</v>
+        <v>21.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>270.0</v>
+        <v>220.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D210" t="n">
-        <v>125.0</v>
+        <v>29.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>134.0</v>
+        <v>217.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D211" t="n">
-        <v>125.0</v>
+        <v>37.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>133.0</v>
+        <v>215.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>164.0</v>
+        <v>236.0</v>
       </c>
       <c r="D212" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>17.0</v>
+        <v>218.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D213" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>18.0</v>
+        <v>223.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>164.0</v>
+        <v>252.0</v>
       </c>
       <c r="D214" t="n">
-        <v>145.0</v>
+        <v>21.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>19.0</v>
+        <v>224.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>156.0</v>
+        <v>260.0</v>
       </c>
       <c r="D215" t="n">
-        <v>145.0</v>
+        <v>29.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>132.0</v>
+        <v>225.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>156.0</v>
+        <v>260.0</v>
       </c>
       <c r="D216" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>131.0</v>
+        <v>226.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>148.0</v>
+        <v>260.0</v>
       </c>
       <c r="D217" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>130.0</v>
+        <v>227.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
       <c r="D218" t="n">
-        <v>137.0</v>
+        <v>53.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.0</v>
+        <v>228.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
       <c r="D219" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>20.0</v>
+        <v>229.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>148.0</v>
+        <v>260.0</v>
       </c>
       <c r="D220" t="n">
-        <v>145.0</v>
+        <v>69.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>24.0</v>
+        <v>232.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
       <c r="D221" t="n">
-        <v>169.0</v>
+        <v>69.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>23.0</v>
+        <v>233.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>164.0</v>
+        <v>276.0</v>
       </c>
       <c r="D222" t="n">
-        <v>169.0</v>
+        <v>61.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>25.0</v>
+        <v>234.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>156.0</v>
+        <v>276.0</v>
       </c>
       <c r="D223" t="n">
-        <v>169.0</v>
+        <v>53.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>22.0</v>
+        <v>235.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>148.0</v>
+        <v>284.0</v>
       </c>
       <c r="D224" t="n">
-        <v>169.0</v>
+        <v>53.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>26.0</v>
+        <v>236.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>140.0</v>
+        <v>284.0</v>
       </c>
       <c r="D225" t="n">
-        <v>169.0</v>
+        <v>61.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>27.0</v>
+        <v>237.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>132.0</v>
+        <v>284.0</v>
       </c>
       <c r="D226" t="n">
-        <v>169.0</v>
+        <v>69.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28.0</v>
+        <v>238.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>124.0</v>
+        <v>284.0</v>
       </c>
       <c r="D227" t="n">
-        <v>169.0</v>
+        <v>77.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>29.0</v>
+        <v>231.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>116.0</v>
+        <v>276.0</v>
       </c>
       <c r="D228" t="n">
-        <v>161.0</v>
+        <v>77.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>31.0</v>
+        <v>230.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D229" t="n">
-        <v>161.0</v>
+        <v>77.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>32.0</v>
+        <v>251.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D230" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>33.0</v>
+        <v>250.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>90.0</v>
+        <v>260.0</v>
       </c>
       <c r="D231" t="n">
-        <v>165.0</v>
+        <v>93.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>34.0</v>
+        <v>247.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>80.0</v>
+        <v>268.0</v>
       </c>
       <c r="D232" t="n">
-        <v>157.0</v>
+        <v>97.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>30.0</v>
+        <v>245.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D233" t="n">
-        <v>153.0</v>
+        <v>93.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>125.0</v>
+        <v>246.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D234" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>124.0</v>
+        <v>239.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D235" t="n">
-        <v>137.0</v>
+        <v>85.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>126.0</v>
+        <v>240.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>116.0</v>
+        <v>284.0</v>
       </c>
       <c r="D236" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>127.0</v>
+        <v>241.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>124.0</v>
+        <v>284.0</v>
       </c>
       <c r="D237" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>128.0</v>
+        <v>242.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>132.0</v>
+        <v>288.0</v>
       </c>
       <c r="D238" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>129.0</v>
+        <v>243.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>132.0</v>
+        <v>280.0</v>
       </c>
       <c r="D239" t="n">
-        <v>137.0</v>
+        <v>109.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>154.0</v>
+        <v>244.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>124.0</v>
+        <v>276.0</v>
       </c>
       <c r="D240" t="n">
-        <v>125.0</v>
+        <v>101.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>155.0</v>
+        <v>248.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>124.0</v>
+        <v>260.0</v>
       </c>
       <c r="D241" t="n">
-        <v>117.0</v>
+        <v>109.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>153.0</v>
+        <v>249.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>124.0</v>
+        <v>252.0</v>
       </c>
       <c r="D242" t="n">
-        <v>109.0</v>
+        <v>101.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,13 +4171,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>156.0</v>
+        <v>256.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D243" t="n">
         <v>101.0</v>
@@ -4188,13 +4188,13 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>152.0</v>
+        <v>255.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D244" t="n">
         <v>93.0</v>
@@ -4205,13 +4205,13 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>151.0</v>
+        <v>252.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D245" t="n">
         <v>85.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>178.0</v>
+        <v>253.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>132.0</v>
+        <v>228.0</v>
       </c>
       <c r="D246" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>177.0</v>
+        <v>254.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D247" t="n">
-        <v>77.0</v>
+        <v>93.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>176.0</v>
+        <v>257.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D248" t="n">
-        <v>69.0</v>
+        <v>101.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>160.0</v>
+        <v>258.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D249" t="n">
-        <v>65.0</v>
+        <v>109.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>159.0</v>
+        <v>259.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D250" t="n">
-        <v>73.0</v>
+        <v>117.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>158.0</v>
+        <v>262.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="D251" t="n">
-        <v>81.0</v>
+        <v>117.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>157.0</v>
+        <v>261.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>104.0</v>
+        <v>220.0</v>
       </c>
       <c r="D252" t="n">
-        <v>89.0</v>
+        <v>125.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>119.0</v>
+        <v>260.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D253" t="n">
-        <v>97.0</v>
+        <v>125.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>120.0</v>
+        <v>275.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D254" t="n">
-        <v>105.0</v>
+        <v>145.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>121.0</v>
+        <v>274.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>104.0</v>
+        <v>220.0</v>
       </c>
       <c r="D255" t="n">
-        <v>113.0</v>
+        <v>145.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>122.0</v>
+        <v>273.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="D256" t="n">
-        <v>121.0</v>
+        <v>145.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>123.0</v>
+        <v>272.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="D257" t="n">
-        <v>129.0</v>
+        <v>145.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60.0</v>
+        <v>271.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="D258" t="n">
-        <v>113.0</v>
+        <v>145.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>56.0</v>
+        <v>188.0</v>
       </c>
       <c r="D259" t="n">
-        <v>121.0</v>
+        <v>145.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D260" t="n">
-        <v>129.0</v>
+        <v>145.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>56.0</v>
+        <v>156.0</v>
       </c>
       <c r="D261" t="n">
-        <v>137.0</v>
+        <v>169.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>56.0</v>
+        <v>164.0</v>
       </c>
       <c r="D262" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D263" t="n">
-        <v>153.0</v>
+        <v>169.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>64.0</v>
+        <v>188.0</v>
       </c>
       <c r="D264" t="n">
-        <v>157.0</v>
+        <v>169.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>64.0</v>
+        <v>196.0</v>
       </c>
       <c r="D265" t="n">
-        <v>165.0</v>
+        <v>161.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="D266" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>37.0</v>
+        <v>12.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="D267" t="n">
         <v>169.0</v>
@@ -4596,13 +4596,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>40.0</v>
+        <v>212.0</v>
       </c>
       <c r="D268" t="n">
         <v>169.0</v>
@@ -4613,13 +4613,13 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>51.0</v>
+        <v>10.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>32.0</v>
+        <v>220.0</v>
       </c>
       <c r="D269" t="n">
         <v>169.0</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>52.0</v>
+        <v>9.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>32.0</v>
+        <v>228.0</v>
       </c>
       <c r="D270" t="n">
         <v>161.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>49.0</v>
+        <v>8.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>40.0</v>
+        <v>228.0</v>
       </c>
       <c r="D271" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>40.0</v>
+        <v>236.0</v>
       </c>
       <c r="D272" t="n">
-        <v>153.0</v>
+        <v>169.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>53.0</v>
+        <v>6.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>32.0</v>
+        <v>246.0</v>
       </c>
       <c r="D273" t="n">
-        <v>153.0</v>
+        <v>157.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,13 +4698,13 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>54.0</v>
+        <v>276.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>32.0</v>
+        <v>236.0</v>
       </c>
       <c r="D274" t="n">
         <v>145.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>47.0</v>
+        <v>277.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>40.0</v>
+        <v>246.0</v>
       </c>
       <c r="D275" t="n">
-        <v>145.0</v>
+        <v>141.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>46.0</v>
+        <v>5.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>40.0</v>
+        <v>256.0</v>
       </c>
       <c r="D276" t="n">
-        <v>137.0</v>
+        <v>157.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>45.0</v>
+        <v>4.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>40.0</v>
+        <v>256.0</v>
       </c>
       <c r="D277" t="n">
-        <v>129.0</v>
+        <v>141.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>44.0</v>
+        <v>278.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>40.0</v>
+        <v>252.0</v>
       </c>
       <c r="D278" t="n">
-        <v>121.0</v>
+        <v>125.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>59.0</v>
+        <v>279.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>40.0</v>
+        <v>260.0</v>
       </c>
       <c r="D279" t="n">
-        <v>113.0</v>
+        <v>129.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>58.0</v>
+        <v>3.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>32.0</v>
+        <v>270.0</v>
       </c>
       <c r="D280" t="n">
-        <v>113.0</v>
+        <v>133.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>57.0</v>
+        <v>280.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>32.0</v>
+        <v>280.0</v>
       </c>
       <c r="D281" t="n">
-        <v>121.0</v>
+        <v>133.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,13 +4834,13 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>56.0</v>
+        <v>2.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>32.0</v>
+        <v>288.0</v>
       </c>
       <c r="D282" t="n">
         <v>129.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>55.0</v>
+        <v>1.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>32.0</v>
+        <v>288.0</v>
       </c>
       <c r="D283" t="n">
-        <v>137.0</v>
+        <v>149.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3320.119873046875</v>
+        <v>2788.85498046875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -85,7 +85,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3320.119873046875</v>
+        <v>2788.85498046875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,13 +125,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
         <v>17.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.0</v>
+        <v>94.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168.0</v>
+        <v>95.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.0</v>
+        <v>16.0</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>167.0</v>
+        <v>78.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.0</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>166.0</v>
+        <v>77.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>49.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>188.0</v>
+        <v>75.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>120.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0</v>
+        <v>57.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>74.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0</v>
+        <v>65.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>190.0</v>
+        <v>76.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>136.0</v>
+        <v>16.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.0</v>
+        <v>57.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>191.0</v>
+        <v>79.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.0</v>
+        <v>24.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192.0</v>
+        <v>80.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0</v>
+        <v>32.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>194.0</v>
+        <v>81.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0</v>
+        <v>49.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.0</v>
+        <v>82.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>196.0</v>
+        <v>89.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0</v>
+        <v>51.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201.0</v>
+        <v>109.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0</v>
+        <v>51.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>197.0</v>
+        <v>108.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>198.0</v>
+        <v>110.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>199.0</v>
+        <v>111.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>145.0</v>
+        <v>112.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D24" t="n">
-        <v>53.0</v>
+        <v>63.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>146.0</v>
+        <v>88.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>147.0</v>
+        <v>83.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D26" t="n">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148.0</v>
+        <v>84.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D27" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>140.0</v>
+        <v>87.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.0</v>
+        <v>73.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>141.0</v>
+        <v>113.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D29" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>142.0</v>
+        <v>114.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>143.0</v>
+        <v>115.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>144.0</v>
+        <v>116.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D32" t="n">
-        <v>53.0</v>
+        <v>83.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>200.0</v>
+        <v>86.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D33" t="n">
-        <v>45.0</v>
+        <v>83.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>221.0</v>
+        <v>85.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.0</v>
+        <v>81.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>222.0</v>
+        <v>65.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>236.0</v>
+        <v>32.0</v>
       </c>
       <c r="D35" t="n">
-        <v>21.0</v>
+        <v>89.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>223.0</v>
+        <v>64.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0</v>
+        <v>32.0</v>
       </c>
       <c r="D36" t="n">
-        <v>21.0</v>
+        <v>97.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>224.0</v>
+        <v>66.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>260.0</v>
+        <v>24.0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>225.0</v>
+        <v>67.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0</v>
+        <v>16.0</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>97.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>226.0</v>
+        <v>73.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>227.0</v>
+        <v>72.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.0</v>
+        <v>81.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228.0</v>
+        <v>71.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>89.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229.0</v>
+        <v>70.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D42" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>230.0</v>
+        <v>69.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>260.0</v>
+        <v>8.0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.0</v>
+        <v>109.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251.0</v>
+        <v>68.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>260.0</v>
+        <v>16.0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.0</v>
+        <v>109.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250.0</v>
+        <v>58.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.0</v>
+        <v>113.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>247.0</v>
+        <v>57.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>268.0</v>
+        <v>32.0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.0</v>
+        <v>121.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243.0</v>
+        <v>56.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>280.0</v>
+        <v>32.0</v>
       </c>
       <c r="D47" t="n">
-        <v>109.0</v>
+        <v>129.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>242.0</v>
+        <v>55.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>288.0</v>
+        <v>32.0</v>
       </c>
       <c r="D48" t="n">
-        <v>109.0</v>
+        <v>137.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241.0</v>
+        <v>54.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>284.0</v>
+        <v>32.0</v>
       </c>
       <c r="D49" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244.0</v>
+        <v>53.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>276.0</v>
+        <v>32.0</v>
       </c>
       <c r="D50" t="n">
-        <v>101.0</v>
+        <v>153.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245.0</v>
+        <v>52.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>276.0</v>
+        <v>32.0</v>
       </c>
       <c r="D51" t="n">
-        <v>93.0</v>
+        <v>161.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>240.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>284.0</v>
+        <v>32.0</v>
       </c>
       <c r="D52" t="n">
-        <v>93.0</v>
+        <v>169.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>239.0</v>
+        <v>50.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D53" t="n">
-        <v>85.0</v>
+        <v>169.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>246.0</v>
+        <v>49.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D54" t="n">
-        <v>85.0</v>
+        <v>161.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>231.0</v>
+        <v>48.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D55" t="n">
-        <v>77.0</v>
+        <v>153.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>238.0</v>
+        <v>47.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D56" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>237.0</v>
+        <v>46.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D57" t="n">
-        <v>69.0</v>
+        <v>137.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>232.0</v>
+        <v>45.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D58" t="n">
-        <v>69.0</v>
+        <v>129.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>233.0</v>
+        <v>44.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>276.0</v>
+        <v>40.0</v>
       </c>
       <c r="D59" t="n">
-        <v>61.0</v>
+        <v>121.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>236.0</v>
+        <v>59.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D60" t="n">
-        <v>61.0</v>
+        <v>113.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235.0</v>
+        <v>63.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>284.0</v>
+        <v>40.0</v>
       </c>
       <c r="D61" t="n">
-        <v>53.0</v>
+        <v>99.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>234.0</v>
+        <v>62.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>276.0</v>
+        <v>48.0</v>
       </c>
       <c r="D62" t="n">
-        <v>53.0</v>
+        <v>99.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>219.0</v>
+        <v>117.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D63" t="n">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>218.0</v>
+        <v>118.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D64" t="n">
-        <v>37.0</v>
+        <v>97.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>220.0</v>
+        <v>61.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D65" t="n">
-        <v>29.0</v>
+        <v>105.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>217.0</v>
+        <v>60.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D66" t="n">
-        <v>37.0</v>
+        <v>113.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>215.0</v>
+        <v>43.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D67" t="n">
-        <v>45.0</v>
+        <v>121.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>214.0</v>
+        <v>42.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D68" t="n">
-        <v>53.0</v>
+        <v>129.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>216.0</v>
+        <v>41.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D69" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>213.0</v>
+        <v>40.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D70" t="n">
-        <v>53.0</v>
+        <v>145.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>211.0</v>
+        <v>39.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D71" t="n">
-        <v>61.0</v>
+        <v>153.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>210.0</v>
+        <v>38.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D72" t="n">
-        <v>69.0</v>
+        <v>161.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>212.0</v>
+        <v>37.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D73" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>207.0</v>
+        <v>36.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>228.0</v>
+        <v>64.0</v>
       </c>
       <c r="D74" t="n">
-        <v>69.0</v>
+        <v>165.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>209.0</v>
+        <v>35.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>236.0</v>
+        <v>64.0</v>
       </c>
       <c r="D75" t="n">
-        <v>77.0</v>
+        <v>157.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>208.0</v>
+        <v>34.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>228.0</v>
+        <v>80.0</v>
       </c>
       <c r="D76" t="n">
-        <v>77.0</v>
+        <v>157.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253.0</v>
+        <v>33.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>228.0</v>
+        <v>90.0</v>
       </c>
       <c r="D77" t="n">
-        <v>85.0</v>
+        <v>165.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.0</v>
+        <v>32.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D78" t="n">
-        <v>93.0</v>
+        <v>169.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>257.0</v>
+        <v>31.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D79" t="n">
-        <v>101.0</v>
+        <v>161.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>258.0</v>
+        <v>30.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D80" t="n">
-        <v>109.0</v>
+        <v>153.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>256.0</v>
+        <v>125.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D81" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278.0</v>
+        <v>124.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>252.0</v>
+        <v>104.0</v>
       </c>
       <c r="D82" t="n">
-        <v>125.0</v>
+        <v>137.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>279.0</v>
+        <v>123.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D83" t="n">
         <v>129.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.0</v>
+        <v>126.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>270.0</v>
+        <v>116.0</v>
       </c>
       <c r="D84" t="n">
-        <v>133.0</v>
+        <v>145.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>280.0</v>
+        <v>127.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>280.0</v>
+        <v>124.0</v>
       </c>
       <c r="D85" t="n">
-        <v>133.0</v>
+        <v>145.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>288.0</v>
+        <v>116.0</v>
       </c>
       <c r="D86" t="n">
-        <v>149.0</v>
+        <v>161.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>288.0</v>
+        <v>124.0</v>
       </c>
       <c r="D87" t="n">
-        <v>129.0</v>
+        <v>169.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>248.0</v>
+        <v>27.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>260.0</v>
+        <v>132.0</v>
       </c>
       <c r="D88" t="n">
-        <v>109.0</v>
+        <v>169.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>249.0</v>
+        <v>26.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>252.0</v>
+        <v>140.0</v>
       </c>
       <c r="D89" t="n">
-        <v>101.0</v>
+        <v>169.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255.0</v>
+        <v>22.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>236.0</v>
+        <v>148.0</v>
       </c>
       <c r="D90" t="n">
-        <v>93.0</v>
+        <v>169.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252.0</v>
+        <v>25.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>236.0</v>
+        <v>156.0</v>
       </c>
       <c r="D91" t="n">
-        <v>85.0</v>
+        <v>169.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>206.0</v>
+        <v>23.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>220.0</v>
+        <v>164.0</v>
       </c>
       <c r="D92" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>205.0</v>
+        <v>24.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>212.0</v>
+        <v>172.0</v>
       </c>
       <c r="D93" t="n">
-        <v>65.0</v>
+        <v>169.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>204.0</v>
+        <v>19.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>204.0</v>
+        <v>156.0</v>
       </c>
       <c r="D94" t="n">
-        <v>57.0</v>
+        <v>145.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>203.0</v>
+        <v>20.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>196.0</v>
+        <v>148.0</v>
       </c>
       <c r="D95" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.0</v>
+        <v>21.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>188.0</v>
+        <v>140.0</v>
       </c>
       <c r="D96" t="n">
-        <v>41.0</v>
+        <v>145.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>193.0</v>
+        <v>128.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>156.0</v>
+        <v>132.0</v>
       </c>
       <c r="D97" t="n">
-        <v>25.0</v>
+        <v>145.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>186.0</v>
+        <v>129.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -1715,7 +1715,7 @@
         <v>132.0</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0</v>
+        <v>137.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>187.0</v>
+        <v>130.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>124.0</v>
+        <v>140.0</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0</v>
+        <v>137.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>185.0</v>
+        <v>131.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>124.0</v>
+        <v>148.0</v>
       </c>
       <c r="D100" t="n">
-        <v>29.0</v>
+        <v>137.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>184.0</v>
+        <v>132.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>124.0</v>
+        <v>156.0</v>
       </c>
       <c r="D101" t="n">
-        <v>37.0</v>
+        <v>137.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>183.0</v>
+        <v>133.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>124.0</v>
+        <v>164.0</v>
       </c>
       <c r="D102" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182.0</v>
+        <v>18.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>124.0</v>
+        <v>164.0</v>
       </c>
       <c r="D103" t="n">
-        <v>53.0</v>
+        <v>145.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>181.0</v>
+        <v>17.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D104" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>176.0</v>
+        <v>270.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D105" t="n">
-        <v>69.0</v>
+        <v>125.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0</v>
+        <v>134.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D106" t="n">
-        <v>77.0</v>
+        <v>125.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>151.0</v>
+        <v>135.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D107" t="n">
-        <v>85.0</v>
+        <v>117.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>152.0</v>
+        <v>269.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D108" t="n">
-        <v>93.0</v>
+        <v>117.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>156.0</v>
+        <v>268.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D109" t="n">
-        <v>101.0</v>
+        <v>109.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>153.0</v>
+        <v>136.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D110" t="n">
         <v>109.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>155.0</v>
+        <v>267.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D111" t="n">
-        <v>117.0</v>
+        <v>101.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>154.0</v>
+        <v>137.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D112" t="n">
-        <v>125.0</v>
+        <v>101.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>18.0</v>
+        <v>138.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>164.0</v>
+        <v>172.0</v>
       </c>
       <c r="D113" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17.0</v>
+        <v>266.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>172.0</v>
+        <v>180.0</v>
       </c>
       <c r="D114" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.0</v>
+        <v>140.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>188.0</v>
+        <v>180.0</v>
       </c>
       <c r="D115" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>271.0</v>
+        <v>265.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>196.0</v>
+        <v>188.0</v>
       </c>
       <c r="D116" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>272.0</v>
+        <v>264.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>204.0</v>
+        <v>196.0</v>
       </c>
       <c r="D117" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>273.0</v>
+        <v>263.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>212.0</v>
+        <v>204.0</v>
       </c>
       <c r="D118" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>274.0</v>
+        <v>262.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>220.0</v>
+        <v>212.0</v>
       </c>
       <c r="D119" t="n">
-        <v>145.0</v>
+        <v>117.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>275.0</v>
+        <v>258.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
         <v>228.0</v>
       </c>
       <c r="D120" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>276.0</v>
+        <v>259.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D121" t="n">
-        <v>145.0</v>
+        <v>117.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>277.0</v>
+        <v>260.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>246.0</v>
+        <v>228.0</v>
       </c>
       <c r="D122" t="n">
-        <v>141.0</v>
+        <v>125.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.0</v>
+        <v>261.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>256.0</v>
+        <v>220.0</v>
       </c>
       <c r="D123" t="n">
-        <v>141.0</v>
+        <v>125.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.0</v>
+        <v>275.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>256.0</v>
+        <v>228.0</v>
       </c>
       <c r="D124" t="n">
-        <v>157.0</v>
+        <v>145.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.0</v>
+        <v>274.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>246.0</v>
+        <v>220.0</v>
       </c>
       <c r="D125" t="n">
-        <v>157.0</v>
+        <v>145.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.0</v>
+        <v>273.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>228.0</v>
+        <v>212.0</v>
       </c>
       <c r="D126" t="n">
-        <v>161.0</v>
+        <v>145.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.0</v>
+        <v>272.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>236.0</v>
+        <v>204.0</v>
       </c>
       <c r="D127" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.0</v>
+        <v>271.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>228.0</v>
+        <v>196.0</v>
       </c>
       <c r="D128" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>220.0</v>
+        <v>188.0</v>
       </c>
       <c r="D129" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>212.0</v>
+        <v>196.0</v>
       </c>
       <c r="D130" t="n">
-        <v>169.0</v>
+        <v>161.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>204.0</v>
+        <v>188.0</v>
       </c>
       <c r="D131" t="n">
         <v>169.0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -2293,7 +2293,7 @@
         <v>196.0</v>
       </c>
       <c r="D132" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>196.0</v>
+        <v>204.0</v>
       </c>
       <c r="D133" t="n">
         <v>169.0</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>188.0</v>
+        <v>212.0</v>
       </c>
       <c r="D134" t="n">
         <v>169.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133.0</v>
+        <v>10.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>164.0</v>
+        <v>220.0</v>
       </c>
       <c r="D135" t="n">
-        <v>137.0</v>
+        <v>169.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>134.0</v>
+        <v>9.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D136" t="n">
-        <v>125.0</v>
+        <v>161.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>270.0</v>
+        <v>8.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D137" t="n">
-        <v>125.0</v>
+        <v>169.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>135.0</v>
+        <v>7.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D138" t="n">
-        <v>117.0</v>
+        <v>169.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>269.0</v>
+        <v>6.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>180.0</v>
+        <v>246.0</v>
       </c>
       <c r="D139" t="n">
-        <v>117.0</v>
+        <v>157.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>268.0</v>
+        <v>5.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>180.0</v>
+        <v>256.0</v>
       </c>
       <c r="D140" t="n">
-        <v>109.0</v>
+        <v>157.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.0</v>
+        <v>276.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D141" t="n">
-        <v>109.0</v>
+        <v>145.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>137.0</v>
+        <v>277.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>172.0</v>
+        <v>246.0</v>
       </c>
       <c r="D142" t="n">
-        <v>101.0</v>
+        <v>141.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>267.0</v>
+        <v>4.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>180.0</v>
+        <v>256.0</v>
       </c>
       <c r="D143" t="n">
-        <v>101.0</v>
+        <v>141.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>259.0</v>
+        <v>278.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>228.0</v>
+        <v>252.0</v>
       </c>
       <c r="D144" t="n">
-        <v>117.0</v>
+        <v>125.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C145" t="n">
         <v>260.0</v>
       </c>
-      <c r="B145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>228.0</v>
-      </c>
       <c r="D145" t="n">
-        <v>125.0</v>
+        <v>129.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>261.0</v>
+        <v>3.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>220.0</v>
+        <v>270.0</v>
       </c>
       <c r="D146" t="n">
-        <v>125.0</v>
+        <v>133.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>262.0</v>
+        <v>280.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>212.0</v>
+        <v>280.0</v>
       </c>
       <c r="D147" t="n">
-        <v>117.0</v>
+        <v>133.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>263.0</v>
+        <v>1.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>204.0</v>
+        <v>288.0</v>
       </c>
       <c r="D148" t="n">
-        <v>109.0</v>
+        <v>149.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>264.0</v>
+        <v>2.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>196.0</v>
+        <v>288.0</v>
       </c>
       <c r="D149" t="n">
-        <v>101.0</v>
+        <v>129.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>265.0</v>
+        <v>242.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>188.0</v>
+        <v>288.0</v>
       </c>
       <c r="D150" t="n">
-        <v>93.0</v>
+        <v>109.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>266.0</v>
+        <v>243.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>180.0</v>
+        <v>280.0</v>
       </c>
       <c r="D151" t="n">
-        <v>93.0</v>
+        <v>109.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>138.0</v>
+        <v>241.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>172.0</v>
+        <v>284.0</v>
       </c>
       <c r="D152" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>139.0</v>
+        <v>244.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
       <c r="D153" t="n">
-        <v>85.0</v>
+        <v>101.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>149.0</v>
+        <v>245.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>164.0</v>
+        <v>276.0</v>
       </c>
       <c r="D154" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150.0</v>
+        <v>240.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>148.0</v>
+        <v>284.0</v>
       </c>
       <c r="D155" t="n">
-        <v>85.0</v>
+        <v>93.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>178.0</v>
+        <v>239.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>132.0</v>
+        <v>284.0</v>
       </c>
       <c r="D156" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>179.0</v>
+        <v>246.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>140.0</v>
+        <v>276.0</v>
       </c>
       <c r="D157" t="n">
-        <v>65.0</v>
+        <v>85.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>180.0</v>
+        <v>231.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>132.0</v>
+        <v>276.0</v>
       </c>
       <c r="D158" t="n">
-        <v>61.0</v>
+        <v>77.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>165.0</v>
+        <v>238.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D159" t="n">
-        <v>17.0</v>
+        <v>77.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>164.0</v>
+        <v>237.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D160" t="n">
-        <v>25.0</v>
+        <v>69.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>163.0</v>
+        <v>232.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D161" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.0</v>
+        <v>233.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D162" t="n">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>161.0</v>
+        <v>236.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D163" t="n">
-        <v>49.0</v>
+        <v>61.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>175.0</v>
+        <v>235.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D164" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160.0</v>
+        <v>234.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D165" t="n">
-        <v>65.0</v>
+        <v>53.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>159.0</v>
+        <v>227.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D166" t="n">
-        <v>73.0</v>
+        <v>53.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>158.0</v>
+        <v>228.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D167" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>157.0</v>
+        <v>229.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D168" t="n">
-        <v>89.0</v>
+        <v>69.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>119.0</v>
+        <v>230.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D169" t="n">
-        <v>97.0</v>
+        <v>77.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>120.0</v>
+        <v>251.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D170" t="n">
-        <v>105.0</v>
+        <v>85.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>121.0</v>
+        <v>250.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D171" t="n">
-        <v>113.0</v>
+        <v>93.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>122.0</v>
+        <v>247.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>104.0</v>
+        <v>268.0</v>
       </c>
       <c r="D172" t="n">
-        <v>121.0</v>
+        <v>97.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>123.0</v>
+        <v>248.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D173" t="n">
-        <v>129.0</v>
+        <v>109.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>124.0</v>
+        <v>249.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>104.0</v>
+        <v>252.0</v>
       </c>
       <c r="D174" t="n">
-        <v>137.0</v>
+        <v>101.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>125.0</v>
+        <v>256.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D175" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>30.0</v>
+        <v>257.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D176" t="n">
-        <v>153.0</v>
+        <v>101.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>31.0</v>
+        <v>254.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D177" t="n">
-        <v>161.0</v>
+        <v>93.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>32.0</v>
+        <v>255.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D178" t="n">
-        <v>169.0</v>
+        <v>93.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>252.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D179" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>253.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>132.0</v>
+        <v>228.0</v>
       </c>
       <c r="D180" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>208.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>140.0</v>
+        <v>228.0</v>
       </c>
       <c r="D181" t="n">
-        <v>169.0</v>
+        <v>77.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22.0</v>
+        <v>209.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>148.0</v>
+        <v>236.0</v>
       </c>
       <c r="D182" t="n">
-        <v>169.0</v>
+        <v>77.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25.0</v>
+        <v>210.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>156.0</v>
+        <v>236.0</v>
       </c>
       <c r="D183" t="n">
-        <v>169.0</v>
+        <v>69.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23.0</v>
+        <v>211.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>164.0</v>
+        <v>236.0</v>
       </c>
       <c r="D184" t="n">
-        <v>169.0</v>
+        <v>61.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>24.0</v>
+        <v>214.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D185" t="n">
-        <v>169.0</v>
+        <v>53.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29.0</v>
+        <v>215.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>116.0</v>
+        <v>236.0</v>
       </c>
       <c r="D186" t="n">
-        <v>161.0</v>
+        <v>45.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>126.0</v>
+        <v>218.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>116.0</v>
+        <v>236.0</v>
       </c>
       <c r="D187" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>127.0</v>
+        <v>226.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>124.0</v>
+        <v>260.0</v>
       </c>
       <c r="D188" t="n">
-        <v>145.0</v>
+        <v>45.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>128.0</v>
+        <v>225.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>132.0</v>
+        <v>260.0</v>
       </c>
       <c r="D189" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.0</v>
+        <v>224.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
       <c r="D190" t="n">
-        <v>145.0</v>
+        <v>29.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>129.0</v>
+        <v>223.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>132.0</v>
+        <v>252.0</v>
       </c>
       <c r="D191" t="n">
-        <v>137.0</v>
+        <v>21.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>130.0</v>
+        <v>219.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>140.0</v>
+        <v>236.0</v>
       </c>
       <c r="D192" t="n">
-        <v>137.0</v>
+        <v>29.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>20.0</v>
+        <v>222.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>148.0</v>
+        <v>236.0</v>
       </c>
       <c r="D193" t="n">
-        <v>145.0</v>
+        <v>21.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>19.0</v>
+        <v>221.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>156.0</v>
+        <v>228.0</v>
       </c>
       <c r="D194" t="n">
-        <v>145.0</v>
+        <v>21.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132.0</v>
+        <v>220.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>156.0</v>
+        <v>228.0</v>
       </c>
       <c r="D195" t="n">
-        <v>137.0</v>
+        <v>29.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>131.0</v>
+        <v>217.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>148.0</v>
+        <v>228.0</v>
       </c>
       <c r="D196" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>172.0</v>
+        <v>216.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>80.0</v>
+        <v>228.0</v>
       </c>
       <c r="D197" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>171.0</v>
+        <v>213.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>80.0</v>
+        <v>228.0</v>
       </c>
       <c r="D198" t="n">
-        <v>25.0</v>
+        <v>53.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>170.0</v>
+        <v>212.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>72.0</v>
+        <v>228.0</v>
       </c>
       <c r="D199" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>169.0</v>
+        <v>207.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0</v>
+        <v>69.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>102.0</v>
+        <v>206.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>56.0</v>
+        <v>220.0</v>
       </c>
       <c r="D201" t="n">
-        <v>25.0</v>
+        <v>73.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>103.0</v>
+        <v>205.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>56.0</v>
+        <v>212.0</v>
       </c>
       <c r="D202" t="n">
-        <v>33.0</v>
+        <v>65.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>56.0</v>
+        <v>204.0</v>
       </c>
       <c r="D203" t="n">
-        <v>41.0</v>
+        <v>57.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>108.0</v>
+        <v>203.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>56.0</v>
+        <v>196.0</v>
       </c>
       <c r="D204" t="n">
         <v>49.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>107.0</v>
+        <v>202.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>72.0</v>
+        <v>188.0</v>
       </c>
       <c r="D205" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>174.0</v>
+        <v>200.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>88.0</v>
+        <v>180.0</v>
       </c>
       <c r="D206" t="n">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>173.0</v>
+        <v>201.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>80.0</v>
+        <v>180.0</v>
       </c>
       <c r="D207" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>106.0</v>
+        <v>198.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>72.0</v>
+        <v>172.0</v>
       </c>
       <c r="D208" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105.0</v>
+        <v>197.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>64.0</v>
+        <v>172.0</v>
       </c>
       <c r="D209" t="n">
-        <v>41.0</v>
+        <v>29.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>92.0</v>
+        <v>196.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>44.0</v>
+        <v>180.0</v>
       </c>
       <c r="D210" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>91.0</v>
+        <v>195.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>44.0</v>
+        <v>180.0</v>
       </c>
       <c r="D211" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>90.0</v>
+        <v>194.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>44.0</v>
+        <v>172.0</v>
       </c>
       <c r="D212" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>93.0</v>
+        <v>192.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>32.0</v>
+        <v>162.0</v>
       </c>
       <c r="D213" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>94.0</v>
+        <v>191.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>24.0</v>
+        <v>148.0</v>
       </c>
       <c r="D214" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>80.0</v>
+        <v>190.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>32.0</v>
+        <v>136.0</v>
       </c>
       <c r="D215" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>109.0</v>
+        <v>189.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>48.0</v>
+        <v>128.0</v>
       </c>
       <c r="D216" t="n">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>89.0</v>
+        <v>188.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>40.0</v>
+        <v>120.0</v>
       </c>
       <c r="D217" t="n">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>110.0</v>
+        <v>187.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>56.0</v>
+        <v>124.0</v>
       </c>
       <c r="D218" t="n">
-        <v>57.0</v>
+        <v>21.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111.0</v>
+        <v>185.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>56.0</v>
+        <v>124.0</v>
       </c>
       <c r="D219" t="n">
-        <v>65.0</v>
+        <v>29.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>114.0</v>
+        <v>186.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="D220" t="n">
-        <v>73.0</v>
+        <v>21.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>112.0</v>
+        <v>193.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>48.0</v>
+        <v>156.0</v>
       </c>
       <c r="D221" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>88.0</v>
+        <v>199.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>40.0</v>
+        <v>172.0</v>
       </c>
       <c r="D222" t="n">
-        <v>63.0</v>
+        <v>45.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>113.0</v>
+        <v>145.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D223" t="n">
-        <v>73.0</v>
+        <v>53.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>87.0</v>
+        <v>144.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D224" t="n">
-        <v>73.0</v>
+        <v>53.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>115.0</v>
+        <v>143.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D225" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>117.0</v>
+        <v>146.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D226" t="n">
-        <v>89.0</v>
+        <v>61.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>116.0</v>
+        <v>147.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D227" t="n">
-        <v>83.0</v>
+        <v>69.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>86.0</v>
+        <v>142.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D228" t="n">
-        <v>83.0</v>
+        <v>69.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>118.0</v>
+        <v>141.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D229" t="n">
-        <v>97.0</v>
+        <v>77.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>61.0</v>
+        <v>148.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D230" t="n">
-        <v>105.0</v>
+        <v>77.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>60.0</v>
+        <v>139.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D231" t="n">
-        <v>113.0</v>
+        <v>85.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.0</v>
+        <v>149.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>56.0</v>
+        <v>164.0</v>
       </c>
       <c r="D232" t="n">
-        <v>121.0</v>
+        <v>81.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>42.0</v>
+        <v>150.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>56.0</v>
+        <v>148.0</v>
       </c>
       <c r="D233" t="n">
-        <v>129.0</v>
+        <v>85.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>41.0</v>
+        <v>179.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>56.0</v>
+        <v>140.0</v>
       </c>
       <c r="D234" t="n">
-        <v>137.0</v>
+        <v>65.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="D235" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>39.0</v>
+        <v>176.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>56.0</v>
+        <v>124.0</v>
       </c>
       <c r="D236" t="n">
-        <v>153.0</v>
+        <v>69.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>38.0</v>
+        <v>177.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>56.0</v>
+        <v>124.0</v>
       </c>
       <c r="D237" t="n">
-        <v>161.0</v>
+        <v>77.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>37.0</v>
+        <v>178.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>56.0</v>
+        <v>132.0</v>
       </c>
       <c r="D238" t="n">
-        <v>169.0</v>
+        <v>81.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>36.0</v>
+        <v>151.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>64.0</v>
+        <v>124.0</v>
       </c>
       <c r="D239" t="n">
-        <v>165.0</v>
+        <v>85.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>35.0</v>
+        <v>152.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>64.0</v>
+        <v>124.0</v>
       </c>
       <c r="D240" t="n">
-        <v>157.0</v>
+        <v>93.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>33.0</v>
+        <v>156.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>90.0</v>
+        <v>124.0</v>
       </c>
       <c r="D241" t="n">
-        <v>165.0</v>
+        <v>101.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>34.0</v>
+        <v>153.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>80.0</v>
+        <v>124.0</v>
       </c>
       <c r="D242" t="n">
-        <v>157.0</v>
+        <v>109.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>62.0</v>
+        <v>155.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>48.0</v>
+        <v>124.0</v>
       </c>
       <c r="D243" t="n">
-        <v>99.0</v>
+        <v>117.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>63.0</v>
+        <v>154.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D244" t="n">
-        <v>99.0</v>
+        <v>125.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59.0</v>
+        <v>122.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D245" t="n">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>44.0</v>
+        <v>121.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D246" t="n">
-        <v>121.0</v>
+        <v>113.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>45.0</v>
+        <v>120.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D247" t="n">
-        <v>129.0</v>
+        <v>105.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>46.0</v>
+        <v>119.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D248" t="n">
-        <v>137.0</v>
+        <v>97.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>47.0</v>
+        <v>157.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D249" t="n">
-        <v>145.0</v>
+        <v>89.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>48.0</v>
+        <v>158.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D250" t="n">
-        <v>153.0</v>
+        <v>81.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>49.0</v>
+        <v>159.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D251" t="n">
-        <v>161.0</v>
+        <v>73.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>50.0</v>
+        <v>160.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D252" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>51.0</v>
+        <v>181.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D253" t="n">
-        <v>169.0</v>
+        <v>61.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>52.0</v>
+        <v>182.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D254" t="n">
-        <v>161.0</v>
+        <v>53.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>53.0</v>
+        <v>183.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D255" t="n">
-        <v>153.0</v>
+        <v>45.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>54.0</v>
+        <v>184.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D256" t="n">
-        <v>145.0</v>
+        <v>37.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55.0</v>
+        <v>175.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D257" t="n">
-        <v>137.0</v>
+        <v>57.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56.0</v>
+        <v>161.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D258" t="n">
-        <v>129.0</v>
+        <v>49.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>57.0</v>
+        <v>162.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D259" t="n">
-        <v>121.0</v>
+        <v>41.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>58.0</v>
+        <v>163.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D260" t="n">
-        <v>113.0</v>
+        <v>33.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>64.0</v>
+        <v>164.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D261" t="n">
-        <v>97.0</v>
+        <v>25.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>65.0</v>
+        <v>165.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D262" t="n">
-        <v>89.0</v>
+        <v>17.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>85.0</v>
+        <v>166.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>32.0</v>
+        <v>92.0</v>
       </c>
       <c r="D263" t="n">
-        <v>81.0</v>
+        <v>9.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>84.0</v>
+        <v>167.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="D264" t="n">
-        <v>73.0</v>
+        <v>9.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>83.0</v>
+        <v>168.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>32.0</v>
+        <v>72.0</v>
       </c>
       <c r="D265" t="n">
-        <v>65.0</v>
+        <v>9.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>82.0</v>
+        <v>169.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="D266" t="n">
-        <v>57.0</v>
+        <v>21.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>81.0</v>
+        <v>170.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>32.0</v>
+        <v>72.0</v>
       </c>
       <c r="D267" t="n">
-        <v>49.0</v>
+        <v>25.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>79.0</v>
+        <v>172.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>24.0</v>
+        <v>80.0</v>
       </c>
       <c r="D268" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>76.0</v>
+        <v>171.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>16.0</v>
+        <v>80.0</v>
       </c>
       <c r="D269" t="n">
-        <v>57.0</v>
+        <v>25.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>66.0</v>
+        <v>173.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>24.0</v>
+        <v>80.0</v>
       </c>
       <c r="D270" t="n">
-        <v>89.0</v>
+        <v>41.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>67.0</v>
+        <v>174.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>16.0</v>
+        <v>88.0</v>
       </c>
       <c r="D271" t="n">
-        <v>97.0</v>
+        <v>49.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>68.0</v>
+        <v>107.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>16.0</v>
+        <v>72.0</v>
       </c>
       <c r="D272" t="n">
-        <v>109.0</v>
+        <v>49.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>69.0</v>
+        <v>106.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>8.0</v>
+        <v>72.0</v>
       </c>
       <c r="D273" t="n">
-        <v>109.0</v>
+        <v>41.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>70.0</v>
+        <v>105.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>8.0</v>
+        <v>64.0</v>
       </c>
       <c r="D274" t="n">
-        <v>97.0</v>
+        <v>41.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>71.0</v>
+        <v>104.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D275" t="n">
-        <v>89.0</v>
+        <v>41.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>72.0</v>
+        <v>103.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D276" t="n">
-        <v>81.0</v>
+        <v>33.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>73.0</v>
+        <v>102.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D277" t="n">
-        <v>73.0</v>
+        <v>25.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74.0</v>
+        <v>101.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D278" t="n">
-        <v>65.0</v>
+        <v>17.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D279" t="n">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>77.0</v>
+        <v>99.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8.0</v>
+        <v>44.0</v>
       </c>
       <c r="D280" t="n">
-        <v>49.0</v>
+        <v>11.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>78.0</v>
+        <v>92.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>8.0</v>
+        <v>44.0</v>
       </c>
       <c r="D281" t="n">
-        <v>41.0</v>
+        <v>27.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="D282" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>96.0</v>
+        <v>90.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="D283" t="n">
-        <v>17.0</v>
+        <v>43.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2788.85498046875</v>
+        <v>3320.119873046875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -85,7 +85,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>49.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2788.85498046875</v>
+        <v>3320.119873046875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,13 +125,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5" t="n">
         <v>17.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="D6" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94.0</v>
+        <v>101.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0</v>
+        <v>56.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95.0</v>
+        <v>168.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0</v>
+        <v>72.0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78.0</v>
+        <v>167.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>80.0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.0</v>
+        <v>166.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>92.0</v>
       </c>
       <c r="D11" t="n">
-        <v>49.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>75.0</v>
+        <v>188.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.0</v>
+        <v>120.0</v>
       </c>
       <c r="D12" t="n">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74.0</v>
+        <v>189.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.0</v>
+        <v>128.0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76.0</v>
+        <v>190.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0</v>
+        <v>136.0</v>
       </c>
       <c r="D14" t="n">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>79.0</v>
+        <v>191.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0</v>
+        <v>148.0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.0</v>
+        <v>9.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>80.0</v>
+        <v>192.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.0</v>
+        <v>162.0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>81.0</v>
+        <v>194.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D17" t="n">
-        <v>49.0</v>
+        <v>21.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>82.0</v>
+        <v>195.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>32.0</v>
+        <v>180.0</v>
       </c>
       <c r="D18" t="n">
-        <v>57.0</v>
+        <v>21.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89.0</v>
+        <v>196.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D19" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109.0</v>
+        <v>201.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D20" t="n">
-        <v>51.0</v>
+        <v>37.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108.0</v>
+        <v>197.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D21" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110.0</v>
+        <v>198.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111.0</v>
+        <v>199.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>56.0</v>
+        <v>172.0</v>
       </c>
       <c r="D23" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112.0</v>
+        <v>145.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>48.0</v>
+        <v>172.0</v>
       </c>
       <c r="D24" t="n">
-        <v>63.0</v>
+        <v>53.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88.0</v>
+        <v>146.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.0</v>
+        <v>172.0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>83.0</v>
+        <v>147.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D26" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>84.0</v>
+        <v>148.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D27" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>87.0</v>
+        <v>140.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.0</v>
+        <v>85.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>113.0</v>
+        <v>141.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D29" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>114.0</v>
+        <v>142.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D30" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>115.0</v>
+        <v>143.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D31" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>116.0</v>
+        <v>144.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D32" t="n">
-        <v>83.0</v>
+        <v>53.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86.0</v>
+        <v>200.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D33" t="n">
-        <v>83.0</v>
+        <v>45.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>85.0</v>
+        <v>221.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>32.0</v>
+        <v>228.0</v>
       </c>
       <c r="D34" t="n">
-        <v>81.0</v>
+        <v>21.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>65.0</v>
+        <v>222.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>32.0</v>
+        <v>236.0</v>
       </c>
       <c r="D35" t="n">
-        <v>89.0</v>
+        <v>21.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>64.0</v>
+        <v>223.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>32.0</v>
+        <v>252.0</v>
       </c>
       <c r="D36" t="n">
-        <v>97.0</v>
+        <v>21.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66.0</v>
+        <v>224.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.0</v>
+        <v>260.0</v>
       </c>
       <c r="D37" t="n">
-        <v>89.0</v>
+        <v>29.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67.0</v>
+        <v>225.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>16.0</v>
+        <v>260.0</v>
       </c>
       <c r="D38" t="n">
-        <v>97.0</v>
+        <v>37.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73.0</v>
+        <v>226.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D39" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>72.0</v>
+        <v>227.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D40" t="n">
-        <v>81.0</v>
+        <v>53.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>71.0</v>
+        <v>228.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D41" t="n">
-        <v>89.0</v>
+        <v>61.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>70.0</v>
+        <v>229.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D42" t="n">
-        <v>97.0</v>
+        <v>69.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69.0</v>
+        <v>230.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>8.0</v>
+        <v>260.0</v>
       </c>
       <c r="D43" t="n">
-        <v>109.0</v>
+        <v>77.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68.0</v>
+        <v>251.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.0</v>
+        <v>260.0</v>
       </c>
       <c r="D44" t="n">
-        <v>109.0</v>
+        <v>85.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>58.0</v>
+        <v>250.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D45" t="n">
-        <v>113.0</v>
+        <v>93.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>57.0</v>
+        <v>247.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>32.0</v>
+        <v>268.0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.0</v>
+        <v>97.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56.0</v>
+        <v>243.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>32.0</v>
+        <v>280.0</v>
       </c>
       <c r="D47" t="n">
-        <v>129.0</v>
+        <v>109.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55.0</v>
+        <v>242.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>32.0</v>
+        <v>288.0</v>
       </c>
       <c r="D48" t="n">
-        <v>137.0</v>
+        <v>109.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.0</v>
+        <v>241.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D49" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>53.0</v>
+        <v>244.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D50" t="n">
-        <v>153.0</v>
+        <v>101.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>52.0</v>
+        <v>245.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D51" t="n">
-        <v>161.0</v>
+        <v>93.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51.0</v>
+        <v>240.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D52" t="n">
-        <v>169.0</v>
+        <v>93.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>50.0</v>
+        <v>239.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D53" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49.0</v>
+        <v>246.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="D54" t="n">
-        <v>161.0</v>
+        <v>85.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48.0</v>
+        <v>231.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="D55" t="n">
-        <v>153.0</v>
+        <v>77.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>47.0</v>
+        <v>238.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D56" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46.0</v>
+        <v>237.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D57" t="n">
-        <v>137.0</v>
+        <v>69.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45.0</v>
+        <v>232.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="D58" t="n">
-        <v>129.0</v>
+        <v>69.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>44.0</v>
+        <v>233.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="D59" t="n">
-        <v>121.0</v>
+        <v>61.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0</v>
+        <v>236.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D60" t="n">
-        <v>113.0</v>
+        <v>61.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>63.0</v>
+        <v>235.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D61" t="n">
-        <v>99.0</v>
+        <v>53.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62.0</v>
+        <v>234.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>48.0</v>
+        <v>276.0</v>
       </c>
       <c r="D62" t="n">
-        <v>99.0</v>
+        <v>53.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>117.0</v>
+        <v>219.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D63" t="n">
-        <v>89.0</v>
+        <v>29.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118.0</v>
+        <v>218.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D64" t="n">
-        <v>97.0</v>
+        <v>37.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>61.0</v>
+        <v>220.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D65" t="n">
-        <v>105.0</v>
+        <v>29.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>60.0</v>
+        <v>217.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D66" t="n">
-        <v>113.0</v>
+        <v>37.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.0</v>
+        <v>215.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D67" t="n">
-        <v>121.0</v>
+        <v>45.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>42.0</v>
+        <v>214.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D68" t="n">
-        <v>129.0</v>
+        <v>53.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>41.0</v>
+        <v>216.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D69" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>40.0</v>
+        <v>213.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D70" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>39.0</v>
+        <v>211.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D71" t="n">
-        <v>153.0</v>
+        <v>61.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38.0</v>
+        <v>210.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D72" t="n">
-        <v>161.0</v>
+        <v>69.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37.0</v>
+        <v>212.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>56.0</v>
+        <v>228.0</v>
       </c>
       <c r="D73" t="n">
-        <v>169.0</v>
+        <v>61.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36.0</v>
+        <v>207.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D74" t="n">
-        <v>165.0</v>
+        <v>69.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>35.0</v>
+        <v>209.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>64.0</v>
+        <v>236.0</v>
       </c>
       <c r="D75" t="n">
-        <v>157.0</v>
+        <v>77.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>34.0</v>
+        <v>208.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>80.0</v>
+        <v>228.0</v>
       </c>
       <c r="D76" t="n">
-        <v>157.0</v>
+        <v>77.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>33.0</v>
+        <v>253.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>90.0</v>
+        <v>228.0</v>
       </c>
       <c r="D77" t="n">
-        <v>165.0</v>
+        <v>85.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>32.0</v>
+        <v>254.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D78" t="n">
-        <v>169.0</v>
+        <v>93.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>31.0</v>
+        <v>257.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D79" t="n">
-        <v>161.0</v>
+        <v>101.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>30.0</v>
+        <v>258.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D80" t="n">
-        <v>153.0</v>
+        <v>109.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>125.0</v>
+        <v>256.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D81" t="n">
-        <v>145.0</v>
+        <v>101.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>124.0</v>
+        <v>278.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>104.0</v>
+        <v>252.0</v>
       </c>
       <c r="D82" t="n">
-        <v>137.0</v>
+        <v>125.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>123.0</v>
+        <v>279.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D83" t="n">
         <v>129.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>126.0</v>
+        <v>3.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>116.0</v>
+        <v>270.0</v>
       </c>
       <c r="D84" t="n">
-        <v>145.0</v>
+        <v>133.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>127.0</v>
+        <v>280.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>124.0</v>
+        <v>280.0</v>
       </c>
       <c r="D85" t="n">
-        <v>145.0</v>
+        <v>133.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>116.0</v>
+        <v>288.0</v>
       </c>
       <c r="D86" t="n">
-        <v>161.0</v>
+        <v>149.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>124.0</v>
+        <v>288.0</v>
       </c>
       <c r="D87" t="n">
-        <v>169.0</v>
+        <v>129.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>27.0</v>
+        <v>248.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>132.0</v>
+        <v>260.0</v>
       </c>
       <c r="D88" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>26.0</v>
+        <v>249.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>140.0</v>
+        <v>252.0</v>
       </c>
       <c r="D89" t="n">
-        <v>169.0</v>
+        <v>101.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>22.0</v>
+        <v>255.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>148.0</v>
+        <v>236.0</v>
       </c>
       <c r="D90" t="n">
-        <v>169.0</v>
+        <v>93.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>25.0</v>
+        <v>252.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>156.0</v>
+        <v>236.0</v>
       </c>
       <c r="D91" t="n">
-        <v>169.0</v>
+        <v>85.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>23.0</v>
+        <v>206.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>164.0</v>
+        <v>220.0</v>
       </c>
       <c r="D92" t="n">
-        <v>169.0</v>
+        <v>73.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>24.0</v>
+        <v>205.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>172.0</v>
+        <v>212.0</v>
       </c>
       <c r="D93" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>19.0</v>
+        <v>204.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>156.0</v>
+        <v>204.0</v>
       </c>
       <c r="D94" t="n">
-        <v>145.0</v>
+        <v>57.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20.0</v>
+        <v>203.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>148.0</v>
+        <v>196.0</v>
       </c>
       <c r="D95" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>21.0</v>
+        <v>202.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>140.0</v>
+        <v>188.0</v>
       </c>
       <c r="D96" t="n">
-        <v>145.0</v>
+        <v>41.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>128.0</v>
+        <v>193.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>132.0</v>
+        <v>156.0</v>
       </c>
       <c r="D97" t="n">
-        <v>145.0</v>
+        <v>25.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>129.0</v>
+        <v>186.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -1715,7 +1715,7 @@
         <v>132.0</v>
       </c>
       <c r="D98" t="n">
-        <v>137.0</v>
+        <v>21.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>130.0</v>
+        <v>187.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>140.0</v>
+        <v>124.0</v>
       </c>
       <c r="D99" t="n">
-        <v>137.0</v>
+        <v>21.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131.0</v>
+        <v>185.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>148.0</v>
+        <v>124.0</v>
       </c>
       <c r="D100" t="n">
-        <v>137.0</v>
+        <v>29.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>132.0</v>
+        <v>184.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>156.0</v>
+        <v>124.0</v>
       </c>
       <c r="D101" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>133.0</v>
+        <v>183.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>164.0</v>
+        <v>124.0</v>
       </c>
       <c r="D102" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>18.0</v>
+        <v>182.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>164.0</v>
+        <v>124.0</v>
       </c>
       <c r="D103" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>17.0</v>
+        <v>181.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D104" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>270.0</v>
+        <v>176.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D105" t="n">
-        <v>125.0</v>
+        <v>69.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>134.0</v>
+        <v>177.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D106" t="n">
-        <v>125.0</v>
+        <v>77.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>135.0</v>
+        <v>151.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D107" t="n">
-        <v>117.0</v>
+        <v>85.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>269.0</v>
+        <v>152.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D108" t="n">
-        <v>117.0</v>
+        <v>93.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>268.0</v>
+        <v>156.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D109" t="n">
-        <v>109.0</v>
+        <v>101.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D110" t="n">
         <v>109.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>267.0</v>
+        <v>155.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D111" t="n">
-        <v>101.0</v>
+        <v>117.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>137.0</v>
+        <v>154.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D112" t="n">
-        <v>101.0</v>
+        <v>125.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>138.0</v>
+        <v>18.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>172.0</v>
+        <v>164.0</v>
       </c>
       <c r="D113" t="n">
-        <v>93.0</v>
+        <v>145.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>266.0</v>
+        <v>17.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>180.0</v>
+        <v>172.0</v>
       </c>
       <c r="D114" t="n">
-        <v>93.0</v>
+        <v>145.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>140.0</v>
+        <v>16.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>180.0</v>
+        <v>188.0</v>
       </c>
       <c r="D115" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>265.0</v>
+        <v>271.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>188.0</v>
+        <v>196.0</v>
       </c>
       <c r="D116" t="n">
-        <v>93.0</v>
+        <v>145.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>264.0</v>
+        <v>272.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>196.0</v>
+        <v>204.0</v>
       </c>
       <c r="D117" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>263.0</v>
+        <v>273.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>204.0</v>
+        <v>212.0</v>
       </c>
       <c r="D118" t="n">
-        <v>109.0</v>
+        <v>145.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>262.0</v>
+        <v>274.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>212.0</v>
+        <v>220.0</v>
       </c>
       <c r="D119" t="n">
-        <v>117.0</v>
+        <v>145.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>258.0</v>
+        <v>275.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
         <v>228.0</v>
       </c>
       <c r="D120" t="n">
-        <v>109.0</v>
+        <v>145.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>259.0</v>
+        <v>276.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
       <c r="D121" t="n">
-        <v>117.0</v>
+        <v>145.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>260.0</v>
+        <v>277.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>228.0</v>
+        <v>246.0</v>
       </c>
       <c r="D122" t="n">
-        <v>125.0</v>
+        <v>141.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>261.0</v>
+        <v>4.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>220.0</v>
+        <v>256.0</v>
       </c>
       <c r="D123" t="n">
-        <v>125.0</v>
+        <v>141.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>275.0</v>
+        <v>5.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>228.0</v>
+        <v>256.0</v>
       </c>
       <c r="D124" t="n">
-        <v>145.0</v>
+        <v>157.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>274.0</v>
+        <v>6.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>220.0</v>
+        <v>246.0</v>
       </c>
       <c r="D125" t="n">
-        <v>145.0</v>
+        <v>157.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>273.0</v>
+        <v>9.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>212.0</v>
+        <v>228.0</v>
       </c>
       <c r="D126" t="n">
-        <v>145.0</v>
+        <v>161.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>272.0</v>
+        <v>7.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>204.0</v>
+        <v>236.0</v>
       </c>
       <c r="D127" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>271.0</v>
+        <v>8.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>196.0</v>
+        <v>228.0</v>
       </c>
       <c r="D128" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>188.0</v>
+        <v>220.0</v>
       </c>
       <c r="D129" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>196.0</v>
+        <v>212.0</v>
       </c>
       <c r="D130" t="n">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>188.0</v>
+        <v>204.0</v>
       </c>
       <c r="D131" t="n">
         <v>169.0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -2293,7 +2293,7 @@
         <v>196.0</v>
       </c>
       <c r="D132" t="n">
-        <v>169.0</v>
+        <v>161.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>204.0</v>
+        <v>196.0</v>
       </c>
       <c r="D133" t="n">
         <v>169.0</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>212.0</v>
+        <v>188.0</v>
       </c>
       <c r="D134" t="n">
         <v>169.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.0</v>
+        <v>133.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>220.0</v>
+        <v>164.0</v>
       </c>
       <c r="D135" t="n">
-        <v>169.0</v>
+        <v>137.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.0</v>
+        <v>134.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>228.0</v>
+        <v>172.0</v>
       </c>
       <c r="D136" t="n">
-        <v>161.0</v>
+        <v>125.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8.0</v>
+        <v>270.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D137" t="n">
-        <v>169.0</v>
+        <v>125.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.0</v>
+        <v>135.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D138" t="n">
-        <v>169.0</v>
+        <v>117.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.0</v>
+        <v>269.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>246.0</v>
+        <v>180.0</v>
       </c>
       <c r="D139" t="n">
-        <v>157.0</v>
+        <v>117.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.0</v>
+        <v>268.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>256.0</v>
+        <v>180.0</v>
       </c>
       <c r="D140" t="n">
-        <v>157.0</v>
+        <v>109.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>276.0</v>
+        <v>136.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D141" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>277.0</v>
+        <v>137.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>246.0</v>
+        <v>172.0</v>
       </c>
       <c r="D142" t="n">
-        <v>141.0</v>
+        <v>101.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4.0</v>
+        <v>267.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>256.0</v>
+        <v>180.0</v>
       </c>
       <c r="D143" t="n">
-        <v>141.0</v>
+        <v>101.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>278.0</v>
+        <v>259.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>252.0</v>
+        <v>228.0</v>
       </c>
       <c r="D144" t="n">
-        <v>125.0</v>
+        <v>117.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>279.0</v>
+        <v>260.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>260.0</v>
+        <v>228.0</v>
       </c>
       <c r="D145" t="n">
-        <v>129.0</v>
+        <v>125.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.0</v>
+        <v>261.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>270.0</v>
+        <v>220.0</v>
       </c>
       <c r="D146" t="n">
-        <v>133.0</v>
+        <v>125.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>280.0</v>
+        <v>262.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>280.0</v>
+        <v>212.0</v>
       </c>
       <c r="D147" t="n">
-        <v>133.0</v>
+        <v>117.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.0</v>
+        <v>263.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>288.0</v>
+        <v>204.0</v>
       </c>
       <c r="D148" t="n">
-        <v>149.0</v>
+        <v>109.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.0</v>
+        <v>264.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>288.0</v>
+        <v>196.0</v>
       </c>
       <c r="D149" t="n">
-        <v>129.0</v>
+        <v>101.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>242.0</v>
+        <v>265.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>288.0</v>
+        <v>188.0</v>
       </c>
       <c r="D150" t="n">
-        <v>109.0</v>
+        <v>93.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>243.0</v>
+        <v>266.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>280.0</v>
+        <v>180.0</v>
       </c>
       <c r="D151" t="n">
-        <v>109.0</v>
+        <v>93.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>241.0</v>
+        <v>138.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>284.0</v>
+        <v>172.0</v>
       </c>
       <c r="D152" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>244.0</v>
+        <v>139.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>276.0</v>
+        <v>172.0</v>
       </c>
       <c r="D153" t="n">
-        <v>101.0</v>
+        <v>85.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>245.0</v>
+        <v>149.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>276.0</v>
+        <v>164.0</v>
       </c>
       <c r="D154" t="n">
-        <v>93.0</v>
+        <v>81.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>240.0</v>
+        <v>150.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>284.0</v>
+        <v>148.0</v>
       </c>
       <c r="D155" t="n">
-        <v>93.0</v>
+        <v>85.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>239.0</v>
+        <v>178.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>284.0</v>
+        <v>132.0</v>
       </c>
       <c r="D156" t="n">
-        <v>85.0</v>
+        <v>81.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>246.0</v>
+        <v>179.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>276.0</v>
+        <v>140.0</v>
       </c>
       <c r="D157" t="n">
-        <v>85.0</v>
+        <v>65.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>231.0</v>
+        <v>180.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>276.0</v>
+        <v>132.0</v>
       </c>
       <c r="D158" t="n">
-        <v>77.0</v>
+        <v>61.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>238.0</v>
+        <v>165.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D159" t="n">
-        <v>77.0</v>
+        <v>17.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>237.0</v>
+        <v>164.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D160" t="n">
-        <v>69.0</v>
+        <v>25.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>232.0</v>
+        <v>163.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D161" t="n">
-        <v>69.0</v>
+        <v>33.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>233.0</v>
+        <v>162.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D162" t="n">
-        <v>61.0</v>
+        <v>41.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>236.0</v>
+        <v>161.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D163" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>235.0</v>
+        <v>175.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D164" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>234.0</v>
+        <v>160.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D165" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>227.0</v>
+        <v>159.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D166" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>228.0</v>
+        <v>158.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D167" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>229.0</v>
+        <v>157.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D168" t="n">
-        <v>69.0</v>
+        <v>89.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>230.0</v>
+        <v>119.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D169" t="n">
-        <v>77.0</v>
+        <v>97.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>251.0</v>
+        <v>120.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D170" t="n">
-        <v>85.0</v>
+        <v>105.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>250.0</v>
+        <v>121.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D171" t="n">
-        <v>93.0</v>
+        <v>113.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>247.0</v>
+        <v>122.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>268.0</v>
+        <v>104.0</v>
       </c>
       <c r="D172" t="n">
-        <v>97.0</v>
+        <v>121.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>248.0</v>
+        <v>123.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D173" t="n">
-        <v>109.0</v>
+        <v>129.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>249.0</v>
+        <v>124.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>252.0</v>
+        <v>104.0</v>
       </c>
       <c r="D174" t="n">
-        <v>101.0</v>
+        <v>137.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>256.0</v>
+        <v>125.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D175" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>257.0</v>
+        <v>30.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D176" t="n">
-        <v>101.0</v>
+        <v>153.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>254.0</v>
+        <v>31.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D177" t="n">
-        <v>93.0</v>
+        <v>161.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>255.0</v>
+        <v>32.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D178" t="n">
-        <v>93.0</v>
+        <v>169.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>252.0</v>
+        <v>28.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D179" t="n">
-        <v>85.0</v>
+        <v>169.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>253.0</v>
+        <v>27.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D180" t="n">
-        <v>85.0</v>
+        <v>169.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.0</v>
+        <v>26.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>228.0</v>
+        <v>140.0</v>
       </c>
       <c r="D181" t="n">
-        <v>77.0</v>
+        <v>169.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.0</v>
+        <v>22.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>236.0</v>
+        <v>148.0</v>
       </c>
       <c r="D182" t="n">
-        <v>77.0</v>
+        <v>169.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>210.0</v>
+        <v>25.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>236.0</v>
+        <v>156.0</v>
       </c>
       <c r="D183" t="n">
-        <v>69.0</v>
+        <v>169.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>211.0</v>
+        <v>23.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>236.0</v>
+        <v>164.0</v>
       </c>
       <c r="D184" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>214.0</v>
+        <v>24.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D185" t="n">
-        <v>53.0</v>
+        <v>169.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>215.0</v>
+        <v>29.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>236.0</v>
+        <v>116.0</v>
       </c>
       <c r="D186" t="n">
-        <v>45.0</v>
+        <v>161.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>218.0</v>
+        <v>126.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>236.0</v>
+        <v>116.0</v>
       </c>
       <c r="D187" t="n">
-        <v>37.0</v>
+        <v>145.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>226.0</v>
+        <v>127.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>260.0</v>
+        <v>124.0</v>
       </c>
       <c r="D188" t="n">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>225.0</v>
+        <v>128.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>260.0</v>
+        <v>132.0</v>
       </c>
       <c r="D189" t="n">
-        <v>37.0</v>
+        <v>145.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>224.0</v>
+        <v>21.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>260.0</v>
+        <v>140.0</v>
       </c>
       <c r="D190" t="n">
-        <v>29.0</v>
+        <v>145.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>223.0</v>
+        <v>129.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>252.0</v>
+        <v>132.0</v>
       </c>
       <c r="D191" t="n">
-        <v>21.0</v>
+        <v>137.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>219.0</v>
+        <v>130.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>236.0</v>
+        <v>140.0</v>
       </c>
       <c r="D192" t="n">
-        <v>29.0</v>
+        <v>137.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.0</v>
+        <v>20.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>236.0</v>
+        <v>148.0</v>
       </c>
       <c r="D193" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>221.0</v>
+        <v>19.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>228.0</v>
+        <v>156.0</v>
       </c>
       <c r="D194" t="n">
-        <v>21.0</v>
+        <v>145.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>220.0</v>
+        <v>132.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>228.0</v>
+        <v>156.0</v>
       </c>
       <c r="D195" t="n">
-        <v>29.0</v>
+        <v>137.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>217.0</v>
+        <v>131.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>228.0</v>
+        <v>148.0</v>
       </c>
       <c r="D196" t="n">
-        <v>37.0</v>
+        <v>137.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>216.0</v>
+        <v>172.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>228.0</v>
+        <v>80.0</v>
       </c>
       <c r="D197" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>213.0</v>
+        <v>171.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>228.0</v>
+        <v>80.0</v>
       </c>
       <c r="D198" t="n">
-        <v>53.0</v>
+        <v>25.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>212.0</v>
+        <v>170.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>228.0</v>
+        <v>72.0</v>
       </c>
       <c r="D199" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>207.0</v>
+        <v>169.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>228.0</v>
+        <v>64.0</v>
       </c>
       <c r="D200" t="n">
-        <v>69.0</v>
+        <v>21.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>206.0</v>
+        <v>102.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>220.0</v>
+        <v>56.0</v>
       </c>
       <c r="D201" t="n">
-        <v>73.0</v>
+        <v>25.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>205.0</v>
+        <v>103.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>212.0</v>
+        <v>56.0</v>
       </c>
       <c r="D202" t="n">
-        <v>65.0</v>
+        <v>33.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>204.0</v>
+        <v>104.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>204.0</v>
+        <v>56.0</v>
       </c>
       <c r="D203" t="n">
-        <v>57.0</v>
+        <v>41.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203.0</v>
+        <v>108.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>196.0</v>
+        <v>56.0</v>
       </c>
       <c r="D204" t="n">
         <v>49.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>202.0</v>
+        <v>107.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>188.0</v>
+        <v>72.0</v>
       </c>
       <c r="D205" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>200.0</v>
+        <v>174.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>180.0</v>
+        <v>88.0</v>
       </c>
       <c r="D206" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>201.0</v>
+        <v>173.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>180.0</v>
+        <v>80.0</v>
       </c>
       <c r="D207" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>198.0</v>
+        <v>106.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>172.0</v>
+        <v>72.0</v>
       </c>
       <c r="D208" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>197.0</v>
+        <v>105.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>172.0</v>
+        <v>64.0</v>
       </c>
       <c r="D209" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>196.0</v>
+        <v>92.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>180.0</v>
+        <v>44.0</v>
       </c>
       <c r="D210" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>195.0</v>
+        <v>91.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>180.0</v>
+        <v>44.0</v>
       </c>
       <c r="D211" t="n">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>194.0</v>
+        <v>90.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>172.0</v>
+        <v>44.0</v>
       </c>
       <c r="D212" t="n">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>192.0</v>
+        <v>93.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>162.0</v>
+        <v>32.0</v>
       </c>
       <c r="D213" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>191.0</v>
+        <v>94.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>148.0</v>
+        <v>24.0</v>
       </c>
       <c r="D214" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>190.0</v>
+        <v>80.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>136.0</v>
+        <v>32.0</v>
       </c>
       <c r="D215" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>189.0</v>
+        <v>109.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>128.0</v>
+        <v>48.0</v>
       </c>
       <c r="D216" t="n">
-        <v>9.0</v>
+        <v>51.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>188.0</v>
+        <v>89.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>120.0</v>
+        <v>40.0</v>
       </c>
       <c r="D217" t="n">
-        <v>9.0</v>
+        <v>51.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>187.0</v>
+        <v>110.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>124.0</v>
+        <v>56.0</v>
       </c>
       <c r="D218" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>185.0</v>
+        <v>111.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>124.0</v>
+        <v>56.0</v>
       </c>
       <c r="D219" t="n">
-        <v>29.0</v>
+        <v>65.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>186.0</v>
+        <v>114.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>132.0</v>
+        <v>56.0</v>
       </c>
       <c r="D220" t="n">
-        <v>21.0</v>
+        <v>73.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>193.0</v>
+        <v>112.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>156.0</v>
+        <v>48.0</v>
       </c>
       <c r="D221" t="n">
-        <v>25.0</v>
+        <v>63.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>199.0</v>
+        <v>88.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D222" t="n">
-        <v>45.0</v>
+        <v>63.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>145.0</v>
+        <v>113.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D223" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>144.0</v>
+        <v>87.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D224" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>143.0</v>
+        <v>115.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D225" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>146.0</v>
+        <v>117.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D226" t="n">
-        <v>61.0</v>
+        <v>89.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>147.0</v>
+        <v>116.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D227" t="n">
-        <v>69.0</v>
+        <v>83.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>142.0</v>
+        <v>86.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D228" t="n">
-        <v>69.0</v>
+        <v>83.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>141.0</v>
+        <v>118.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D229" t="n">
-        <v>77.0</v>
+        <v>97.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>148.0</v>
+        <v>61.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D230" t="n">
-        <v>77.0</v>
+        <v>105.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>139.0</v>
+        <v>60.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D231" t="n">
-        <v>85.0</v>
+        <v>113.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>149.0</v>
+        <v>43.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>164.0</v>
+        <v>56.0</v>
       </c>
       <c r="D232" t="n">
-        <v>81.0</v>
+        <v>121.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>150.0</v>
+        <v>42.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>148.0</v>
+        <v>56.0</v>
       </c>
       <c r="D233" t="n">
-        <v>85.0</v>
+        <v>129.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>179.0</v>
+        <v>41.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>140.0</v>
+        <v>56.0</v>
       </c>
       <c r="D234" t="n">
-        <v>65.0</v>
+        <v>137.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>132.0</v>
+        <v>56.0</v>
       </c>
       <c r="D235" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>176.0</v>
+        <v>39.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>124.0</v>
+        <v>56.0</v>
       </c>
       <c r="D236" t="n">
-        <v>69.0</v>
+        <v>153.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>177.0</v>
+        <v>38.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>124.0</v>
+        <v>56.0</v>
       </c>
       <c r="D237" t="n">
-        <v>77.0</v>
+        <v>161.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>178.0</v>
+        <v>37.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>132.0</v>
+        <v>56.0</v>
       </c>
       <c r="D238" t="n">
-        <v>81.0</v>
+        <v>169.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>151.0</v>
+        <v>36.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>124.0</v>
+        <v>64.0</v>
       </c>
       <c r="D239" t="n">
-        <v>85.0</v>
+        <v>165.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>152.0</v>
+        <v>35.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>124.0</v>
+        <v>64.0</v>
       </c>
       <c r="D240" t="n">
-        <v>93.0</v>
+        <v>157.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>156.0</v>
+        <v>33.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>124.0</v>
+        <v>90.0</v>
       </c>
       <c r="D241" t="n">
-        <v>101.0</v>
+        <v>165.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>153.0</v>
+        <v>34.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>124.0</v>
+        <v>80.0</v>
       </c>
       <c r="D242" t="n">
-        <v>109.0</v>
+        <v>157.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>155.0</v>
+        <v>62.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>124.0</v>
+        <v>48.0</v>
       </c>
       <c r="D243" t="n">
-        <v>117.0</v>
+        <v>99.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>154.0</v>
+        <v>63.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>124.0</v>
+        <v>40.0</v>
       </c>
       <c r="D244" t="n">
-        <v>125.0</v>
+        <v>99.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>122.0</v>
+        <v>59.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D245" t="n">
-        <v>121.0</v>
+        <v>113.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D246" t="n">
         <v>121.0</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>113.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>120.0</v>
+        <v>45.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D247" t="n">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>119.0</v>
+        <v>46.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D248" t="n">
-        <v>97.0</v>
+        <v>137.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>157.0</v>
+        <v>47.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D249" t="n">
-        <v>89.0</v>
+        <v>145.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>158.0</v>
+        <v>48.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D250" t="n">
-        <v>81.0</v>
+        <v>153.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>159.0</v>
+        <v>49.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D251" t="n">
-        <v>73.0</v>
+        <v>161.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>160.0</v>
+        <v>50.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>104.0</v>
+        <v>40.0</v>
       </c>
       <c r="D252" t="n">
-        <v>65.0</v>
+        <v>169.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>181.0</v>
+        <v>51.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D253" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>182.0</v>
+        <v>52.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D254" t="n">
-        <v>53.0</v>
+        <v>161.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>183.0</v>
+        <v>53.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D255" t="n">
-        <v>45.0</v>
+        <v>153.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>184.0</v>
+        <v>54.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D256" t="n">
-        <v>37.0</v>
+        <v>145.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>175.0</v>
+        <v>55.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D257" t="n">
-        <v>57.0</v>
+        <v>137.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>161.0</v>
+        <v>56.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D258" t="n">
-        <v>49.0</v>
+        <v>129.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>162.0</v>
+        <v>57.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D259" t="n">
-        <v>41.0</v>
+        <v>121.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>163.0</v>
+        <v>58.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D260" t="n">
-        <v>33.0</v>
+        <v>113.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>164.0</v>
+        <v>64.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D261" t="n">
-        <v>25.0</v>
+        <v>97.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>165.0</v>
+        <v>65.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D262" t="n">
-        <v>17.0</v>
+        <v>89.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>166.0</v>
+        <v>85.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>92.0</v>
+        <v>32.0</v>
       </c>
       <c r="D263" t="n">
-        <v>9.0</v>
+        <v>81.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>167.0</v>
+        <v>84.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>80.0</v>
+        <v>32.0</v>
       </c>
       <c r="D264" t="n">
-        <v>9.0</v>
+        <v>73.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>168.0</v>
+        <v>83.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>72.0</v>
+        <v>32.0</v>
       </c>
       <c r="D265" t="n">
-        <v>9.0</v>
+        <v>65.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>169.0</v>
+        <v>82.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="D266" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>170.0</v>
+        <v>81.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>72.0</v>
+        <v>32.0</v>
       </c>
       <c r="D267" t="n">
-        <v>25.0</v>
+        <v>49.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>172.0</v>
+        <v>79.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>80.0</v>
+        <v>24.0</v>
       </c>
       <c r="D268" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>171.0</v>
+        <v>76.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>80.0</v>
+        <v>16.0</v>
       </c>
       <c r="D269" t="n">
-        <v>25.0</v>
+        <v>57.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>173.0</v>
+        <v>66.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>80.0</v>
+        <v>24.0</v>
       </c>
       <c r="D270" t="n">
-        <v>41.0</v>
+        <v>89.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>174.0</v>
+        <v>67.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>88.0</v>
+        <v>16.0</v>
       </c>
       <c r="D271" t="n">
-        <v>49.0</v>
+        <v>97.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>107.0</v>
+        <v>68.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>72.0</v>
+        <v>16.0</v>
       </c>
       <c r="D272" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>106.0</v>
+        <v>69.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>72.0</v>
+        <v>8.0</v>
       </c>
       <c r="D273" t="n">
-        <v>41.0</v>
+        <v>109.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>105.0</v>
+        <v>70.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>64.0</v>
+        <v>8.0</v>
       </c>
       <c r="D274" t="n">
-        <v>41.0</v>
+        <v>97.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>104.0</v>
+        <v>71.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D275" t="n">
-        <v>41.0</v>
+        <v>89.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>103.0</v>
+        <v>72.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D276" t="n">
-        <v>33.0</v>
+        <v>81.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>102.0</v>
+        <v>73.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D277" t="n">
-        <v>25.0</v>
+        <v>73.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>101.0</v>
+        <v>74.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D278" t="n">
-        <v>17.0</v>
+        <v>65.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D279" t="n">
-        <v>9.0</v>
+        <v>57.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>99.0</v>
+        <v>77.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="D280" t="n">
-        <v>11.0</v>
+        <v>49.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>92.0</v>
+        <v>78.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="D281" t="n">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="D282" t="n">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="D283" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -85,7 +85,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3320.119873046875</v>
+        <v>3029.01318359375</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3320.119873046875</v>
+        <v>3029.01318359375</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,13 +125,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
         <v>17.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.0</v>
+        <v>95.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168.0</v>
+        <v>98.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>167.0</v>
+        <v>99.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.0</v>
+        <v>44.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,13 +227,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>166.0</v>
+        <v>100.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>56.0</v>
       </c>
       <c r="D11" t="n">
         <v>9.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>188.0</v>
+        <v>101.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>120.0</v>
+        <v>56.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>189.0</v>
+        <v>102.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0</v>
+        <v>56.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>190.0</v>
+        <v>103.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>136.0</v>
+        <v>56.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>191.0</v>
+        <v>92.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.0</v>
+        <v>44.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192.0</v>
+        <v>91.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0</v>
+        <v>44.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>194.0</v>
+        <v>90.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>172.0</v>
+        <v>44.0</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.0</v>
+        <v>80.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>196.0</v>
+        <v>79.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>180.0</v>
+        <v>24.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201.0</v>
+        <v>81.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>180.0</v>
+        <v>32.0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>197.0</v>
+        <v>89.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.0</v>
+        <v>51.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>198.0</v>
+        <v>82.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>199.0</v>
+        <v>83.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>145.0</v>
+        <v>88.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D24" t="n">
-        <v>53.0</v>
+        <v>63.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>146.0</v>
+        <v>87.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.0</v>
+        <v>73.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>147.0</v>
+        <v>84.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D26" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148.0</v>
+        <v>85.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D27" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>140.0</v>
+        <v>86.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>180.0</v>
+        <v>40.0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.0</v>
+        <v>83.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>141.0</v>
+        <v>116.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D29" t="n">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>142.0</v>
+        <v>113.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>143.0</v>
+        <v>117.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.0</v>
+        <v>89.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>144.0</v>
+        <v>115.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D32" t="n">
-        <v>53.0</v>
+        <v>81.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>200.0</v>
+        <v>114.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D33" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>221.0</v>
+        <v>112.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>228.0</v>
+        <v>48.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.0</v>
+        <v>63.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>222.0</v>
+        <v>111.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>236.0</v>
+        <v>56.0</v>
       </c>
       <c r="D35" t="n">
-        <v>21.0</v>
+        <v>65.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>223.0</v>
+        <v>110.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0</v>
+        <v>56.0</v>
       </c>
       <c r="D36" t="n">
-        <v>21.0</v>
+        <v>57.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>224.0</v>
+        <v>109.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>260.0</v>
+        <v>48.0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>51.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>225.0</v>
+        <v>108.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>226.0</v>
+        <v>104.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D39" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>227.0</v>
+        <v>105.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>260.0</v>
+        <v>64.0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228.0</v>
+        <v>106.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>260.0</v>
+        <v>72.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>41.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229.0</v>
+        <v>107.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>260.0</v>
+        <v>72.0</v>
       </c>
       <c r="D42" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>230.0</v>
+        <v>174.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>260.0</v>
+        <v>88.0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251.0</v>
+        <v>173.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>260.0</v>
+        <v>80.0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.0</v>
+        <v>41.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250.0</v>
+        <v>172.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>260.0</v>
+        <v>80.0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.0</v>
+        <v>25.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>247.0</v>
+        <v>171.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>268.0</v>
+        <v>80.0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.0</v>
+        <v>25.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243.0</v>
+        <v>170.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>280.0</v>
+        <v>72.0</v>
       </c>
       <c r="D47" t="n">
-        <v>109.0</v>
+        <v>25.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>242.0</v>
+        <v>169.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>288.0</v>
+        <v>64.0</v>
       </c>
       <c r="D48" t="n">
-        <v>109.0</v>
+        <v>21.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>241.0</v>
+        <v>168.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>284.0</v>
+        <v>72.0</v>
       </c>
       <c r="D49" t="n">
-        <v>101.0</v>
+        <v>9.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244.0</v>
+        <v>167.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>276.0</v>
+        <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>101.0</v>
+        <v>9.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245.0</v>
+        <v>166.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>276.0</v>
+        <v>92.0</v>
       </c>
       <c r="D51" t="n">
-        <v>93.0</v>
+        <v>9.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>240.0</v>
+        <v>165.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D52" t="n">
-        <v>93.0</v>
+        <v>17.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>239.0</v>
+        <v>164.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D53" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>246.0</v>
+        <v>163.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D54" t="n">
-        <v>85.0</v>
+        <v>33.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>231.0</v>
+        <v>162.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D55" t="n">
-        <v>77.0</v>
+        <v>41.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>238.0</v>
+        <v>161.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D56" t="n">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>237.0</v>
+        <v>175.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D57" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>232.0</v>
+        <v>160.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D58" t="n">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>233.0</v>
+        <v>159.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D59" t="n">
-        <v>61.0</v>
+        <v>73.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>236.0</v>
+        <v>158.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D60" t="n">
-        <v>61.0</v>
+        <v>81.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235.0</v>
+        <v>157.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D61" t="n">
-        <v>53.0</v>
+        <v>89.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>234.0</v>
+        <v>119.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D62" t="n">
-        <v>53.0</v>
+        <v>97.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>219.0</v>
+        <v>120.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D63" t="n">
-        <v>29.0</v>
+        <v>105.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>218.0</v>
+        <v>121.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D64" t="n">
-        <v>37.0</v>
+        <v>113.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>220.0</v>
+        <v>122.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D65" t="n">
-        <v>29.0</v>
+        <v>121.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>217.0</v>
+        <v>123.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D66" t="n">
-        <v>37.0</v>
+        <v>129.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>215.0</v>
+        <v>124.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D67" t="n">
-        <v>45.0</v>
+        <v>137.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>214.0</v>
+        <v>154.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D68" t="n">
-        <v>53.0</v>
+        <v>125.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>216.0</v>
+        <v>155.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D69" t="n">
-        <v>45.0</v>
+        <v>117.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>213.0</v>
+        <v>153.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D70" t="n">
-        <v>53.0</v>
+        <v>109.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>211.0</v>
+        <v>156.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D71" t="n">
-        <v>61.0</v>
+        <v>101.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>210.0</v>
+        <v>152.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D72" t="n">
-        <v>69.0</v>
+        <v>93.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>212.0</v>
+        <v>151.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D73" t="n">
-        <v>61.0</v>
+        <v>85.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>207.0</v>
+        <v>177.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D74" t="n">
-        <v>69.0</v>
+        <v>77.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>209.0</v>
+        <v>176.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D75" t="n">
-        <v>77.0</v>
+        <v>69.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>208.0</v>
+        <v>178.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D76" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253.0</v>
+        <v>150.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>228.0</v>
+        <v>148.0</v>
       </c>
       <c r="D77" t="n">
         <v>85.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.0</v>
+        <v>181.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D78" t="n">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>257.0</v>
+        <v>182.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D79" t="n">
-        <v>101.0</v>
+        <v>53.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>258.0</v>
+        <v>183.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D80" t="n">
-        <v>109.0</v>
+        <v>45.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>256.0</v>
+        <v>184.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="D81" t="n">
-        <v>101.0</v>
+        <v>37.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278.0</v>
+        <v>185.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>252.0</v>
+        <v>124.0</v>
       </c>
       <c r="D82" t="n">
-        <v>125.0</v>
+        <v>29.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>279.0</v>
+        <v>187.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>260.0</v>
+        <v>124.0</v>
       </c>
       <c r="D83" t="n">
-        <v>129.0</v>
+        <v>21.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.0</v>
+        <v>188.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>270.0</v>
+        <v>120.0</v>
       </c>
       <c r="D84" t="n">
-        <v>133.0</v>
+        <v>9.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>280.0</v>
+        <v>189.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>280.0</v>
+        <v>128.0</v>
       </c>
       <c r="D85" t="n">
-        <v>133.0</v>
+        <v>9.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.0</v>
+        <v>190.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>288.0</v>
+        <v>136.0</v>
       </c>
       <c r="D86" t="n">
-        <v>149.0</v>
+        <v>9.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.0</v>
+        <v>191.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>288.0</v>
+        <v>148.0</v>
       </c>
       <c r="D87" t="n">
-        <v>129.0</v>
+        <v>9.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>248.0</v>
+        <v>192.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>260.0</v>
+        <v>162.0</v>
       </c>
       <c r="D88" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>249.0</v>
+        <v>195.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>252.0</v>
+        <v>180.0</v>
       </c>
       <c r="D89" t="n">
-        <v>101.0</v>
+        <v>21.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255.0</v>
+        <v>196.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>236.0</v>
+        <v>180.0</v>
       </c>
       <c r="D90" t="n">
-        <v>93.0</v>
+        <v>29.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252.0</v>
+        <v>201.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>236.0</v>
+        <v>180.0</v>
       </c>
       <c r="D91" t="n">
-        <v>85.0</v>
+        <v>37.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>206.0</v>
+        <v>200.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>220.0</v>
+        <v>180.0</v>
       </c>
       <c r="D92" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>205.0</v>
+        <v>199.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>212.0</v>
+        <v>172.0</v>
       </c>
       <c r="D93" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>204.0</v>
+        <v>198.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>204.0</v>
+        <v>172.0</v>
       </c>
       <c r="D94" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>203.0</v>
+        <v>197.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>196.0</v>
+        <v>172.0</v>
       </c>
       <c r="D95" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.0</v>
+        <v>194.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>188.0</v>
+        <v>172.0</v>
       </c>
       <c r="D96" t="n">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>187.0</v>
+        <v>180.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>124.0</v>
+        <v>132.0</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0</v>
+        <v>61.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>185.0</v>
+        <v>179.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>124.0</v>
+        <v>140.0</v>
       </c>
       <c r="D100" t="n">
-        <v>29.0</v>
+        <v>65.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>184.0</v>
+        <v>146.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D101" t="n">
-        <v>37.0</v>
+        <v>61.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>183.0</v>
+        <v>145.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D102" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182.0</v>
+        <v>143.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D103" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>181.0</v>
+        <v>144.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D104" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>176.0</v>
+        <v>202.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>124.0</v>
+        <v>188.0</v>
       </c>
       <c r="D105" t="n">
-        <v>69.0</v>
+        <v>41.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0</v>
+        <v>203.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>124.0</v>
+        <v>196.0</v>
       </c>
       <c r="D106" t="n">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>151.0</v>
+        <v>204.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>124.0</v>
+        <v>204.0</v>
       </c>
       <c r="D107" t="n">
-        <v>85.0</v>
+        <v>57.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>152.0</v>
+        <v>205.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>124.0</v>
+        <v>212.0</v>
       </c>
       <c r="D108" t="n">
-        <v>93.0</v>
+        <v>65.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>156.0</v>
+        <v>206.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>124.0</v>
+        <v>220.0</v>
       </c>
       <c r="D109" t="n">
-        <v>101.0</v>
+        <v>73.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>153.0</v>
+        <v>208.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D110" t="n">
-        <v>109.0</v>
+        <v>77.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>155.0</v>
+        <v>253.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D111" t="n">
-        <v>117.0</v>
+        <v>85.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>154.0</v>
+        <v>254.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D112" t="n">
-        <v>125.0</v>
+        <v>93.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>18.0</v>
+        <v>255.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>164.0</v>
+        <v>236.0</v>
       </c>
       <c r="D113" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17.0</v>
+        <v>252.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D114" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.0</v>
+        <v>209.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>188.0</v>
+        <v>236.0</v>
       </c>
       <c r="D115" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>271.0</v>
+        <v>207.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>196.0</v>
+        <v>228.0</v>
       </c>
       <c r="D116" t="n">
-        <v>145.0</v>
+        <v>69.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>272.0</v>
+        <v>212.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>204.0</v>
+        <v>228.0</v>
       </c>
       <c r="D117" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>273.0</v>
+        <v>210.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>212.0</v>
+        <v>236.0</v>
       </c>
       <c r="D118" t="n">
-        <v>145.0</v>
+        <v>69.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>274.0</v>
+        <v>211.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>220.0</v>
+        <v>236.0</v>
       </c>
       <c r="D119" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>275.0</v>
+        <v>213.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
         <v>228.0</v>
       </c>
       <c r="D120" t="n">
-        <v>145.0</v>
+        <v>53.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>276.0</v>
+        <v>216.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D121" t="n">
-        <v>145.0</v>
+        <v>45.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>277.0</v>
+        <v>217.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>246.0</v>
+        <v>228.0</v>
       </c>
       <c r="D122" t="n">
-        <v>141.0</v>
+        <v>37.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.0</v>
+        <v>220.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>256.0</v>
+        <v>228.0</v>
       </c>
       <c r="D123" t="n">
-        <v>141.0</v>
+        <v>29.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.0</v>
+        <v>221.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>256.0</v>
+        <v>228.0</v>
       </c>
       <c r="D124" t="n">
-        <v>157.0</v>
+        <v>21.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.0</v>
+        <v>222.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>246.0</v>
+        <v>236.0</v>
       </c>
       <c r="D125" t="n">
-        <v>157.0</v>
+        <v>21.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.0</v>
+        <v>219.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
       <c r="D126" t="n">
-        <v>161.0</v>
+        <v>29.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.0</v>
+        <v>218.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -2208,7 +2208,7 @@
         <v>236.0</v>
       </c>
       <c r="D127" t="n">
-        <v>169.0</v>
+        <v>37.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.0</v>
+        <v>214.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
       <c r="D128" t="n">
-        <v>169.0</v>
+        <v>53.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.0</v>
+        <v>215.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>220.0</v>
+        <v>236.0</v>
       </c>
       <c r="D129" t="n">
-        <v>169.0</v>
+        <v>45.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>11.0</v>
+        <v>223.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>212.0</v>
+        <v>252.0</v>
       </c>
       <c r="D130" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.0</v>
+        <v>224.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>204.0</v>
+        <v>260.0</v>
       </c>
       <c r="D131" t="n">
-        <v>169.0</v>
+        <v>29.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>15.0</v>
+        <v>225.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>196.0</v>
+        <v>260.0</v>
       </c>
       <c r="D132" t="n">
-        <v>161.0</v>
+        <v>37.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>13.0</v>
+        <v>226.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>196.0</v>
+        <v>260.0</v>
       </c>
       <c r="D133" t="n">
-        <v>169.0</v>
+        <v>45.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14.0</v>
+        <v>227.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>188.0</v>
+        <v>260.0</v>
       </c>
       <c r="D134" t="n">
-        <v>169.0</v>
+        <v>53.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133.0</v>
+        <v>228.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>164.0</v>
+        <v>260.0</v>
       </c>
       <c r="D135" t="n">
-        <v>137.0</v>
+        <v>61.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>134.0</v>
+        <v>229.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
       <c r="D136" t="n">
-        <v>125.0</v>
+        <v>69.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>270.0</v>
+        <v>230.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>180.0</v>
+        <v>260.0</v>
       </c>
       <c r="D137" t="n">
-        <v>125.0</v>
+        <v>77.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>135.0</v>
+        <v>234.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
       <c r="D138" t="n">
-        <v>117.0</v>
+        <v>53.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>269.0</v>
+        <v>235.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>180.0</v>
+        <v>284.0</v>
       </c>
       <c r="D139" t="n">
-        <v>117.0</v>
+        <v>53.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>268.0</v>
+        <v>236.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>180.0</v>
+        <v>284.0</v>
       </c>
       <c r="D140" t="n">
-        <v>109.0</v>
+        <v>61.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.0</v>
+        <v>237.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>172.0</v>
+        <v>284.0</v>
       </c>
       <c r="D141" t="n">
-        <v>109.0</v>
+        <v>69.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>137.0</v>
+        <v>233.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
       <c r="D142" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>267.0</v>
+        <v>232.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>180.0</v>
+        <v>276.0</v>
       </c>
       <c r="D143" t="n">
-        <v>101.0</v>
+        <v>69.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>259.0</v>
+        <v>231.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>228.0</v>
+        <v>276.0</v>
       </c>
       <c r="D144" t="n">
-        <v>117.0</v>
+        <v>77.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>260.0</v>
+        <v>246.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>228.0</v>
+        <v>276.0</v>
       </c>
       <c r="D145" t="n">
-        <v>125.0</v>
+        <v>85.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>261.0</v>
+        <v>238.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>220.0</v>
+        <v>284.0</v>
       </c>
       <c r="D146" t="n">
-        <v>125.0</v>
+        <v>77.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>262.0</v>
+        <v>239.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>212.0</v>
+        <v>284.0</v>
       </c>
       <c r="D147" t="n">
-        <v>117.0</v>
+        <v>85.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>263.0</v>
+        <v>240.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>204.0</v>
+        <v>284.0</v>
       </c>
       <c r="D148" t="n">
-        <v>109.0</v>
+        <v>93.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>264.0</v>
+        <v>245.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>196.0</v>
+        <v>276.0</v>
       </c>
       <c r="D149" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>265.0</v>
+        <v>251.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>188.0</v>
+        <v>260.0</v>
       </c>
       <c r="D150" t="n">
-        <v>93.0</v>
+        <v>85.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>266.0</v>
+        <v>250.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>180.0</v>
+        <v>260.0</v>
       </c>
       <c r="D151" t="n">
         <v>93.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>138.0</v>
+        <v>247.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>172.0</v>
+        <v>268.0</v>
       </c>
       <c r="D152" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>139.0</v>
+        <v>244.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>172.0</v>
+        <v>276.0</v>
       </c>
       <c r="D153" t="n">
-        <v>85.0</v>
+        <v>101.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>149.0</v>
+        <v>241.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>164.0</v>
+        <v>284.0</v>
       </c>
       <c r="D154" t="n">
-        <v>81.0</v>
+        <v>101.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150.0</v>
+        <v>242.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>148.0</v>
+        <v>288.0</v>
       </c>
       <c r="D155" t="n">
-        <v>85.0</v>
+        <v>109.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>178.0</v>
+        <v>243.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>132.0</v>
+        <v>280.0</v>
       </c>
       <c r="D156" t="n">
-        <v>81.0</v>
+        <v>109.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>179.0</v>
+        <v>248.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
       <c r="D157" t="n">
-        <v>65.0</v>
+        <v>109.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>180.0</v>
+        <v>249.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>132.0</v>
+        <v>252.0</v>
       </c>
       <c r="D158" t="n">
-        <v>61.0</v>
+        <v>101.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>165.0</v>
+        <v>256.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D159" t="n">
-        <v>17.0</v>
+        <v>101.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>164.0</v>
+        <v>257.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D160" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>163.0</v>
+        <v>258.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D161" t="n">
-        <v>33.0</v>
+        <v>109.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.0</v>
+        <v>259.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D162" t="n">
-        <v>41.0</v>
+        <v>117.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>161.0</v>
+        <v>263.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="D163" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>175.0</v>
+        <v>262.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="D164" t="n">
-        <v>57.0</v>
+        <v>117.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160.0</v>
+        <v>261.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>104.0</v>
+        <v>220.0</v>
       </c>
       <c r="D165" t="n">
-        <v>65.0</v>
+        <v>125.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>159.0</v>
+        <v>260.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D166" t="n">
-        <v>73.0</v>
+        <v>125.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>158.0</v>
+        <v>278.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>104.0</v>
+        <v>252.0</v>
       </c>
       <c r="D167" t="n">
-        <v>81.0</v>
+        <v>125.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>157.0</v>
+        <v>279.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>104.0</v>
+        <v>260.0</v>
       </c>
       <c r="D168" t="n">
-        <v>89.0</v>
+        <v>129.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>119.0</v>
+        <v>4.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>104.0</v>
+        <v>256.0</v>
       </c>
       <c r="D169" t="n">
-        <v>97.0</v>
+        <v>141.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>120.0</v>
+        <v>277.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>104.0</v>
+        <v>246.0</v>
       </c>
       <c r="D170" t="n">
-        <v>105.0</v>
+        <v>141.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>121.0</v>
+        <v>6.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>104.0</v>
+        <v>246.0</v>
       </c>
       <c r="D171" t="n">
-        <v>113.0</v>
+        <v>157.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>122.0</v>
+        <v>9.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D172" t="n">
-        <v>121.0</v>
+        <v>161.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>123.0</v>
+        <v>276.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D173" t="n">
-        <v>129.0</v>
+        <v>145.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>124.0</v>
+        <v>275.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D174" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>125.0</v>
+        <v>274.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>104.0</v>
+        <v>220.0</v>
       </c>
       <c r="D175" t="n">
         <v>145.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>30.0</v>
+        <v>273.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="D176" t="n">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>31.0</v>
+        <v>272.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>104.0</v>
+        <v>204.0</v>
       </c>
       <c r="D177" t="n">
-        <v>161.0</v>
+        <v>145.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>32.0</v>
+        <v>271.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>104.0</v>
+        <v>196.0</v>
       </c>
       <c r="D178" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>16.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>124.0</v>
+        <v>188.0</v>
       </c>
       <c r="D179" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>132.0</v>
+        <v>172.0</v>
       </c>
       <c r="D180" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>140.0</v>
+        <v>164.0</v>
       </c>
       <c r="D181" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22.0</v>
+        <v>133.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>148.0</v>
+        <v>164.0</v>
       </c>
       <c r="D182" t="n">
-        <v>169.0</v>
+        <v>137.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25.0</v>
+        <v>134.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>156.0</v>
+        <v>172.0</v>
       </c>
       <c r="D183" t="n">
-        <v>169.0</v>
+        <v>125.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23.0</v>
+        <v>135.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>164.0</v>
+        <v>172.0</v>
       </c>
       <c r="D184" t="n">
-        <v>169.0</v>
+        <v>117.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>24.0</v>
+        <v>136.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -3194,7 +3194,7 @@
         <v>172.0</v>
       </c>
       <c r="D185" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29.0</v>
+        <v>137.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>116.0</v>
+        <v>172.0</v>
       </c>
       <c r="D186" t="n">
-        <v>161.0</v>
+        <v>101.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>126.0</v>
+        <v>138.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>116.0</v>
+        <v>172.0</v>
       </c>
       <c r="D187" t="n">
-        <v>145.0</v>
+        <v>93.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>127.0</v>
+        <v>139.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D188" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>128.0</v>
+        <v>149.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>132.0</v>
+        <v>164.0</v>
       </c>
       <c r="D189" t="n">
-        <v>145.0</v>
+        <v>81.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.0</v>
+        <v>148.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>140.0</v>
+        <v>172.0</v>
       </c>
       <c r="D190" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>129.0</v>
+        <v>147.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>132.0</v>
+        <v>172.0</v>
       </c>
       <c r="D191" t="n">
-        <v>137.0</v>
+        <v>69.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>130.0</v>
+        <v>142.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
       <c r="D192" t="n">
-        <v>137.0</v>
+        <v>69.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>20.0</v>
+        <v>141.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>148.0</v>
+        <v>180.0</v>
       </c>
       <c r="D193" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>19.0</v>
+        <v>140.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>156.0</v>
+        <v>180.0</v>
       </c>
       <c r="D194" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132.0</v>
+        <v>266.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>156.0</v>
+        <v>180.0</v>
       </c>
       <c r="D195" t="n">
-        <v>137.0</v>
+        <v>93.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>131.0</v>
+        <v>265.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>148.0</v>
+        <v>188.0</v>
       </c>
       <c r="D196" t="n">
-        <v>137.0</v>
+        <v>93.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>172.0</v>
+        <v>264.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>80.0</v>
+        <v>196.0</v>
       </c>
       <c r="D197" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>171.0</v>
+        <v>267.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>80.0</v>
+        <v>180.0</v>
       </c>
       <c r="D198" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>170.0</v>
+        <v>268.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>72.0</v>
+        <v>180.0</v>
       </c>
       <c r="D199" t="n">
-        <v>25.0</v>
+        <v>109.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>169.0</v>
+        <v>269.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>64.0</v>
+        <v>180.0</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0</v>
+        <v>117.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>102.0</v>
+        <v>270.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D201" t="n">
-        <v>25.0</v>
+        <v>125.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>103.0</v>
+        <v>132.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>56.0</v>
+        <v>156.0</v>
       </c>
       <c r="D202" t="n">
-        <v>33.0</v>
+        <v>137.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104.0</v>
+        <v>131.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>56.0</v>
+        <v>148.0</v>
       </c>
       <c r="D203" t="n">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>108.0</v>
+        <v>21.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>56.0</v>
+        <v>140.0</v>
       </c>
       <c r="D204" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>107.0</v>
+        <v>20.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>72.0</v>
+        <v>148.0</v>
       </c>
       <c r="D205" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>174.0</v>
+        <v>19.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>88.0</v>
+        <v>156.0</v>
       </c>
       <c r="D206" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>173.0</v>
+        <v>130.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>80.0</v>
+        <v>140.0</v>
       </c>
       <c r="D207" t="n">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>106.0</v>
+        <v>129.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>72.0</v>
+        <v>132.0</v>
       </c>
       <c r="D208" t="n">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105.0</v>
+        <v>128.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>64.0</v>
+        <v>132.0</v>
       </c>
       <c r="D209" t="n">
-        <v>41.0</v>
+        <v>145.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>92.0</v>
+        <v>127.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>44.0</v>
+        <v>124.0</v>
       </c>
       <c r="D210" t="n">
-        <v>27.0</v>
+        <v>145.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>91.0</v>
+        <v>126.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>44.0</v>
+        <v>116.0</v>
       </c>
       <c r="D211" t="n">
-        <v>35.0</v>
+        <v>145.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>90.0</v>
+        <v>125.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>44.0</v>
+        <v>104.0</v>
       </c>
       <c r="D212" t="n">
-        <v>43.0</v>
+        <v>145.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>93.0</v>
+        <v>30.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D213" t="n">
-        <v>25.0</v>
+        <v>153.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>94.0</v>
+        <v>31.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>24.0</v>
+        <v>104.0</v>
       </c>
       <c r="D214" t="n">
-        <v>25.0</v>
+        <v>161.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C215" t="n">
         <v>80.0</v>
       </c>
-      <c r="B215" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>32.0</v>
-      </c>
       <c r="D215" t="n">
-        <v>41.0</v>
+        <v>157.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>109.0</v>
+        <v>35.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>48.0</v>
+        <v>64.0</v>
       </c>
       <c r="D216" t="n">
-        <v>51.0</v>
+        <v>157.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>89.0</v>
+        <v>48.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -3738,7 +3738,7 @@
         <v>40.0</v>
       </c>
       <c r="D217" t="n">
-        <v>51.0</v>
+        <v>153.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>110.0</v>
+        <v>53.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D218" t="n">
-        <v>57.0</v>
+        <v>153.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>111.0</v>
+        <v>54.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D219" t="n">
-        <v>65.0</v>
+        <v>145.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>114.0</v>
+        <v>55.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D220" t="n">
-        <v>73.0</v>
+        <v>137.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>112.0</v>
+        <v>47.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D221" t="n">
-        <v>63.0</v>
+        <v>145.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>88.0</v>
+        <v>46.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -3823,7 +3823,7 @@
         <v>40.0</v>
       </c>
       <c r="D222" t="n">
-        <v>63.0</v>
+        <v>137.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>113.0</v>
+        <v>56.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="D223" t="n">
-        <v>73.0</v>
+        <v>129.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>87.0</v>
+        <v>57.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="D224" t="n">
-        <v>73.0</v>
+        <v>121.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>115.0</v>
+        <v>58.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D225" t="n">
-        <v>81.0</v>
+        <v>113.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>117.0</v>
+        <v>59.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D226" t="n">
-        <v>89.0</v>
+        <v>113.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>116.0</v>
+        <v>45.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D227" t="n">
-        <v>83.0</v>
+        <v>129.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>86.0</v>
+        <v>44.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -3925,7 +3925,7 @@
         <v>40.0</v>
       </c>
       <c r="D228" t="n">
-        <v>83.0</v>
+        <v>121.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,13 +3933,13 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>118.0</v>
+        <v>64.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D229" t="n">
         <v>97.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>56.0</v>
+        <v>16.0</v>
       </c>
       <c r="D230" t="n">
-        <v>105.0</v>
+        <v>109.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D231" t="n">
-        <v>113.0</v>
+        <v>109.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.0</v>
+        <v>70.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D232" t="n">
-        <v>121.0</v>
+        <v>97.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>42.0</v>
+        <v>71.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D233" t="n">
-        <v>129.0</v>
+        <v>89.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>41.0</v>
+        <v>72.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D234" t="n">
-        <v>137.0</v>
+        <v>81.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>40.0</v>
+        <v>73.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D235" t="n">
-        <v>145.0</v>
+        <v>73.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>39.0</v>
+        <v>74.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D236" t="n">
-        <v>153.0</v>
+        <v>65.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>38.0</v>
+        <v>75.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D237" t="n">
-        <v>161.0</v>
+        <v>57.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>37.0</v>
+        <v>77.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="D238" t="n">
-        <v>169.0</v>
+        <v>49.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>36.0</v>
+        <v>78.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>64.0</v>
+        <v>8.0</v>
       </c>
       <c r="D239" t="n">
-        <v>165.0</v>
+        <v>41.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>35.0</v>
+        <v>76.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>64.0</v>
+        <v>16.0</v>
       </c>
       <c r="D240" t="n">
-        <v>157.0</v>
+        <v>57.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>33.0</v>
+        <v>67.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>90.0</v>
+        <v>16.0</v>
       </c>
       <c r="D241" t="n">
-        <v>165.0</v>
+        <v>97.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>34.0</v>
+        <v>66.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>80.0</v>
+        <v>24.0</v>
       </c>
       <c r="D242" t="n">
-        <v>157.0</v>
+        <v>89.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="D243" t="n">
-        <v>99.0</v>
+        <v>89.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="D245" t="n">
-        <v>113.0</v>
+        <v>99.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>44.0</v>
+        <v>118.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D246" t="n">
-        <v>121.0</v>
+        <v>97.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>45.0</v>
+        <v>61.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D247" t="n">
-        <v>129.0</v>
+        <v>105.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D248" t="n">
-        <v>137.0</v>
+        <v>113.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D249" t="n">
-        <v>145.0</v>
+        <v>121.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D250" t="n">
-        <v>153.0</v>
+        <v>129.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D251" t="n">
-        <v>161.0</v>
+        <v>137.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D252" t="n">
-        <v>169.0</v>
+        <v>145.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D253" t="n">
-        <v>169.0</v>
+        <v>153.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>52.0</v>
+        <v>38.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D254" t="n">
         <v>161.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D255" t="n">
-        <v>153.0</v>
+        <v>161.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -4401,7 +4401,7 @@
         <v>32.0</v>
       </c>
       <c r="D256" t="n">
-        <v>145.0</v>
+        <v>161.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55.0</v>
+        <v>51.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -4418,7 +4418,7 @@
         <v>32.0</v>
       </c>
       <c r="D257" t="n">
-        <v>137.0</v>
+        <v>169.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D258" t="n">
-        <v>129.0</v>
+        <v>169.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D259" t="n">
-        <v>121.0</v>
+        <v>169.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>58.0</v>
+        <v>36.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="D260" t="n">
-        <v>113.0</v>
+        <v>165.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>64.0</v>
+        <v>33.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>32.0</v>
+        <v>90.0</v>
       </c>
       <c r="D261" t="n">
-        <v>97.0</v>
+        <v>165.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>65.0</v>
+        <v>32.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>32.0</v>
+        <v>104.0</v>
       </c>
       <c r="D262" t="n">
-        <v>89.0</v>
+        <v>169.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>85.0</v>
+        <v>29.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>32.0</v>
+        <v>116.0</v>
       </c>
       <c r="D263" t="n">
-        <v>81.0</v>
+        <v>161.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>84.0</v>
+        <v>28.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D264" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>83.0</v>
+        <v>27.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>32.0</v>
+        <v>132.0</v>
       </c>
       <c r="D265" t="n">
-        <v>65.0</v>
+        <v>169.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>82.0</v>
+        <v>26.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>32.0</v>
+        <v>140.0</v>
       </c>
       <c r="D266" t="n">
-        <v>57.0</v>
+        <v>169.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>81.0</v>
+        <v>22.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>32.0</v>
+        <v>148.0</v>
       </c>
       <c r="D267" t="n">
-        <v>49.0</v>
+        <v>169.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>79.0</v>
+        <v>25.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>24.0</v>
+        <v>156.0</v>
       </c>
       <c r="D268" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>76.0</v>
+        <v>23.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>16.0</v>
+        <v>164.0</v>
       </c>
       <c r="D269" t="n">
-        <v>57.0</v>
+        <v>169.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>66.0</v>
+        <v>24.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>24.0</v>
+        <v>172.0</v>
       </c>
       <c r="D270" t="n">
-        <v>89.0</v>
+        <v>169.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>67.0</v>
+        <v>15.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>16.0</v>
+        <v>196.0</v>
       </c>
       <c r="D271" t="n">
-        <v>97.0</v>
+        <v>161.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>68.0</v>
+        <v>14.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>16.0</v>
+        <v>188.0</v>
       </c>
       <c r="D272" t="n">
-        <v>109.0</v>
+        <v>169.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>69.0</v>
+        <v>13.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>8.0</v>
+        <v>196.0</v>
       </c>
       <c r="D273" t="n">
-        <v>109.0</v>
+        <v>169.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>70.0</v>
+        <v>12.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>8.0</v>
+        <v>204.0</v>
       </c>
       <c r="D274" t="n">
-        <v>97.0</v>
+        <v>169.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>71.0</v>
+        <v>11.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>8.0</v>
+        <v>212.0</v>
       </c>
       <c r="D275" t="n">
-        <v>89.0</v>
+        <v>169.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>72.0</v>
+        <v>10.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8.0</v>
+        <v>220.0</v>
       </c>
       <c r="D276" t="n">
-        <v>81.0</v>
+        <v>169.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>73.0</v>
+        <v>8.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>8.0</v>
+        <v>228.0</v>
       </c>
       <c r="D277" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>74.0</v>
+        <v>7.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.0</v>
+        <v>236.0</v>
       </c>
       <c r="D278" t="n">
-        <v>65.0</v>
+        <v>169.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>75.0</v>
+        <v>5.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>8.0</v>
+        <v>256.0</v>
       </c>
       <c r="D279" t="n">
-        <v>57.0</v>
+        <v>157.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>77.0</v>
+        <v>3.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8.0</v>
+        <v>270.0</v>
       </c>
       <c r="D280" t="n">
-        <v>49.0</v>
+        <v>133.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>78.0</v>
+        <v>280.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>8.0</v>
+        <v>280.0</v>
       </c>
       <c r="D281" t="n">
-        <v>41.0</v>
+        <v>133.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>95.0</v>
+        <v>2.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>16.0</v>
+        <v>288.0</v>
       </c>
       <c r="D282" t="n">
-        <v>25.0</v>
+        <v>129.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>96.0</v>
+        <v>1.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>16.0</v>
+        <v>288.0</v>
       </c>
       <c r="D283" t="n">
-        <v>17.0</v>
+        <v>149.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3029.01318359375</v>
+        <v>3320.119873046875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3029.01318359375</v>
+        <v>3320.119873046875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,13 +108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="D4" t="n">
         <v>17.0</v>
@@ -125,13 +125,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5" t="n">
         <v>17.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.0</v>
+        <v>56.0</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98.0</v>
+        <v>168.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0</v>
+        <v>72.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99.0</v>
+        <v>167.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0</v>
+        <v>80.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,13 +227,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100.0</v>
+        <v>166.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>56.0</v>
+        <v>92.0</v>
       </c>
       <c r="D11" t="n">
         <v>9.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101.0</v>
+        <v>188.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0</v>
+        <v>120.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102.0</v>
+        <v>189.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0</v>
+        <v>128.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103.0</v>
+        <v>190.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0</v>
+        <v>136.0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92.0</v>
+        <v>191.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>44.0</v>
+        <v>148.0</v>
       </c>
       <c r="D15" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91.0</v>
+        <v>192.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0</v>
+        <v>162.0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90.0</v>
+        <v>194.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0</v>
+        <v>172.0</v>
       </c>
       <c r="D17" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80.0</v>
+        <v>195.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>32.0</v>
+        <v>180.0</v>
       </c>
       <c r="D18" t="n">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79.0</v>
+        <v>196.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.0</v>
+        <v>180.0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81.0</v>
+        <v>201.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>32.0</v>
+        <v>180.0</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89.0</v>
+        <v>197.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.0</v>
+        <v>172.0</v>
       </c>
       <c r="D21" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82.0</v>
+        <v>198.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>83.0</v>
+        <v>199.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D23" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>88.0</v>
+        <v>145.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>40.0</v>
+        <v>172.0</v>
       </c>
       <c r="D24" t="n">
-        <v>63.0</v>
+        <v>53.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>87.0</v>
+        <v>146.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.0</v>
+        <v>172.0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.0</v>
+        <v>61.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84.0</v>
+        <v>147.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D26" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>85.0</v>
+        <v>148.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="D27" t="n">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86.0</v>
+        <v>140.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>116.0</v>
+        <v>141.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D29" t="n">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>113.0</v>
+        <v>142.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>48.0</v>
+        <v>180.0</v>
       </c>
       <c r="D30" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>117.0</v>
+        <v>143.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.0</v>
+        <v>61.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>115.0</v>
+        <v>144.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D32" t="n">
-        <v>81.0</v>
+        <v>53.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>114.0</v>
+        <v>200.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>56.0</v>
+        <v>180.0</v>
       </c>
       <c r="D33" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112.0</v>
+        <v>221.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.0</v>
+        <v>228.0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111.0</v>
+        <v>222.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D35" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110.0</v>
+        <v>223.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0</v>
+        <v>252.0</v>
       </c>
       <c r="D36" t="n">
-        <v>57.0</v>
+        <v>21.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>109.0</v>
+        <v>224.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>48.0</v>
+        <v>260.0</v>
       </c>
       <c r="D37" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108.0</v>
+        <v>225.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D38" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104.0</v>
+        <v>226.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>105.0</v>
+        <v>227.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>64.0</v>
+        <v>260.0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106.0</v>
+        <v>228.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>72.0</v>
+        <v>260.0</v>
       </c>
       <c r="D41" t="n">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107.0</v>
+        <v>229.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>72.0</v>
+        <v>260.0</v>
       </c>
       <c r="D42" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>174.0</v>
+        <v>230.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.0</v>
+        <v>260.0</v>
       </c>
       <c r="D43" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>173.0</v>
+        <v>251.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>80.0</v>
+        <v>260.0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.0</v>
+        <v>85.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>172.0</v>
+        <v>250.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>80.0</v>
+        <v>260.0</v>
       </c>
       <c r="D45" t="n">
-        <v>25.0</v>
+        <v>93.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>171.0</v>
+        <v>247.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.0</v>
+        <v>268.0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>97.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>170.0</v>
+        <v>243.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>72.0</v>
+        <v>280.0</v>
       </c>
       <c r="D47" t="n">
-        <v>25.0</v>
+        <v>109.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>169.0</v>
+        <v>242.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>64.0</v>
+        <v>288.0</v>
       </c>
       <c r="D48" t="n">
-        <v>21.0</v>
+        <v>109.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>168.0</v>
+        <v>241.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>72.0</v>
+        <v>284.0</v>
       </c>
       <c r="D49" t="n">
-        <v>9.0</v>
+        <v>101.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>167.0</v>
+        <v>244.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>80.0</v>
+        <v>276.0</v>
       </c>
       <c r="D50" t="n">
-        <v>9.0</v>
+        <v>101.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>166.0</v>
+        <v>245.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>92.0</v>
+        <v>276.0</v>
       </c>
       <c r="D51" t="n">
-        <v>9.0</v>
+        <v>93.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>165.0</v>
+        <v>240.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D52" t="n">
-        <v>17.0</v>
+        <v>93.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>164.0</v>
+        <v>239.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D53" t="n">
-        <v>25.0</v>
+        <v>85.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>163.0</v>
+        <v>246.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D54" t="n">
-        <v>33.0</v>
+        <v>85.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>162.0</v>
+        <v>231.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D55" t="n">
-        <v>41.0</v>
+        <v>77.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>161.0</v>
+        <v>238.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D56" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>175.0</v>
+        <v>237.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D57" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>160.0</v>
+        <v>232.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D58" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>159.0</v>
+        <v>233.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D59" t="n">
-        <v>73.0</v>
+        <v>61.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>158.0</v>
+        <v>236.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D60" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>157.0</v>
+        <v>235.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>104.0</v>
+        <v>284.0</v>
       </c>
       <c r="D61" t="n">
-        <v>89.0</v>
+        <v>53.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>119.0</v>
+        <v>234.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>104.0</v>
+        <v>276.0</v>
       </c>
       <c r="D62" t="n">
-        <v>97.0</v>
+        <v>53.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>120.0</v>
+        <v>219.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D63" t="n">
-        <v>105.0</v>
+        <v>29.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>121.0</v>
+        <v>218.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D64" t="n">
-        <v>113.0</v>
+        <v>37.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122.0</v>
+        <v>220.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D65" t="n">
-        <v>121.0</v>
+        <v>29.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>123.0</v>
+        <v>217.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D66" t="n">
-        <v>129.0</v>
+        <v>37.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>124.0</v>
+        <v>215.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D67" t="n">
-        <v>137.0</v>
+        <v>45.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>154.0</v>
+        <v>214.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D68" t="n">
-        <v>125.0</v>
+        <v>53.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>155.0</v>
+        <v>216.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D69" t="n">
-        <v>117.0</v>
+        <v>45.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>153.0</v>
+        <v>213.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D70" t="n">
-        <v>109.0</v>
+        <v>53.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>156.0</v>
+        <v>211.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D71" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>152.0</v>
+        <v>210.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D72" t="n">
-        <v>93.0</v>
+        <v>69.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>151.0</v>
+        <v>212.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D73" t="n">
-        <v>85.0</v>
+        <v>61.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>177.0</v>
+        <v>207.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D74" t="n">
-        <v>77.0</v>
+        <v>69.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>176.0</v>
+        <v>209.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D75" t="n">
-        <v>69.0</v>
+        <v>77.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>178.0</v>
+        <v>208.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>132.0</v>
+        <v>228.0</v>
       </c>
       <c r="D76" t="n">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>150.0</v>
+        <v>253.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>148.0</v>
+        <v>228.0</v>
       </c>
       <c r="D77" t="n">
         <v>85.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>181.0</v>
+        <v>254.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D78" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>182.0</v>
+        <v>257.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D79" t="n">
-        <v>53.0</v>
+        <v>101.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>183.0</v>
+        <v>258.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D80" t="n">
-        <v>45.0</v>
+        <v>109.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>184.0</v>
+        <v>256.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D81" t="n">
-        <v>37.0</v>
+        <v>101.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>185.0</v>
+        <v>278.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>124.0</v>
+        <v>252.0</v>
       </c>
       <c r="D82" t="n">
-        <v>29.0</v>
+        <v>125.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>187.0</v>
+        <v>279.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>124.0</v>
+        <v>260.0</v>
       </c>
       <c r="D83" t="n">
-        <v>21.0</v>
+        <v>129.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>188.0</v>
+        <v>3.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>120.0</v>
+        <v>270.0</v>
       </c>
       <c r="D84" t="n">
-        <v>9.0</v>
+        <v>133.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>189.0</v>
+        <v>280.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>128.0</v>
+        <v>280.0</v>
       </c>
       <c r="D85" t="n">
-        <v>9.0</v>
+        <v>133.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>190.0</v>
+        <v>1.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>136.0</v>
+        <v>288.0</v>
       </c>
       <c r="D86" t="n">
-        <v>9.0</v>
+        <v>149.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>191.0</v>
+        <v>2.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>148.0</v>
+        <v>288.0</v>
       </c>
       <c r="D87" t="n">
-        <v>9.0</v>
+        <v>129.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>192.0</v>
+        <v>248.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>162.0</v>
+        <v>260.0</v>
       </c>
       <c r="D88" t="n">
-        <v>9.0</v>
+        <v>109.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>195.0</v>
+        <v>249.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>180.0</v>
+        <v>252.0</v>
       </c>
       <c r="D89" t="n">
-        <v>21.0</v>
+        <v>101.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>196.0</v>
+        <v>255.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D90" t="n">
-        <v>29.0</v>
+        <v>93.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>201.0</v>
+        <v>252.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D91" t="n">
-        <v>37.0</v>
+        <v>85.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>200.0</v>
+        <v>206.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>180.0</v>
+        <v>220.0</v>
       </c>
       <c r="D92" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>199.0</v>
+        <v>205.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>172.0</v>
+        <v>212.0</v>
       </c>
       <c r="D93" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>198.0</v>
+        <v>204.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>172.0</v>
+        <v>204.0</v>
       </c>
       <c r="D94" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>197.0</v>
+        <v>203.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>172.0</v>
+        <v>196.0</v>
       </c>
       <c r="D95" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>194.0</v>
+        <v>202.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>172.0</v>
+        <v>188.0</v>
       </c>
       <c r="D96" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>180.0</v>
+        <v>187.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>132.0</v>
+        <v>124.0</v>
       </c>
       <c r="D99" t="n">
-        <v>61.0</v>
+        <v>21.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>179.0</v>
+        <v>185.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>140.0</v>
+        <v>124.0</v>
       </c>
       <c r="D100" t="n">
-        <v>65.0</v>
+        <v>29.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>146.0</v>
+        <v>184.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D101" t="n">
-        <v>61.0</v>
+        <v>37.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>145.0</v>
+        <v>183.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D102" t="n">
-        <v>53.0</v>
+        <v>45.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>143.0</v>
+        <v>182.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D103" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>144.0</v>
+        <v>181.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D104" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>202.0</v>
+        <v>176.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>188.0</v>
+        <v>124.0</v>
       </c>
       <c r="D105" t="n">
-        <v>41.0</v>
+        <v>69.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>203.0</v>
+        <v>177.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>196.0</v>
+        <v>124.0</v>
       </c>
       <c r="D106" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>204.0</v>
+        <v>151.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>204.0</v>
+        <v>124.0</v>
       </c>
       <c r="D107" t="n">
-        <v>57.0</v>
+        <v>85.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>205.0</v>
+        <v>152.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>212.0</v>
+        <v>124.0</v>
       </c>
       <c r="D108" t="n">
-        <v>65.0</v>
+        <v>93.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>206.0</v>
+        <v>156.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>220.0</v>
+        <v>124.0</v>
       </c>
       <c r="D109" t="n">
-        <v>73.0</v>
+        <v>101.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>208.0</v>
+        <v>153.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D110" t="n">
-        <v>77.0</v>
+        <v>109.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>253.0</v>
+        <v>155.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D111" t="n">
-        <v>85.0</v>
+        <v>117.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>254.0</v>
+        <v>154.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D112" t="n">
-        <v>93.0</v>
+        <v>125.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>255.0</v>
+        <v>18.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>236.0</v>
+        <v>164.0</v>
       </c>
       <c r="D113" t="n">
-        <v>93.0</v>
+        <v>145.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>252.0</v>
+        <v>17.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>236.0</v>
+        <v>172.0</v>
       </c>
       <c r="D114" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>209.0</v>
+        <v>16.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>236.0</v>
+        <v>188.0</v>
       </c>
       <c r="D115" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>207.0</v>
+        <v>271.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>228.0</v>
+        <v>196.0</v>
       </c>
       <c r="D116" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>212.0</v>
+        <v>272.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>228.0</v>
+        <v>204.0</v>
       </c>
       <c r="D117" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>210.0</v>
+        <v>273.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>236.0</v>
+        <v>212.0</v>
       </c>
       <c r="D118" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>211.0</v>
+        <v>274.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>236.0</v>
+        <v>220.0</v>
       </c>
       <c r="D119" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>213.0</v>
+        <v>275.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
         <v>228.0</v>
       </c>
       <c r="D120" t="n">
-        <v>53.0</v>
+        <v>145.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>216.0</v>
+        <v>276.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
       <c r="D121" t="n">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>217.0</v>
+        <v>277.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>228.0</v>
+        <v>246.0</v>
       </c>
       <c r="D122" t="n">
-        <v>37.0</v>
+        <v>141.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>220.0</v>
+        <v>4.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>228.0</v>
+        <v>256.0</v>
       </c>
       <c r="D123" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>221.0</v>
+        <v>5.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>228.0</v>
+        <v>256.0</v>
       </c>
       <c r="D124" t="n">
-        <v>21.0</v>
+        <v>157.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>222.0</v>
+        <v>6.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>236.0</v>
+        <v>246.0</v>
       </c>
       <c r="D125" t="n">
-        <v>21.0</v>
+        <v>157.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>219.0</v>
+        <v>9.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D126" t="n">
-        <v>29.0</v>
+        <v>161.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>218.0</v>
+        <v>7.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -2208,7 +2208,7 @@
         <v>236.0</v>
       </c>
       <c r="D127" t="n">
-        <v>37.0</v>
+        <v>169.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.0</v>
+        <v>8.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>236.0</v>
+        <v>228.0</v>
       </c>
       <c r="D128" t="n">
-        <v>53.0</v>
+        <v>169.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.0</v>
+        <v>10.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>236.0</v>
+        <v>220.0</v>
       </c>
       <c r="D129" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>223.0</v>
+        <v>11.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>252.0</v>
+        <v>212.0</v>
       </c>
       <c r="D130" t="n">
-        <v>21.0</v>
+        <v>169.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>224.0</v>
+        <v>12.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>260.0</v>
+        <v>204.0</v>
       </c>
       <c r="D131" t="n">
-        <v>29.0</v>
+        <v>169.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>225.0</v>
+        <v>15.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>260.0</v>
+        <v>196.0</v>
       </c>
       <c r="D132" t="n">
-        <v>37.0</v>
+        <v>161.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>226.0</v>
+        <v>13.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>260.0</v>
+        <v>196.0</v>
       </c>
       <c r="D133" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>227.0</v>
+        <v>14.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>260.0</v>
+        <v>188.0</v>
       </c>
       <c r="D134" t="n">
-        <v>53.0</v>
+        <v>169.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>228.0</v>
+        <v>133.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>260.0</v>
+        <v>164.0</v>
       </c>
       <c r="D135" t="n">
-        <v>61.0</v>
+        <v>137.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>229.0</v>
+        <v>134.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>260.0</v>
+        <v>172.0</v>
       </c>
       <c r="D136" t="n">
-        <v>69.0</v>
+        <v>125.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>230.0</v>
+        <v>270.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>260.0</v>
+        <v>180.0</v>
       </c>
       <c r="D137" t="n">
-        <v>77.0</v>
+        <v>125.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>234.0</v>
+        <v>135.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>276.0</v>
+        <v>172.0</v>
       </c>
       <c r="D138" t="n">
-        <v>53.0</v>
+        <v>117.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>235.0</v>
+        <v>269.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>284.0</v>
+        <v>180.0</v>
       </c>
       <c r="D139" t="n">
-        <v>53.0</v>
+        <v>117.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>236.0</v>
+        <v>268.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>284.0</v>
+        <v>180.0</v>
       </c>
       <c r="D140" t="n">
-        <v>61.0</v>
+        <v>109.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>237.0</v>
+        <v>136.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>284.0</v>
+        <v>172.0</v>
       </c>
       <c r="D141" t="n">
-        <v>69.0</v>
+        <v>109.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>233.0</v>
+        <v>137.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>276.0</v>
+        <v>172.0</v>
       </c>
       <c r="D142" t="n">
-        <v>61.0</v>
+        <v>101.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>232.0</v>
+        <v>267.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>276.0</v>
+        <v>180.0</v>
       </c>
       <c r="D143" t="n">
-        <v>69.0</v>
+        <v>101.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>231.0</v>
+        <v>259.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>276.0</v>
+        <v>228.0</v>
       </c>
       <c r="D144" t="n">
-        <v>77.0</v>
+        <v>117.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>246.0</v>
+        <v>260.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>276.0</v>
+        <v>228.0</v>
       </c>
       <c r="D145" t="n">
-        <v>85.0</v>
+        <v>125.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>238.0</v>
+        <v>261.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>284.0</v>
+        <v>220.0</v>
       </c>
       <c r="D146" t="n">
-        <v>77.0</v>
+        <v>125.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>239.0</v>
+        <v>262.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>284.0</v>
+        <v>212.0</v>
       </c>
       <c r="D147" t="n">
-        <v>85.0</v>
+        <v>117.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>240.0</v>
+        <v>263.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>284.0</v>
+        <v>204.0</v>
       </c>
       <c r="D148" t="n">
-        <v>93.0</v>
+        <v>109.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>245.0</v>
+        <v>264.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>276.0</v>
+        <v>196.0</v>
       </c>
       <c r="D149" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>251.0</v>
+        <v>265.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>260.0</v>
+        <v>188.0</v>
       </c>
       <c r="D150" t="n">
-        <v>85.0</v>
+        <v>93.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>250.0</v>
+        <v>266.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>260.0</v>
+        <v>180.0</v>
       </c>
       <c r="D151" t="n">
         <v>93.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>247.0</v>
+        <v>138.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>268.0</v>
+        <v>172.0</v>
       </c>
       <c r="D152" t="n">
-        <v>97.0</v>
+        <v>93.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>244.0</v>
+        <v>139.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>276.0</v>
+        <v>172.0</v>
       </c>
       <c r="D153" t="n">
-        <v>101.0</v>
+        <v>85.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>241.0</v>
+        <v>149.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>284.0</v>
+        <v>164.0</v>
       </c>
       <c r="D154" t="n">
-        <v>101.0</v>
+        <v>81.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>242.0</v>
+        <v>150.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>288.0</v>
+        <v>148.0</v>
       </c>
       <c r="D155" t="n">
-        <v>109.0</v>
+        <v>85.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>243.0</v>
+        <v>178.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>280.0</v>
+        <v>132.0</v>
       </c>
       <c r="D156" t="n">
-        <v>109.0</v>
+        <v>81.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>248.0</v>
+        <v>179.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>260.0</v>
+        <v>140.0</v>
       </c>
       <c r="D157" t="n">
-        <v>109.0</v>
+        <v>65.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>249.0</v>
+        <v>180.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>252.0</v>
+        <v>132.0</v>
       </c>
       <c r="D158" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>256.0</v>
+        <v>165.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D159" t="n">
-        <v>101.0</v>
+        <v>17.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>257.0</v>
+        <v>164.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D160" t="n">
-        <v>101.0</v>
+        <v>25.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>258.0</v>
+        <v>163.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D161" t="n">
-        <v>109.0</v>
+        <v>33.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>259.0</v>
+        <v>162.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D162" t="n">
-        <v>117.0</v>
+        <v>41.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>263.0</v>
+        <v>161.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>204.0</v>
+        <v>104.0</v>
       </c>
       <c r="D163" t="n">
-        <v>109.0</v>
+        <v>49.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>262.0</v>
+        <v>175.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>212.0</v>
+        <v>104.0</v>
       </c>
       <c r="D164" t="n">
-        <v>117.0</v>
+        <v>57.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>261.0</v>
+        <v>160.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>220.0</v>
+        <v>104.0</v>
       </c>
       <c r="D165" t="n">
-        <v>125.0</v>
+        <v>65.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>260.0</v>
+        <v>159.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D166" t="n">
-        <v>125.0</v>
+        <v>73.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>278.0</v>
+        <v>158.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>252.0</v>
+        <v>104.0</v>
       </c>
       <c r="D167" t="n">
-        <v>125.0</v>
+        <v>81.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>279.0</v>
+        <v>157.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D168" t="n">
-        <v>129.0</v>
+        <v>89.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4.0</v>
+        <v>119.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>256.0</v>
+        <v>104.0</v>
       </c>
       <c r="D169" t="n">
-        <v>141.0</v>
+        <v>97.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>277.0</v>
+        <v>120.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>246.0</v>
+        <v>104.0</v>
       </c>
       <c r="D170" t="n">
-        <v>141.0</v>
+        <v>105.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6.0</v>
+        <v>121.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>246.0</v>
+        <v>104.0</v>
       </c>
       <c r="D171" t="n">
-        <v>157.0</v>
+        <v>113.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.0</v>
+        <v>122.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D172" t="n">
-        <v>161.0</v>
+        <v>121.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>276.0</v>
+        <v>123.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D173" t="n">
-        <v>145.0</v>
+        <v>129.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>275.0</v>
+        <v>124.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>228.0</v>
+        <v>104.0</v>
       </c>
       <c r="D174" t="n">
-        <v>145.0</v>
+        <v>137.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>274.0</v>
+        <v>125.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>220.0</v>
+        <v>104.0</v>
       </c>
       <c r="D175" t="n">
         <v>145.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>273.0</v>
+        <v>30.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>212.0</v>
+        <v>104.0</v>
       </c>
       <c r="D176" t="n">
-        <v>145.0</v>
+        <v>153.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>272.0</v>
+        <v>31.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>204.0</v>
+        <v>104.0</v>
       </c>
       <c r="D177" t="n">
-        <v>145.0</v>
+        <v>161.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>271.0</v>
+        <v>32.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>196.0</v>
+        <v>104.0</v>
       </c>
       <c r="D178" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>188.0</v>
+        <v>124.0</v>
       </c>
       <c r="D179" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>172.0</v>
+        <v>132.0</v>
       </c>
       <c r="D180" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>164.0</v>
+        <v>140.0</v>
       </c>
       <c r="D181" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>133.0</v>
+        <v>22.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>164.0</v>
+        <v>148.0</v>
       </c>
       <c r="D182" t="n">
-        <v>137.0</v>
+        <v>169.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>172.0</v>
+        <v>156.0</v>
       </c>
       <c r="D183" t="n">
-        <v>125.0</v>
+        <v>169.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>135.0</v>
+        <v>23.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>172.0</v>
+        <v>164.0</v>
       </c>
       <c r="D184" t="n">
-        <v>117.0</v>
+        <v>169.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>136.0</v>
+        <v>24.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -3194,7 +3194,7 @@
         <v>172.0</v>
       </c>
       <c r="D185" t="n">
-        <v>109.0</v>
+        <v>169.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>137.0</v>
+        <v>29.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>172.0</v>
+        <v>116.0</v>
       </c>
       <c r="D186" t="n">
-        <v>101.0</v>
+        <v>161.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>138.0</v>
+        <v>126.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>172.0</v>
+        <v>116.0</v>
       </c>
       <c r="D187" t="n">
-        <v>93.0</v>
+        <v>145.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>139.0</v>
+        <v>127.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>172.0</v>
+        <v>124.0</v>
       </c>
       <c r="D188" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>149.0</v>
+        <v>128.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>164.0</v>
+        <v>132.0</v>
       </c>
       <c r="D189" t="n">
-        <v>81.0</v>
+        <v>145.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>148.0</v>
+        <v>21.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>172.0</v>
+        <v>140.0</v>
       </c>
       <c r="D190" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>147.0</v>
+        <v>129.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>172.0</v>
+        <v>132.0</v>
       </c>
       <c r="D191" t="n">
-        <v>69.0</v>
+        <v>137.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>142.0</v>
+        <v>130.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>180.0</v>
+        <v>140.0</v>
       </c>
       <c r="D192" t="n">
-        <v>69.0</v>
+        <v>137.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>141.0</v>
+        <v>20.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>180.0</v>
+        <v>148.0</v>
       </c>
       <c r="D193" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>140.0</v>
+        <v>19.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>180.0</v>
+        <v>156.0</v>
       </c>
       <c r="D194" t="n">
-        <v>85.0</v>
+        <v>145.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>266.0</v>
+        <v>132.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>180.0</v>
+        <v>156.0</v>
       </c>
       <c r="D195" t="n">
-        <v>93.0</v>
+        <v>137.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>265.0</v>
+        <v>131.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>188.0</v>
+        <v>148.0</v>
       </c>
       <c r="D196" t="n">
-        <v>93.0</v>
+        <v>137.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>264.0</v>
+        <v>172.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>196.0</v>
+        <v>80.0</v>
       </c>
       <c r="D197" t="n">
-        <v>101.0</v>
+        <v>25.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>267.0</v>
+        <v>171.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>180.0</v>
+        <v>80.0</v>
       </c>
       <c r="D198" t="n">
-        <v>101.0</v>
+        <v>25.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>268.0</v>
+        <v>170.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>180.0</v>
+        <v>72.0</v>
       </c>
       <c r="D199" t="n">
-        <v>109.0</v>
+        <v>25.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>269.0</v>
+        <v>169.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>180.0</v>
+        <v>64.0</v>
       </c>
       <c r="D200" t="n">
-        <v>117.0</v>
+        <v>21.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>270.0</v>
+        <v>102.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D201" t="n">
-        <v>125.0</v>
+        <v>25.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>132.0</v>
+        <v>103.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>156.0</v>
+        <v>56.0</v>
       </c>
       <c r="D202" t="n">
-        <v>137.0</v>
+        <v>33.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>131.0</v>
+        <v>104.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>148.0</v>
+        <v>56.0</v>
       </c>
       <c r="D203" t="n">
-        <v>137.0</v>
+        <v>41.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>21.0</v>
+        <v>108.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>140.0</v>
+        <v>56.0</v>
       </c>
       <c r="D204" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>20.0</v>
+        <v>107.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>148.0</v>
+        <v>72.0</v>
       </c>
       <c r="D205" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.0</v>
+        <v>174.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>156.0</v>
+        <v>88.0</v>
       </c>
       <c r="D206" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>130.0</v>
+        <v>173.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
       <c r="D207" t="n">
-        <v>137.0</v>
+        <v>41.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>129.0</v>
+        <v>106.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>132.0</v>
+        <v>72.0</v>
       </c>
       <c r="D208" t="n">
-        <v>137.0</v>
+        <v>41.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>128.0</v>
+        <v>105.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>132.0</v>
+        <v>64.0</v>
       </c>
       <c r="D209" t="n">
-        <v>145.0</v>
+        <v>41.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>127.0</v>
+        <v>92.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>124.0</v>
+        <v>44.0</v>
       </c>
       <c r="D210" t="n">
-        <v>145.0</v>
+        <v>27.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>126.0</v>
+        <v>91.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>116.0</v>
+        <v>44.0</v>
       </c>
       <c r="D211" t="n">
-        <v>145.0</v>
+        <v>35.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>125.0</v>
+        <v>90.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>104.0</v>
+        <v>44.0</v>
       </c>
       <c r="D212" t="n">
-        <v>145.0</v>
+        <v>43.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>30.0</v>
+        <v>93.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>104.0</v>
+        <v>32.0</v>
       </c>
       <c r="D213" t="n">
-        <v>153.0</v>
+        <v>25.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>31.0</v>
+        <v>94.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>104.0</v>
+        <v>24.0</v>
       </c>
       <c r="D214" t="n">
-        <v>161.0</v>
+        <v>25.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>34.0</v>
+        <v>80.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>80.0</v>
+        <v>32.0</v>
       </c>
       <c r="D215" t="n">
-        <v>157.0</v>
+        <v>41.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>35.0</v>
+        <v>109.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>64.0</v>
+        <v>48.0</v>
       </c>
       <c r="D216" t="n">
-        <v>157.0</v>
+        <v>51.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>48.0</v>
+        <v>89.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -3738,7 +3738,7 @@
         <v>40.0</v>
       </c>
       <c r="D217" t="n">
-        <v>153.0</v>
+        <v>51.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>53.0</v>
+        <v>110.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D218" t="n">
-        <v>153.0</v>
+        <v>57.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>54.0</v>
+        <v>111.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D219" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>55.0</v>
+        <v>114.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D220" t="n">
-        <v>137.0</v>
+        <v>73.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>47.0</v>
+        <v>112.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="D221" t="n">
-        <v>145.0</v>
+        <v>63.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>46.0</v>
+        <v>88.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -3823,7 +3823,7 @@
         <v>40.0</v>
       </c>
       <c r="D222" t="n">
-        <v>137.0</v>
+        <v>63.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56.0</v>
+        <v>113.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="D223" t="n">
-        <v>129.0</v>
+        <v>73.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57.0</v>
+        <v>87.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D224" t="n">
-        <v>121.0</v>
+        <v>73.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>58.0</v>
+        <v>115.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D225" t="n">
-        <v>113.0</v>
+        <v>81.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>59.0</v>
+        <v>117.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D226" t="n">
-        <v>113.0</v>
+        <v>89.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>45.0</v>
+        <v>116.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="D227" t="n">
-        <v>129.0</v>
+        <v>83.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>44.0</v>
+        <v>86.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -3925,7 +3925,7 @@
         <v>40.0</v>
       </c>
       <c r="D228" t="n">
-        <v>121.0</v>
+        <v>83.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,13 +3933,13 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>64.0</v>
+        <v>118.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="D229" t="n">
         <v>97.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>68.0</v>
+        <v>61.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>16.0</v>
+        <v>56.0</v>
       </c>
       <c r="D230" t="n">
-        <v>109.0</v>
+        <v>105.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>69.0</v>
+        <v>60.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D231" t="n">
-        <v>109.0</v>
+        <v>113.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>70.0</v>
+        <v>43.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D232" t="n">
-        <v>97.0</v>
+        <v>121.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>71.0</v>
+        <v>42.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D233" t="n">
-        <v>89.0</v>
+        <v>129.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>72.0</v>
+        <v>41.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D234" t="n">
-        <v>81.0</v>
+        <v>137.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>73.0</v>
+        <v>40.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D235" t="n">
-        <v>73.0</v>
+        <v>145.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>74.0</v>
+        <v>39.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D236" t="n">
-        <v>65.0</v>
+        <v>153.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>75.0</v>
+        <v>38.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D237" t="n">
-        <v>57.0</v>
+        <v>161.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>77.0</v>
+        <v>37.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="D238" t="n">
-        <v>49.0</v>
+        <v>169.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>78.0</v>
+        <v>36.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>8.0</v>
+        <v>64.0</v>
       </c>
       <c r="D239" t="n">
-        <v>41.0</v>
+        <v>165.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>76.0</v>
+        <v>35.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>16.0</v>
+        <v>64.0</v>
       </c>
       <c r="D240" t="n">
-        <v>57.0</v>
+        <v>157.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>67.0</v>
+        <v>33.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>16.0</v>
+        <v>90.0</v>
       </c>
       <c r="D241" t="n">
-        <v>97.0</v>
+        <v>165.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>66.0</v>
+        <v>34.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>24.0</v>
+        <v>80.0</v>
       </c>
       <c r="D242" t="n">
-        <v>89.0</v>
+        <v>157.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="D243" t="n">
-        <v>89.0</v>
+        <v>99.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D245" t="n">
-        <v>99.0</v>
+        <v>113.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>118.0</v>
+        <v>44.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D246" t="n">
-        <v>97.0</v>
+        <v>121.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D247" t="n">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60.0</v>
+        <v>46.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D248" t="n">
-        <v>113.0</v>
+        <v>137.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D249" t="n">
-        <v>121.0</v>
+        <v>145.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D250" t="n">
-        <v>129.0</v>
+        <v>153.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="D251" t="n">
-        <v>137.0</v>
+        <v>161.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C252" t="n">
         <v>40.0</v>
       </c>
-      <c r="B252" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C252" t="n">
-        <v>56.0</v>
-      </c>
       <c r="D252" t="n">
-        <v>145.0</v>
+        <v>169.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D253" t="n">
-        <v>153.0</v>
+        <v>169.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D254" t="n">
         <v>161.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="D255" t="n">
-        <v>161.0</v>
+        <v>153.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -4401,7 +4401,7 @@
         <v>32.0</v>
       </c>
       <c r="D256" t="n">
-        <v>161.0</v>
+        <v>145.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -4418,7 +4418,7 @@
         <v>32.0</v>
       </c>
       <c r="D257" t="n">
-        <v>169.0</v>
+        <v>137.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="D258" t="n">
-        <v>169.0</v>
+        <v>129.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="D259" t="n">
-        <v>169.0</v>
+        <v>121.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>36.0</v>
+        <v>58.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="D260" t="n">
-        <v>165.0</v>
+        <v>113.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>33.0</v>
+        <v>64.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>90.0</v>
+        <v>32.0</v>
       </c>
       <c r="D261" t="n">
-        <v>165.0</v>
+        <v>97.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C262" t="n">
         <v>32.0</v>
       </c>
-      <c r="B262" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C262" t="n">
-        <v>104.0</v>
-      </c>
       <c r="D262" t="n">
-        <v>169.0</v>
+        <v>89.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>29.0</v>
+        <v>85.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>116.0</v>
+        <v>32.0</v>
       </c>
       <c r="D263" t="n">
-        <v>161.0</v>
+        <v>81.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>124.0</v>
+        <v>32.0</v>
       </c>
       <c r="D264" t="n">
-        <v>169.0</v>
+        <v>73.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>27.0</v>
+        <v>83.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>132.0</v>
+        <v>32.0</v>
       </c>
       <c r="D265" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>26.0</v>
+        <v>82.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>140.0</v>
+        <v>32.0</v>
       </c>
       <c r="D266" t="n">
-        <v>169.0</v>
+        <v>57.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>22.0</v>
+        <v>81.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>148.0</v>
+        <v>32.0</v>
       </c>
       <c r="D267" t="n">
-        <v>169.0</v>
+        <v>49.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>25.0</v>
+        <v>79.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>156.0</v>
+        <v>24.0</v>
       </c>
       <c r="D268" t="n">
-        <v>169.0</v>
+        <v>45.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>23.0</v>
+        <v>76.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>164.0</v>
+        <v>16.0</v>
       </c>
       <c r="D269" t="n">
-        <v>169.0</v>
+        <v>57.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C270" t="n">
         <v>24.0</v>
       </c>
-      <c r="B270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C270" t="n">
-        <v>172.0</v>
-      </c>
       <c r="D270" t="n">
-        <v>169.0</v>
+        <v>89.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>15.0</v>
+        <v>67.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>196.0</v>
+        <v>16.0</v>
       </c>
       <c r="D271" t="n">
-        <v>161.0</v>
+        <v>97.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>14.0</v>
+        <v>68.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>188.0</v>
+        <v>16.0</v>
       </c>
       <c r="D272" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>13.0</v>
+        <v>69.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>196.0</v>
+        <v>8.0</v>
       </c>
       <c r="D273" t="n">
-        <v>169.0</v>
+        <v>109.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>12.0</v>
+        <v>70.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>204.0</v>
+        <v>8.0</v>
       </c>
       <c r="D274" t="n">
-        <v>169.0</v>
+        <v>97.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>11.0</v>
+        <v>71.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>212.0</v>
+        <v>8.0</v>
       </c>
       <c r="D275" t="n">
-        <v>169.0</v>
+        <v>89.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10.0</v>
+        <v>72.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>220.0</v>
+        <v>8.0</v>
       </c>
       <c r="D276" t="n">
-        <v>169.0</v>
+        <v>81.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C277" t="n">
         <v>8.0</v>
       </c>
-      <c r="B277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C277" t="n">
-        <v>228.0</v>
-      </c>
       <c r="D277" t="n">
-        <v>169.0</v>
+        <v>73.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>7.0</v>
+        <v>74.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>236.0</v>
+        <v>8.0</v>
       </c>
       <c r="D278" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>5.0</v>
+        <v>75.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>256.0</v>
+        <v>8.0</v>
       </c>
       <c r="D279" t="n">
-        <v>157.0</v>
+        <v>57.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3.0</v>
+        <v>77.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>270.0</v>
+        <v>8.0</v>
       </c>
       <c r="D280" t="n">
-        <v>133.0</v>
+        <v>49.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>280.0</v>
+        <v>78.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>280.0</v>
+        <v>8.0</v>
       </c>
       <c r="D281" t="n">
-        <v>133.0</v>
+        <v>41.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.0</v>
+        <v>95.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>288.0</v>
+        <v>16.0</v>
       </c>
       <c r="D282" t="n">
-        <v>129.0</v>
+        <v>25.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.0</v>
+        <v>96.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>288.0</v>
+        <v>16.0</v>
       </c>
       <c r="D283" t="n">
-        <v>149.0</v>
+        <v>17.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/a280.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3029.01318359375</v>
+        <v>4395.4296875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3029.01318359375</v>
+        <v>4395.4296875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,16 +108,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>288.0</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0</v>
+        <v>129.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>270.0</v>
       </c>
       <c r="D5" t="n">
-        <v>17.0</v>
+        <v>133.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0</v>
+        <v>256.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>141.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94.0</v>
+        <v>225.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.0</v>
+        <v>260.0</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93.0</v>
+        <v>226.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98.0</v>
+        <v>227.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0</v>
+        <v>260.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.0</v>
+        <v>53.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99.0</v>
+        <v>228.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0</v>
+        <v>260.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100.0</v>
+        <v>229.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>69.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101.0</v>
+        <v>230.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0</v>
+        <v>77.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102.0</v>
+        <v>231.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0</v>
+        <v>276.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>77.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103.0</v>
+        <v>232.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0</v>
+        <v>276.0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92.0</v>
+        <v>233.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>44.0</v>
+        <v>276.0</v>
       </c>
       <c r="D15" t="n">
-        <v>27.0</v>
+        <v>61.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91.0</v>
+        <v>234.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0</v>
+        <v>276.0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.0</v>
+        <v>53.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90.0</v>
+        <v>235.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0</v>
+        <v>284.0</v>
       </c>
       <c r="D17" t="n">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80.0</v>
+        <v>236.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D18" t="n">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79.0</v>
+        <v>237.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.0</v>
+        <v>284.0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.0</v>
+        <v>69.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81.0</v>
+        <v>238.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89.0</v>
+        <v>239.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.0</v>
+        <v>284.0</v>
       </c>
       <c r="D21" t="n">
-        <v>51.0</v>
+        <v>85.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82.0</v>
+        <v>240.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.0</v>
+        <v>93.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>83.0</v>
+        <v>241.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>32.0</v>
+        <v>284.0</v>
       </c>
       <c r="D23" t="n">
-        <v>65.0</v>
+        <v>101.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>88.0</v>
+        <v>242.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>40.0</v>
+        <v>288.0</v>
       </c>
       <c r="D24" t="n">
-        <v>63.0</v>
+        <v>109.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>87.0</v>
+        <v>243.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.0</v>
+        <v>280.0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.0</v>
+        <v>109.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84.0</v>
+        <v>244.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D26" t="n">
-        <v>73.0</v>
+        <v>101.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>85.0</v>
+        <v>245.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>32.0</v>
+        <v>276.0</v>
       </c>
       <c r="D27" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86.0</v>
+        <v>246.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>116.0</v>
+        <v>247.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>48.0</v>
+        <v>268.0</v>
       </c>
       <c r="D29" t="n">
-        <v>83.0</v>
+        <v>97.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>113.0</v>
+        <v>248.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>48.0</v>
+        <v>260.0</v>
       </c>
       <c r="D30" t="n">
-        <v>73.0</v>
+        <v>109.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>117.0</v>
+        <v>249.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.0</v>
+        <v>252.0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.0</v>
+        <v>101.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>115.0</v>
+        <v>250.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D32" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>114.0</v>
+        <v>251.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D33" t="n">
-        <v>73.0</v>
+        <v>85.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112.0</v>
+        <v>278.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.0</v>
+        <v>252.0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.0</v>
+        <v>125.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111.0</v>
+        <v>279.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>56.0</v>
+        <v>260.0</v>
       </c>
       <c r="D35" t="n">
-        <v>65.0</v>
+        <v>129.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110.0</v>
+        <v>280.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0</v>
+        <v>280.0</v>
       </c>
       <c r="D36" t="n">
-        <v>57.0</v>
+        <v>133.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>109.0</v>
+        <v>5.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>48.0</v>
+        <v>256.0</v>
       </c>
       <c r="D37" t="n">
-        <v>51.0</v>
+        <v>157.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108.0</v>
+        <v>6.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>56.0</v>
+        <v>246.0</v>
       </c>
       <c r="D38" t="n">
-        <v>49.0</v>
+        <v>157.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104.0</v>
+        <v>7.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.0</v>
+        <v>236.0</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>169.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>105.0</v>
+        <v>8.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.0</v>
+        <v>169.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106.0</v>
+        <v>9.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>72.0</v>
+        <v>228.0</v>
       </c>
       <c r="D41" t="n">
-        <v>41.0</v>
+        <v>161.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107.0</v>
+        <v>10.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>72.0</v>
+        <v>220.0</v>
       </c>
       <c r="D42" t="n">
-        <v>49.0</v>
+        <v>169.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>174.0</v>
+        <v>11.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.0</v>
+        <v>212.0</v>
       </c>
       <c r="D43" t="n">
-        <v>49.0</v>
+        <v>169.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>173.0</v>
+        <v>12.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>80.0</v>
+        <v>204.0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.0</v>
+        <v>169.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>172.0</v>
+        <v>13.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>80.0</v>
+        <v>196.0</v>
       </c>
       <c r="D45" t="n">
-        <v>25.0</v>
+        <v>169.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>171.0</v>
+        <v>14.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.0</v>
+        <v>188.0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>169.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>170.0</v>
+        <v>15.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>72.0</v>
+        <v>196.0</v>
       </c>
       <c r="D47" t="n">
-        <v>25.0</v>
+        <v>161.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>169.0</v>
+        <v>260.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>64.0</v>
+        <v>228.0</v>
       </c>
       <c r="D48" t="n">
-        <v>21.0</v>
+        <v>125.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>168.0</v>
+        <v>272.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>72.0</v>
+        <v>204.0</v>
       </c>
       <c r="D49" t="n">
-        <v>9.0</v>
+        <v>145.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>167.0</v>
+        <v>273.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>80.0</v>
+        <v>212.0</v>
       </c>
       <c r="D50" t="n">
-        <v>9.0</v>
+        <v>145.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>166.0</v>
+        <v>274.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>92.0</v>
+        <v>220.0</v>
       </c>
       <c r="D51" t="n">
-        <v>9.0</v>
+        <v>145.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>165.0</v>
+        <v>275.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>104.0</v>
+        <v>228.0</v>
       </c>
       <c r="D52" t="n">
-        <v>17.0</v>
+        <v>145.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>164.0</v>
+        <v>276.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>104.0</v>
+        <v>236.0</v>
       </c>
       <c r="D53" t="n">
-        <v>25.0</v>
+        <v>145.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>163.0</v>
+        <v>277.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>104.0</v>
+        <v>246.0</v>
       </c>
       <c r="D54" t="n">
-        <v>33.0</v>
+        <v>141.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>162.0</v>
+        <v>16.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>104.0</v>
+        <v>188.0</v>
       </c>
       <c r="D55" t="n">
-        <v>41.0</v>
+        <v>145.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>161.0</v>
+        <v>17.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D56" t="n">
-        <v>49.0</v>
+        <v>145.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>175.0</v>
+        <v>18.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>104.0</v>
+        <v>164.0</v>
       </c>
       <c r="D57" t="n">
-        <v>57.0</v>
+        <v>145.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>160.0</v>
+        <v>19.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>104.0</v>
+        <v>156.0</v>
       </c>
       <c r="D58" t="n">
-        <v>65.0</v>
+        <v>145.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>159.0</v>
+        <v>24.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D59" t="n">
-        <v>73.0</v>
+        <v>169.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>158.0</v>
+        <v>132.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>104.0</v>
+        <v>156.0</v>
       </c>
       <c r="D60" t="n">
-        <v>81.0</v>
+        <v>137.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>157.0</v>
+        <v>133.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>104.0</v>
+        <v>164.0</v>
       </c>
       <c r="D61" t="n">
-        <v>89.0</v>
+        <v>137.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>119.0</v>
+        <v>134.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D62" t="n">
-        <v>97.0</v>
+        <v>125.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>120.0</v>
+        <v>135.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D63" t="n">
-        <v>105.0</v>
+        <v>117.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>121.0</v>
+        <v>136.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D64" t="n">
-        <v>113.0</v>
+        <v>109.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122.0</v>
+        <v>137.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D65" t="n">
-        <v>121.0</v>
+        <v>101.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>123.0</v>
+        <v>138.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D66" t="n">
-        <v>129.0</v>
+        <v>93.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>124.0</v>
+        <v>139.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D67" t="n">
-        <v>137.0</v>
+        <v>85.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>154.0</v>
+        <v>140.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D68" t="n">
-        <v>125.0</v>
+        <v>85.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>155.0</v>
+        <v>141.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D69" t="n">
-        <v>117.0</v>
+        <v>77.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>153.0</v>
+        <v>142.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D70" t="n">
-        <v>109.0</v>
+        <v>69.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>156.0</v>
+        <v>143.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>124.0</v>
+        <v>180.0</v>
       </c>
       <c r="D71" t="n">
-        <v>101.0</v>
+        <v>61.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>152.0</v>
+        <v>147.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D72" t="n">
-        <v>93.0</v>
+        <v>69.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>151.0</v>
+        <v>148.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>124.0</v>
+        <v>172.0</v>
       </c>
       <c r="D73" t="n">
-        <v>85.0</v>
+        <v>77.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>177.0</v>
+        <v>149.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>124.0</v>
+        <v>164.0</v>
       </c>
       <c r="D74" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>176.0</v>
+        <v>203.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>124.0</v>
+        <v>196.0</v>
       </c>
       <c r="D75" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>178.0</v>
+        <v>204.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>132.0</v>
+        <v>204.0</v>
       </c>
       <c r="D76" t="n">
-        <v>81.0</v>
+        <v>57.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>150.0</v>
+        <v>205.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>148.0</v>
+        <v>212.0</v>
       </c>
       <c r="D77" t="n">
-        <v>85.0</v>
+        <v>65.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>181.0</v>
+        <v>206.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>124.0</v>
+        <v>220.0</v>
       </c>
       <c r="D78" t="n">
-        <v>61.0</v>
+        <v>73.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>182.0</v>
+        <v>207.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D79" t="n">
-        <v>53.0</v>
+        <v>69.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>183.0</v>
+        <v>208.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>124.0</v>
+        <v>228.0</v>
       </c>
       <c r="D80" t="n">
-        <v>45.0</v>
+        <v>77.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>184.0</v>
+        <v>209.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D81" t="n">
-        <v>37.0</v>
+        <v>77.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>185.0</v>
+        <v>210.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D82" t="n">
-        <v>29.0</v>
+        <v>69.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>187.0</v>
+        <v>211.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D83" t="n">
-        <v>21.0</v>
+        <v>61.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>188.0</v>
+        <v>212.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>120.0</v>
+        <v>228.0</v>
       </c>
       <c r="D84" t="n">
-        <v>9.0</v>
+        <v>61.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>189.0</v>
+        <v>213.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>128.0</v>
+        <v>228.0</v>
       </c>
       <c r="D85" t="n">
-        <v>9.0</v>
+        <v>53.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>190.0</v>
+        <v>214.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>136.0</v>
+        <v>236.0</v>
       </c>
       <c r="D86" t="n">
-        <v>9.0</v>
+        <v>53.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>191.0</v>
+        <v>215.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>148.0</v>
+        <v>236.0</v>
       </c>
       <c r="D87" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>192.0</v>
+        <v>216.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>162.0</v>
+        <v>228.0</v>
       </c>
       <c r="D88" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>195.0</v>
+        <v>217.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D89" t="n">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>196.0</v>
+        <v>218.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D90" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>201.0</v>
+        <v>219.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>180.0</v>
+        <v>236.0</v>
       </c>
       <c r="D91" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D92" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>199.0</v>
+        <v>221.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D93" t="n">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>198.0</v>
+        <v>222.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D94" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>197.0</v>
+        <v>223.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>172.0</v>
+        <v>252.0</v>
       </c>
       <c r="D95" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>194.0</v>
+        <v>224.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
       <c r="D96" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>193.0</v>
+        <v>252.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>156.0</v>
+        <v>236.0</v>
       </c>
       <c r="D97" t="n">
-        <v>25.0</v>
+        <v>85.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>186.0</v>
+        <v>253.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>132.0</v>
+        <v>228.0</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0</v>
+        <v>85.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>180.0</v>
+        <v>254.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>132.0</v>
+        <v>228.0</v>
       </c>
       <c r="D99" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>179.0</v>
+        <v>255.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>140.0</v>
+        <v>236.0</v>
       </c>
       <c r="D100" t="n">
-        <v>65.0</v>
+        <v>93.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>146.0</v>
+        <v>256.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>172.0</v>
+        <v>236.0</v>
       </c>
       <c r="D101" t="n">
-        <v>61.0</v>
+        <v>101.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>145.0</v>
+        <v>257.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>172.0</v>
+        <v>228.0</v>
       </c>
       <c r="D102" t="n">
-        <v>53.0</v>
+        <v>101.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>143.0</v>
+        <v>258.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D103" t="n">
-        <v>61.0</v>
+        <v>109.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>144.0</v>
+        <v>259.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>180.0</v>
+        <v>228.0</v>
       </c>
       <c r="D104" t="n">
-        <v>53.0</v>
+        <v>117.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>202.0</v>
+        <v>261.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>188.0</v>
+        <v>220.0</v>
       </c>
       <c r="D105" t="n">
-        <v>41.0</v>
+        <v>125.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>203.0</v>
+        <v>262.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>196.0</v>
+        <v>212.0</v>
       </c>
       <c r="D106" t="n">
-        <v>49.0</v>
+        <v>117.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>204.0</v>
+        <v>263.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -1868,7 +1868,7 @@
         <v>204.0</v>
       </c>
       <c r="D107" t="n">
-        <v>57.0</v>
+        <v>109.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>205.0</v>
+        <v>264.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>212.0</v>
+        <v>196.0</v>
       </c>
       <c r="D108" t="n">
-        <v>65.0</v>
+        <v>101.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>206.0</v>
+        <v>265.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>220.0</v>
+        <v>188.0</v>
       </c>
       <c r="D109" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>208.0</v>
+        <v>266.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D110" t="n">
-        <v>77.0</v>
+        <v>93.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>253.0</v>
+        <v>267.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D111" t="n">
-        <v>85.0</v>
+        <v>101.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>254.0</v>
+        <v>268.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>228.0</v>
+        <v>180.0</v>
       </c>
       <c r="D112" t="n">
-        <v>93.0</v>
+        <v>109.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>255.0</v>
+        <v>269.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>236.0</v>
+        <v>180.0</v>
       </c>
       <c r="D113" t="n">
-        <v>93.0</v>
+        <v>117.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>252.0</v>
+        <v>270.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>236.0</v>
+        <v>180.0</v>
       </c>
       <c r="D114" t="n">
-        <v>85.0</v>
+        <v>125.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>209.0</v>
+        <v>271.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>236.0</v>
+        <v>196.0</v>
       </c>
       <c r="D115" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>207.0</v>
+        <v>20.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>228.0</v>
+        <v>148.0</v>
       </c>
       <c r="D116" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>212.0</v>
+        <v>21.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>228.0</v>
+        <v>140.0</v>
       </c>
       <c r="D117" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>210.0</v>
+        <v>22.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>236.0</v>
+        <v>148.0</v>
       </c>
       <c r="D118" t="n">
-        <v>69.0</v>
+        <v>169.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>211.0</v>
+        <v>23.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>236.0</v>
+        <v>164.0</v>
       </c>
       <c r="D119" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>213.0</v>
+        <v>25.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>228.0</v>
+        <v>156.0</v>
       </c>
       <c r="D120" t="n">
-        <v>53.0</v>
+        <v>169.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>216.0</v>
+        <v>26.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>228.0</v>
+        <v>140.0</v>
       </c>
       <c r="D121" t="n">
-        <v>45.0</v>
+        <v>169.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>217.0</v>
+        <v>27.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>228.0</v>
+        <v>132.0</v>
       </c>
       <c r="D122" t="n">
-        <v>37.0</v>
+        <v>169.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>220.0</v>
+        <v>28.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>228.0</v>
+        <v>124.0</v>
       </c>
       <c r="D123" t="n">
-        <v>29.0</v>
+        <v>169.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>221.0</v>
+        <v>29.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>228.0</v>
+        <v>116.0</v>
       </c>
       <c r="D124" t="n">
-        <v>21.0</v>
+        <v>161.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>222.0</v>
+        <v>30.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D125" t="n">
-        <v>21.0</v>
+        <v>153.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>219.0</v>
+        <v>31.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D126" t="n">
-        <v>29.0</v>
+        <v>161.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>218.0</v>
+        <v>32.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>236.0</v>
+        <v>104.0</v>
       </c>
       <c r="D127" t="n">
-        <v>37.0</v>
+        <v>169.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.0</v>
+        <v>33.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>236.0</v>
+        <v>90.0</v>
       </c>
       <c r="D128" t="n">
-        <v>53.0</v>
+        <v>165.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.0</v>
+        <v>34.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>236.0</v>
+        <v>80.0</v>
       </c>
       <c r="D129" t="n">
-        <v>45.0</v>
+        <v>157.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>223.0</v>
+        <v>35.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>252.0</v>
+        <v>64.0</v>
       </c>
       <c r="D130" t="n">
-        <v>21.0</v>
+        <v>157.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>224.0</v>
+        <v>36.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>260.0</v>
+        <v>64.0</v>
       </c>
       <c r="D131" t="n">
-        <v>29.0</v>
+        <v>165.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>225.0</v>
+        <v>37.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D132" t="n">
-        <v>37.0</v>
+        <v>169.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>226.0</v>
+        <v>38.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D133" t="n">
-        <v>45.0</v>
+        <v>161.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>227.0</v>
+        <v>39.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>260.0</v>
+        <v>56.0</v>
       </c>
       <c r="D134" t="n">
-        <v>53.0</v>
+        <v>153.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>228.0</v>
+        <v>50.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>260.0</v>
+        <v>40.0</v>
       </c>
       <c r="D135" t="n">
-        <v>61.0</v>
+        <v>169.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>229.0</v>
+        <v>120.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D136" t="n">
-        <v>69.0</v>
+        <v>105.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>230.0</v>
+        <v>121.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>260.0</v>
+        <v>104.0</v>
       </c>
       <c r="D137" t="n">
-        <v>77.0</v>
+        <v>113.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>234.0</v>
+        <v>122.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>276.0</v>
+        <v>104.0</v>
       </c>
       <c r="D138" t="n">
-        <v>53.0</v>
+        <v>121.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>235.0</v>
+        <v>123.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D139" t="n">
-        <v>53.0</v>
+        <v>129.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>236.0</v>
+        <v>124.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D140" t="n">
-        <v>61.0</v>
+        <v>137.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>237.0</v>
+        <v>125.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>284.0</v>
+        <v>104.0</v>
       </c>
       <c r="D141" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>233.0</v>
+        <v>126.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>276.0</v>
+        <v>116.0</v>
       </c>
       <c r="D142" t="n">
-        <v>61.0</v>
+        <v>145.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>232.0</v>
+        <v>127.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>276.0</v>
+        <v>124.0</v>
       </c>
       <c r="D143" t="n">
-        <v>69.0</v>
+        <v>145.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>231.0</v>
+        <v>128.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>276.0</v>
+        <v>132.0</v>
       </c>
       <c r="D144" t="n">
-        <v>77.0</v>
+        <v>145.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>246.0</v>
+        <v>129.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>276.0</v>
+        <v>132.0</v>
       </c>
       <c r="D145" t="n">
-        <v>85.0</v>
+        <v>137.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>238.0</v>
+        <v>130.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>284.0</v>
+        <v>140.0</v>
       </c>
       <c r="D146" t="n">
-        <v>77.0</v>
+        <v>137.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>239.0</v>
+        <v>131.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>284.0</v>
+        <v>148.0</v>
       </c>
       <c r="D147" t="n">
-        <v>85.0</v>
+        <v>137.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>240.0</v>
+        <v>153.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>284.0</v>
+        <v>124.0</v>
       </c>
       <c r="D148" t="n">
-        <v>93.0</v>
+        <v>109.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>245.0</v>
+        <v>154.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>276.0</v>
+        <v>124.0</v>
       </c>
       <c r="D149" t="n">
-        <v>93.0</v>
+        <v>125.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>251.0</v>
+        <v>155.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>260.0</v>
+        <v>124.0</v>
       </c>
       <c r="D150" t="n">
-        <v>85.0</v>
+        <v>117.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>250.0</v>
+        <v>156.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>260.0</v>
+        <v>124.0</v>
       </c>
       <c r="D151" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>247.0</v>
+        <v>40.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>268.0</v>
+        <v>56.0</v>
       </c>
       <c r="D152" t="n">
-        <v>97.0</v>
+        <v>145.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>244.0</v>
+        <v>41.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>276.0</v>
+        <v>56.0</v>
       </c>
       <c r="D153" t="n">
-        <v>101.0</v>
+        <v>137.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>241.0</v>
+        <v>42.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>284.0</v>
+        <v>56.0</v>
       </c>
       <c r="D154" t="n">
-        <v>101.0</v>
+        <v>129.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>242.0</v>
+        <v>43.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>288.0</v>
+        <v>56.0</v>
       </c>
       <c r="D155" t="n">
-        <v>109.0</v>
+        <v>121.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>243.0</v>
+        <v>44.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>280.0</v>
+        <v>40.0</v>
       </c>
       <c r="D156" t="n">
-        <v>109.0</v>
+        <v>121.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>248.0</v>
+        <v>45.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>260.0</v>
+        <v>40.0</v>
       </c>
       <c r="D157" t="n">
-        <v>109.0</v>
+        <v>129.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>249.0</v>
+        <v>46.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>252.0</v>
+        <v>40.0</v>
       </c>
       <c r="D158" t="n">
-        <v>101.0</v>
+        <v>137.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>256.0</v>
+        <v>47.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>236.0</v>
+        <v>40.0</v>
       </c>
       <c r="D159" t="n">
-        <v>101.0</v>
+        <v>145.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>257.0</v>
+        <v>48.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>228.0</v>
+        <v>40.0</v>
       </c>
       <c r="D160" t="n">
-        <v>101.0</v>
+        <v>153.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>258.0</v>
+        <v>49.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>228.0</v>
+        <v>40.0</v>
       </c>
       <c r="D161" t="n">
-        <v>109.0</v>
+        <v>161.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>259.0</v>
+        <v>51.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D162" t="n">
-        <v>117.0</v>
+        <v>169.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>263.0</v>
+        <v>52.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>204.0</v>
+        <v>32.0</v>
       </c>
       <c r="D163" t="n">
-        <v>109.0</v>
+        <v>161.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>262.0</v>
+        <v>53.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>212.0</v>
+        <v>32.0</v>
       </c>
       <c r="D164" t="n">
-        <v>117.0</v>
+        <v>153.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>261.0</v>
+        <v>54.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>220.0</v>
+        <v>32.0</v>
       </c>
       <c r="D165" t="n">
-        <v>125.0</v>
+        <v>145.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>260.0</v>
+        <v>55.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D166" t="n">
-        <v>125.0</v>
+        <v>137.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>278.0</v>
+        <v>56.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>252.0</v>
+        <v>32.0</v>
       </c>
       <c r="D167" t="n">
-        <v>125.0</v>
+        <v>129.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>279.0</v>
+        <v>57.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>260.0</v>
+        <v>32.0</v>
       </c>
       <c r="D168" t="n">
-        <v>129.0</v>
+        <v>121.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4.0</v>
+        <v>58.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>256.0</v>
+        <v>32.0</v>
       </c>
       <c r="D169" t="n">
-        <v>141.0</v>
+        <v>113.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>277.0</v>
+        <v>59.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>246.0</v>
+        <v>40.0</v>
       </c>
       <c r="D170" t="n">
-        <v>141.0</v>
+        <v>113.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6.0</v>
+        <v>60.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>246.0</v>
+        <v>56.0</v>
       </c>
       <c r="D171" t="n">
-        <v>157.0</v>
+        <v>113.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.0</v>
+        <v>61.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>228.0</v>
+        <v>56.0</v>
       </c>
       <c r="D172" t="n">
-        <v>161.0</v>
+        <v>105.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>276.0</v>
+        <v>62.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>236.0</v>
+        <v>48.0</v>
       </c>
       <c r="D173" t="n">
-        <v>145.0</v>
+        <v>99.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>275.0</v>
+        <v>63.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>228.0</v>
+        <v>40.0</v>
       </c>
       <c r="D174" t="n">
-        <v>145.0</v>
+        <v>99.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>274.0</v>
+        <v>64.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>220.0</v>
+        <v>32.0</v>
       </c>
       <c r="D175" t="n">
-        <v>145.0</v>
+        <v>97.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>273.0</v>
+        <v>65.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>212.0</v>
+        <v>32.0</v>
       </c>
       <c r="D176" t="n">
-        <v>145.0</v>
+        <v>89.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>272.0</v>
+        <v>66.0</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>204.0</v>
+        <v>24.0</v>
       </c>
       <c r="D177" t="n">
-        <v>145.0</v>
+        <v>89.0</v>
       </c>
       <c r="E177" t="n">
         <v>1.0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>271.0</v>
+        <v>67.0</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>196.0</v>
+        <v>16.0</v>
       </c>
       <c r="D178" t="n">
-        <v>145.0</v>
+        <v>97.0</v>
       </c>
       <c r="E178" t="n">
         <v>1.0</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C179" t="n">
         <v>16.0</v>
       </c>
-      <c r="B179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>188.0</v>
-      </c>
       <c r="D179" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E179" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.0</v>
+        <v>69.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D180" t="n">
-        <v>145.0</v>
+        <v>109.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>18.0</v>
+        <v>70.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>164.0</v>
+        <v>8.0</v>
       </c>
       <c r="D181" t="n">
-        <v>145.0</v>
+        <v>97.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>133.0</v>
+        <v>71.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>164.0</v>
+        <v>8.0</v>
       </c>
       <c r="D182" t="n">
-        <v>137.0</v>
+        <v>89.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>134.0</v>
+        <v>83.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D183" t="n">
-        <v>125.0</v>
+        <v>65.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>135.0</v>
+        <v>84.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D184" t="n">
-        <v>117.0</v>
+        <v>73.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>136.0</v>
+        <v>85.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>172.0</v>
+        <v>32.0</v>
       </c>
       <c r="D185" t="n">
-        <v>109.0</v>
+        <v>81.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>137.0</v>
+        <v>86.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D186" t="n">
-        <v>101.0</v>
+        <v>83.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>138.0</v>
+        <v>87.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D187" t="n">
-        <v>93.0</v>
+        <v>73.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>139.0</v>
+        <v>88.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>172.0</v>
+        <v>40.0</v>
       </c>
       <c r="D188" t="n">
-        <v>85.0</v>
+        <v>63.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>149.0</v>
+        <v>107.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>164.0</v>
+        <v>72.0</v>
       </c>
       <c r="D189" t="n">
-        <v>81.0</v>
+        <v>49.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>148.0</v>
+        <v>108.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>172.0</v>
+        <v>56.0</v>
       </c>
       <c r="D190" t="n">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>147.0</v>
+        <v>109.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>172.0</v>
+        <v>48.0</v>
       </c>
       <c r="D191" t="n">
-        <v>69.0</v>
+        <v>51.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>142.0</v>
+        <v>110.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D192" t="n">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>141.0</v>
+        <v>111.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D193" t="n">
-        <v>77.0</v>
+        <v>65.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>140.0</v>
+        <v>112.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D194" t="n">
-        <v>85.0</v>
+        <v>63.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>266.0</v>
+        <v>113.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D195" t="n">
-        <v>93.0</v>
+        <v>73.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>265.0</v>
+        <v>114.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>188.0</v>
+        <v>56.0</v>
       </c>
       <c r="D196" t="n">
-        <v>93.0</v>
+        <v>73.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>264.0</v>
+        <v>115.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>196.0</v>
+        <v>56.0</v>
       </c>
       <c r="D197" t="n">
-        <v>101.0</v>
+        <v>81.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>267.0</v>
+        <v>116.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="D198" t="n">
-        <v>101.0</v>
+        <v>83.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>268.0</v>
+        <v>117.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D199" t="n">
-        <v>109.0</v>
+        <v>89.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>269.0</v>
+        <v>118.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>180.0</v>
+        <v>56.0</v>
       </c>
       <c r="D200" t="n">
-        <v>117.0</v>
+        <v>97.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>270.0</v>
+        <v>119.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>180.0</v>
+        <v>104.0</v>
       </c>
       <c r="D201" t="n">
-        <v>125.0</v>
+        <v>97.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>132.0</v>
+        <v>144.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>156.0</v>
+        <v>180.0</v>
       </c>
       <c r="D202" t="n">
-        <v>137.0</v>
+        <v>53.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>131.0</v>
+        <v>145.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>148.0</v>
+        <v>172.0</v>
       </c>
       <c r="D203" t="n">
-        <v>137.0</v>
+        <v>53.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>21.0</v>
+        <v>146.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>140.0</v>
+        <v>172.0</v>
       </c>
       <c r="D204" t="n">
-        <v>145.0</v>
+        <v>61.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -3534,7 +3534,7 @@
         <v>148.0</v>
       </c>
       <c r="D205" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.0</v>
+        <v>151.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>156.0</v>
+        <v>124.0</v>
       </c>
       <c r="D206" t="n">
-        <v>145.0</v>
+        <v>85.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>130.0</v>
+        <v>152.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>140.0</v>
+        <v>124.0</v>
       </c>
       <c r="D207" t="n">
-        <v>137.0</v>
+        <v>93.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>129.0</v>
+        <v>157.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>132.0</v>
+        <v>104.0</v>
       </c>
       <c r="D208" t="n">
-        <v>137.0</v>
+        <v>89.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>128.0</v>
+        <v>158.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>132.0</v>
+        <v>104.0</v>
       </c>
       <c r="D209" t="n">
-        <v>145.0</v>
+        <v>81.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>127.0</v>
+        <v>159.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="D210" t="n">
-        <v>145.0</v>
+        <v>73.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>126.0</v>
+        <v>160.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>116.0</v>
+        <v>104.0</v>
       </c>
       <c r="D211" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>125.0</v>
+        <v>161.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -3653,7 +3653,7 @@
         <v>104.0</v>
       </c>
       <c r="D212" t="n">
-        <v>145.0</v>
+        <v>49.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>30.0</v>
+        <v>162.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
@@ -3670,7 +3670,7 @@
         <v>104.0</v>
       </c>
       <c r="D213" t="n">
-        <v>153.0</v>
+        <v>41.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>31.0</v>
+        <v>163.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -3687,7 +3687,7 @@
         <v>104.0</v>
       </c>
       <c r="D214" t="n">
-        <v>161.0</v>
+        <v>33.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>34.0</v>
+        <v>164.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>80.0</v>
+        <v>104.0</v>
       </c>
       <c r="D215" t="n">
-        <v>157.0</v>
+        <v>25.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>35.0</v>
+        <v>174.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>64.0</v>
+        <v>88.0</v>
       </c>
       <c r="D216" t="n">
-        <v>157.0</v>
+        <v>49.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>48.0</v>
+        <v>175.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D217" t="n">
-        <v>153.0</v>
+        <v>57.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>53.0</v>
+        <v>176.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D218" t="n">
-        <v>153.0</v>
+        <v>69.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>54.0</v>
+        <v>177.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D219" t="n">
-        <v>145.0</v>
+        <v>77.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>55.0</v>
+        <v>178.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>32.0</v>
+        <v>132.0</v>
       </c>
       <c r="D220" t="n">
-        <v>137.0</v>
+        <v>81.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>47.0</v>
+        <v>179.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>40.0</v>
+        <v>140.0</v>
       </c>
       <c r="D221" t="n">
-        <v>145.0</v>
+        <v>65.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>46.0</v>
+        <v>180.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>40.0</v>
+        <v>132.0</v>
       </c>
       <c r="D222" t="n">
-        <v>137.0</v>
+        <v>61.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56.0</v>
+        <v>181.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D223" t="n">
-        <v>129.0</v>
+        <v>61.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57.0</v>
+        <v>182.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D224" t="n">
-        <v>121.0</v>
+        <v>53.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>58.0</v>
+        <v>183.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D225" t="n">
-        <v>113.0</v>
+        <v>45.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>59.0</v>
+        <v>184.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D226" t="n">
-        <v>113.0</v>
+        <v>37.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>45.0</v>
+        <v>185.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>40.0</v>
+        <v>124.0</v>
       </c>
       <c r="D227" t="n">
-        <v>129.0</v>
+        <v>29.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>44.0</v>
+        <v>186.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>40.0</v>
+        <v>132.0</v>
       </c>
       <c r="D228" t="n">
-        <v>121.0</v>
+        <v>21.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>64.0</v>
+        <v>187.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D229" t="n">
-        <v>97.0</v>
+        <v>21.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>68.0</v>
+        <v>188.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>16.0</v>
+        <v>120.0</v>
       </c>
       <c r="D230" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>69.0</v>
+        <v>189.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>8.0</v>
+        <v>128.0</v>
       </c>
       <c r="D231" t="n">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>70.0</v>
+        <v>190.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>8.0</v>
+        <v>136.0</v>
       </c>
       <c r="D232" t="n">
-        <v>97.0</v>
+        <v>9.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>71.0</v>
+        <v>191.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>8.0</v>
+        <v>148.0</v>
       </c>
       <c r="D233" t="n">
-        <v>89.0</v>
+        <v>9.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>72.0</v>
+        <v>192.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>8.0</v>
+        <v>162.0</v>
       </c>
       <c r="D234" t="n">
-        <v>81.0</v>
+        <v>9.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>73.0</v>
+        <v>193.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>8.0</v>
+        <v>156.0</v>
       </c>
       <c r="D235" t="n">
-        <v>73.0</v>
+        <v>25.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>74.0</v>
+        <v>194.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>8.0</v>
+        <v>172.0</v>
       </c>
       <c r="D236" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>75.0</v>
+        <v>195.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>8.0</v>
+        <v>180.0</v>
       </c>
       <c r="D237" t="n">
-        <v>57.0</v>
+        <v>21.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>77.0</v>
+        <v>196.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>8.0</v>
+        <v>180.0</v>
       </c>
       <c r="D238" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>78.0</v>
+        <v>197.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>8.0</v>
+        <v>172.0</v>
       </c>
       <c r="D239" t="n">
-        <v>41.0</v>
+        <v>29.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>76.0</v>
+        <v>198.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>16.0</v>
+        <v>172.0</v>
       </c>
       <c r="D240" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>67.0</v>
+        <v>199.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>16.0</v>
+        <v>172.0</v>
       </c>
       <c r="D241" t="n">
-        <v>97.0</v>
+        <v>45.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>66.0</v>
+        <v>200.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>24.0</v>
+        <v>180.0</v>
       </c>
       <c r="D242" t="n">
-        <v>89.0</v>
+        <v>45.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>65.0</v>
+        <v>201.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>32.0</v>
+        <v>180.0</v>
       </c>
       <c r="D243" t="n">
-        <v>89.0</v>
+        <v>37.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>63.0</v>
+        <v>202.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>40.0</v>
+        <v>188.0</v>
       </c>
       <c r="D244" t="n">
-        <v>99.0</v>
+        <v>41.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>62.0</v>
+        <v>91.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="D245" t="n">
-        <v>99.0</v>
+        <v>35.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>118.0</v>
+        <v>92.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
       <c r="D246" t="n">
-        <v>97.0</v>
+        <v>27.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>61.0</v>
+        <v>99.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
       <c r="D247" t="n">
-        <v>105.0</v>
+        <v>11.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -4265,7 +4265,7 @@
         <v>56.0</v>
       </c>
       <c r="D248" t="n">
-        <v>113.0</v>
+        <v>9.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>43.0</v>
+        <v>101.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -4282,7 +4282,7 @@
         <v>56.0</v>
       </c>
       <c r="D249" t="n">
-        <v>121.0</v>
+        <v>17.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>42.0</v>
+        <v>102.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -4299,7 +4299,7 @@
         <v>56.0</v>
       </c>
       <c r="D250" t="n">
-        <v>129.0</v>
+        <v>25.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>41.0</v>
+        <v>103.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -4316,7 +4316,7 @@
         <v>56.0</v>
       </c>
       <c r="D251" t="n">
-        <v>137.0</v>
+        <v>33.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -4333,7 +4333,7 @@
         <v>56.0</v>
       </c>
       <c r="D252" t="n">
-        <v>145.0</v>
+        <v>41.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>39.0</v>
+        <v>105.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
       <c r="D253" t="n">
-        <v>153.0</v>
+        <v>41.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>38.0</v>
+        <v>106.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>56.0</v>
+        <v>72.0</v>
       </c>
       <c r="D254" t="n">
-        <v>161.0</v>
+        <v>41.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>49.0</v>
+        <v>165.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>40.0</v>
+        <v>104.0</v>
       </c>
       <c r="D255" t="n">
-        <v>161.0</v>
+        <v>17.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>52.0</v>
+        <v>166.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>32.0</v>
+        <v>92.0</v>
       </c>
       <c r="D256" t="n">
-        <v>161.0</v>
+        <v>9.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>51.0</v>
+        <v>167.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="D257" t="n">
-        <v>169.0</v>
+        <v>9.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>50.0</v>
+        <v>168.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
       <c r="D258" t="n">
-        <v>169.0</v>
+        <v>9.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>37.0</v>
+        <v>169.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
       <c r="D259" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>36.0</v>
+        <v>170.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>64.0</v>
+        <v>72.0</v>
       </c>
       <c r="D260" t="n">
-        <v>165.0</v>
+        <v>25.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>33.0</v>
+        <v>171.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="D261" t="n">
-        <v>165.0</v>
+        <v>25.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>32.0</v>
+        <v>172.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>104.0</v>
+        <v>80.0</v>
       </c>
       <c r="D262" t="n">
-        <v>169.0</v>
+        <v>25.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>29.0</v>
+        <v>173.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>116.0</v>
+        <v>80.0</v>
       </c>
       <c r="D263" t="n">
-        <v>161.0</v>
+        <v>41.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>28.0</v>
+        <v>72.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>124.0</v>
+        <v>8.0</v>
       </c>
       <c r="D264" t="n">
-        <v>169.0</v>
+        <v>81.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>27.0</v>
+        <v>73.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>132.0</v>
+        <v>8.0</v>
       </c>
       <c r="D265" t="n">
-        <v>169.0</v>
+        <v>73.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>26.0</v>
+        <v>74.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>140.0</v>
+        <v>8.0</v>
       </c>
       <c r="D266" t="n">
-        <v>169.0</v>
+        <v>65.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>22.0</v>
+        <v>75.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>148.0</v>
+        <v>8.0</v>
       </c>
       <c r="D267" t="n">
-        <v>169.0</v>
+        <v>57.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>25.0</v>
+        <v>76.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>156.0</v>
+        <v>16.0</v>
       </c>
       <c r="D268" t="n">
-        <v>169.0</v>
+        <v>57.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>23.0</v>
+        <v>77.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>164.0</v>
+        <v>8.0</v>
       </c>
       <c r="D269" t="n">
-        <v>169.0</v>
+        <v>49.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>24.0</v>
+        <v>78.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>172.0</v>
+        <v>8.0</v>
       </c>
       <c r="D270" t="n">
-        <v>169.0</v>
+        <v>41.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>15.0</v>
+        <v>79.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>196.0</v>
+        <v>24.0</v>
       </c>
       <c r="D271" t="n">
-        <v>161.0</v>
+        <v>45.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>14.0</v>
+        <v>80.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>188.0</v>
+        <v>32.0</v>
       </c>
       <c r="D272" t="n">
-        <v>169.0</v>
+        <v>41.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>13.0</v>
+        <v>81.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>196.0</v>
+        <v>32.0</v>
       </c>
       <c r="D273" t="n">
-        <v>169.0</v>
+        <v>49.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>12.0</v>
+        <v>82.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>204.0</v>
+        <v>32.0</v>
       </c>
       <c r="D274" t="n">
-        <v>169.0</v>
+        <v>57.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>11.0</v>
+        <v>89.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>212.0</v>
+        <v>40.0</v>
       </c>
       <c r="D275" t="n">
-        <v>169.0</v>
+        <v>51.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10.0</v>
+        <v>90.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>220.0</v>
+        <v>44.0</v>
       </c>
       <c r="D276" t="n">
-        <v>169.0</v>
+        <v>43.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>8.0</v>
+        <v>93.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>228.0</v>
+        <v>32.0</v>
       </c>
       <c r="D277" t="n">
-        <v>169.0</v>
+        <v>25.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>7.0</v>
+        <v>94.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>236.0</v>
+        <v>24.0</v>
       </c>
       <c r="D278" t="n">
-        <v>169.0</v>
+        <v>25.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>5.0</v>
+        <v>95.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>256.0</v>
+        <v>16.0</v>
       </c>
       <c r="D279" t="n">
-        <v>157.0</v>
+        <v>25.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3.0</v>
+        <v>96.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>270.0</v>
+        <v>16.0</v>
       </c>
       <c r="D280" t="n">
-        <v>133.0</v>
+        <v>17.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>280.0</v>
+        <v>97.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>280.0</v>
+        <v>24.0</v>
       </c>
       <c r="D281" t="n">
-        <v>133.0</v>
+        <v>17.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.0</v>
+        <v>98.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>288.0</v>
+        <v>32.0</v>
       </c>
       <c r="D282" t="n">
-        <v>129.0</v>
+        <v>17.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
